--- a/backend/output/916789_V0.1.xlsx
+++ b/backend/output/916789_V0.1.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Pagina2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Pagina1'!$A$1:$K$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Pagina2'!$A$1:$J$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Pagina1'!$A$3:$K$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Pagina2'!$A$3:$P$36</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -37,12 +37,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -214,7 +208,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
+      <color rgb="00FFFFFF"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,8 +220,13 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -420,8 +419,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F81BD"/>
+        <bgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -486,23 +491,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,19 +518,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -572,12 +553,109 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -697,6 +775,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -705,152 +824,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -859,157 +978,202 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,7 +1659,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>34</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="904875" cy="381000"/>
@@ -1518,12 +1682,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>12</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1619250" cy="857250"/>
+    <ext cx="2400300" cy="1047750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -1832,1195 +1996,1359 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:K36"/>
+  <dimension ref="A3:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="14.152380952381" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.8666666666667" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10.0095238095238" customWidth="1" style="1" min="3" max="5"/>
-    <col width="12.5809523809524" customWidth="1" style="1" min="6" max="7"/>
-    <col width="18.152380952381" customWidth="1" style="1" min="8" max="8"/>
-    <col width="24.4380952380952" customWidth="1" style="1" min="9" max="9"/>
-    <col width="17.2952380952381" customWidth="1" style="1" min="10" max="10"/>
-    <col width="36" customWidth="1" style="1" min="11" max="11"/>
+    <col width="14.152380952381" customWidth="1" style="42" min="1" max="1"/>
+    <col width="10.8666666666667" customWidth="1" style="42" min="2" max="2"/>
+    <col width="10.0095238095238" customWidth="1" style="42" min="3" max="5"/>
+    <col width="12.5809523809524" customWidth="1" style="42" min="6" max="7"/>
+    <col width="18.152380952381" customWidth="1" style="42" min="8" max="8"/>
+    <col width="24.4380952380952" customWidth="1" style="42" min="9" max="9"/>
+    <col width="17.2952380952381" customWidth="1" style="42" min="10" max="10"/>
+    <col width="36" customWidth="1" style="42" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="1"/>
-    <row r="2" ht="18.75" customHeight="1" s="1"/>
-    <row r="3" ht="18.75" customHeight="1" s="1">
+    <row r="1" ht="18.75" customHeight="1" s="42"/>
+    <row r="2" ht="18.75" customHeight="1" s="42"/>
+    <row r="3" ht="18.75" customHeight="1" s="42">
       <c r="A3" s="2" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="20" t="n"/>
-      <c r="G3" s="20" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="26" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="1">
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="23" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="42">
       <c r="A4" s="5" t="n"/>
-      <c r="J4" s="36" t="inlineStr">
+      <c r="J4" s="51" t="inlineStr">
         <is>
           <t>PROJETO DE SISTEMATIZAÇÃO</t>
         </is>
       </c>
-      <c r="K4" s="37" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="1">
+      <c r="K4" s="52" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="42">
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="6" t="n"/>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="n"/>
+      <c r="F5" s="24" t="n"/>
+      <c r="G5" s="24" t="n"/>
       <c r="H5" s="6" t="n"/>
-      <c r="I5" s="34" t="n"/>
-      <c r="J5" s="34" t="n"/>
-      <c r="K5" s="28" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="1">
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="25" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="42">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="6" t="n"/>
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
+      <c r="F6" s="24" t="n"/>
+      <c r="G6" s="24" t="n"/>
       <c r="H6" s="6" t="n"/>
-      <c r="I6" s="34" t="n"/>
-      <c r="J6" s="38" t="inlineStr">
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="53" t="inlineStr">
         <is>
           <t>CONSTRUÇÃO DE CAIXA SECA</t>
         </is>
       </c>
-      <c r="K6" s="28" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="1">
+      <c r="K6" s="25" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="42">
       <c r="A7" s="5" t="n"/>
       <c r="B7" s="6" t="n"/>
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
+      <c r="F7" s="24" t="n"/>
+      <c r="G7" s="24" t="n"/>
       <c r="H7" s="6" t="n"/>
-      <c r="I7" s="34" t="n"/>
-      <c r="J7" s="38" t="inlineStr">
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="53" t="inlineStr">
         <is>
           <t>CONSTRUÇÃO DE LOMBADAS</t>
         </is>
       </c>
-      <c r="K7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="1">
+      <c r="K7" s="25" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" s="42">
       <c r="A8" s="5" t="n"/>
       <c r="B8" s="6" t="n"/>
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
+      <c r="F8" s="24" t="n"/>
+      <c r="G8" s="24" t="n"/>
       <c r="H8" s="6" t="n"/>
-      <c r="I8" s="34" t="n"/>
-      <c r="J8" s="38" t="inlineStr">
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="53" t="inlineStr">
         <is>
           <t>CONSTRUÇÃO DE TERRAÇO BASE LARGA</t>
         </is>
       </c>
-      <c r="K8" s="28" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="1">
+      <c r="K8" s="25" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="42">
       <c r="A9" s="5" t="n"/>
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
+      <c r="F9" s="24" t="n"/>
+      <c r="G9" s="24" t="n"/>
       <c r="H9" s="6" t="n"/>
-      <c r="I9" s="34" t="n"/>
-      <c r="J9" s="38" t="inlineStr">
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="53" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CARREADOR 5M</t>
         </is>
       </c>
-      <c r="K9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="1">
+      <c r="K9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="42">
       <c r="A10" s="5" t="n"/>
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
+      <c r="F10" s="24" t="n"/>
+      <c r="G10" s="24" t="n"/>
       <c r="H10" s="6" t="n"/>
-      <c r="I10" s="34" t="n"/>
-      <c r="J10" s="38" t="inlineStr">
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="53" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CARREADOR 6M</t>
         </is>
       </c>
-      <c r="K10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="1">
+      <c r="K10" s="25" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="42">
       <c r="A11" s="5" t="n"/>
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="n"/>
       <c r="D11" s="6" t="n"/>
       <c r="E11" s="6" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="34" t="n"/>
+      <c r="F11" s="24" t="n"/>
+      <c r="G11" s="8" t="n"/>
       <c r="H11" s="6" t="n"/>
-      <c r="I11" s="34" t="n"/>
-      <c r="J11" s="38" t="inlineStr">
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="53" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CARREADOR 7.5M</t>
         </is>
       </c>
-      <c r="K11" s="28" t="n"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" s="1">
+      <c r="K11" s="25" t="n"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" s="42">
       <c r="A12" s="5" t="n"/>
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="F12" s="24" t="n"/>
+      <c r="G12" s="24" t="n"/>
       <c r="H12" s="6" t="n"/>
-      <c r="I12" s="34" t="n"/>
-      <c r="J12" s="38" t="inlineStr">
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="53" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CURVA EMBUTIDA</t>
         </is>
       </c>
-      <c r="K12" s="28" t="n"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" s="1">
+      <c r="K12" s="25" t="n"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" s="42">
       <c r="A13" s="5" t="n"/>
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="F13" s="24" t="n"/>
+      <c r="G13" s="24" t="n"/>
       <c r="H13" s="6" t="n"/>
-      <c r="I13" s="34" t="n"/>
-      <c r="J13" s="38" t="inlineStr">
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="53" t="inlineStr">
         <is>
           <t>REDE</t>
         </is>
       </c>
-      <c r="K13" s="28" t="n"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1" s="1">
+      <c r="K13" s="25" t="n"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" s="42">
       <c r="A14" s="5" t="n"/>
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
+      <c r="F14" s="24" t="n"/>
+      <c r="G14" s="24" t="n"/>
       <c r="H14" s="6" t="n"/>
-      <c r="I14" s="34" t="n"/>
-      <c r="J14" s="38" t="inlineStr">
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="53" t="inlineStr">
         <is>
           <t>TALHÕES</t>
         </is>
       </c>
-      <c r="K14" s="28" t="n"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" s="1">
+      <c r="K14" s="25" t="n"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" s="42">
       <c r="A15" s="5" t="n"/>
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
+      <c r="F15" s="24" t="n"/>
+      <c r="G15" s="24" t="n"/>
       <c r="H15" s="6" t="n"/>
-      <c r="I15" s="34" t="n"/>
-      <c r="J15" s="38" t="inlineStr">
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="53" t="inlineStr">
         <is>
           <t>TRANSFORMAÇÃO DE EMBUTIDA P- BASE LARGA</t>
         </is>
       </c>
-      <c r="K15" s="28" t="n"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1" s="1">
+      <c r="K15" s="25" t="n"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1" s="42">
       <c r="A16" s="5" t="n"/>
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
+      <c r="F16" s="24" t="n"/>
+      <c r="G16" s="24" t="n"/>
       <c r="H16" s="6" t="n"/>
-      <c r="I16" s="34" t="n"/>
-      <c r="J16" s="38" t="inlineStr">
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="53" t="inlineStr">
         <is>
           <t>XLEGENDA SISTEMATIZAÇÃO</t>
         </is>
       </c>
-      <c r="K16" s="28" t="n"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1" s="1">
+      <c r="K16" s="25" t="n"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1" s="42">
       <c r="A17" s="5" t="n"/>
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
+      <c r="F17" s="24" t="n"/>
+      <c r="G17" s="24" t="n"/>
       <c r="H17" s="6" t="n"/>
-      <c r="I17" s="34" t="n"/>
-      <c r="J17" s="34" t="n"/>
-      <c r="K17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="19.5" customHeight="1" s="1">
+      <c r="I17" s="8" t="n"/>
+      <c r="J17" s="8" t="n"/>
+      <c r="K17" s="25" t="n"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1" s="42">
       <c r="A18" s="5" t="n"/>
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
+      <c r="F18" s="24" t="n"/>
+      <c r="G18" s="24" t="n"/>
       <c r="H18" s="6" t="n"/>
       <c r="I18" s="6" t="n"/>
       <c r="J18" s="6" t="n"/>
-      <c r="K18" s="27" t="n"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1" s="1">
+      <c r="K18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1" s="42">
       <c r="A19" s="5" t="n"/>
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="n"/>
       <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
+      <c r="F19" s="24" t="n"/>
+      <c r="G19" s="24" t="n"/>
       <c r="H19" s="6" t="n"/>
       <c r="I19" s="6" t="n"/>
       <c r="J19" s="6" t="n"/>
-      <c r="K19" s="27" t="n"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1" s="1">
+      <c r="K19" s="26" t="n"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1" s="42">
       <c r="A20" s="5" t="n"/>
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
+      <c r="F20" s="24" t="n"/>
+      <c r="G20" s="24" t="n"/>
       <c r="H20" s="6" t="n"/>
       <c r="I20" s="6" t="n"/>
       <c r="J20" s="6" t="n"/>
-      <c r="K20" s="27" t="n"/>
-    </row>
-    <row r="21" ht="19.5" customHeight="1" s="1">
+      <c r="K20" s="26" t="n"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1" s="42">
       <c r="A21" s="5" t="n"/>
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
+      <c r="F21" s="24" t="n"/>
+      <c r="G21" s="24" t="n"/>
       <c r="H21" s="6" t="n"/>
       <c r="I21" s="6" t="n"/>
       <c r="J21" s="6" t="n"/>
-      <c r="K21" s="27" t="n"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1" s="1">
+      <c r="K21" s="26" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="42">
       <c r="A22" s="5" t="n"/>
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
+      <c r="F22" s="24" t="n"/>
+      <c r="G22" s="24" t="n"/>
       <c r="H22" s="6" t="n"/>
       <c r="I22" s="6" t="n"/>
       <c r="J22" s="6" t="n"/>
-      <c r="K22" s="27" t="n"/>
-    </row>
-    <row r="23" ht="19.5" customHeight="1" s="1">
+      <c r="K22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="42">
       <c r="A23" s="5" t="n"/>
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
+      <c r="F23" s="24" t="n"/>
+      <c r="G23" s="24" t="n"/>
       <c r="H23" s="6" t="n"/>
       <c r="I23" s="6" t="n"/>
       <c r="J23" s="6" t="n"/>
-      <c r="K23" s="27" t="n"/>
-    </row>
-    <row r="24" ht="19.5" customHeight="1" s="1">
+      <c r="K23" s="26" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="42">
       <c r="A24" s="5" t="n"/>
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
+      <c r="F24" s="24" t="n"/>
+      <c r="G24" s="24" t="n"/>
       <c r="H24" s="6" t="n"/>
       <c r="I24" s="6" t="n"/>
       <c r="J24" s="6" t="n"/>
-      <c r="K24" s="27" t="n"/>
-    </row>
-    <row r="25" ht="19.5" customHeight="1" s="1">
+      <c r="K24" s="26" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1" s="42">
       <c r="A25" s="5" t="n"/>
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="6" t="n"/>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
+      <c r="F25" s="24" t="n"/>
+      <c r="G25" s="24" t="n"/>
       <c r="H25" s="6" t="n"/>
       <c r="I25" s="6" t="n"/>
       <c r="J25" s="6" t="n"/>
-      <c r="K25" s="27" t="n"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1" s="1">
+      <c r="K25" s="26" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" s="42">
       <c r="A26" s="5" t="n"/>
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
+      <c r="F26" s="24" t="n"/>
+      <c r="G26" s="24" t="n"/>
       <c r="H26" s="6" t="n"/>
       <c r="I26" s="6" t="n"/>
       <c r="J26" s="6" t="n"/>
-      <c r="K26" s="27" t="n"/>
-    </row>
-    <row r="27" ht="19.5" customHeight="1" s="1">
+      <c r="K26" s="26" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customHeight="1" s="42">
       <c r="A27" s="5" t="n"/>
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="n"/>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
+      <c r="F27" s="24" t="n"/>
+      <c r="G27" s="24" t="n"/>
       <c r="H27" s="6" t="n"/>
       <c r="I27" s="6" t="n"/>
       <c r="J27" s="6" t="n"/>
-      <c r="K27" s="27" t="n"/>
-    </row>
-    <row r="28" ht="19.5" customHeight="1" s="1">
+      <c r="K27" s="26" t="n"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="19.5" customHeight="1" s="42">
       <c r="A28" s="5" t="n"/>
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="n"/>
       <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
+      <c r="F28" s="24" t="n"/>
+      <c r="G28" s="24" t="n"/>
       <c r="H28" s="6" t="n"/>
       <c r="I28" s="6" t="n"/>
       <c r="J28" s="6" t="n"/>
-      <c r="K28" s="27" t="n"/>
-    </row>
-    <row r="29" ht="19.5" customHeight="1" s="1">
+      <c r="K28" s="26" t="n"/>
+    </row>
+    <row r="29" ht="19.5" customHeight="1" s="42">
       <c r="A29" s="5" t="n"/>
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="n"/>
       <c r="D29" s="6" t="n"/>
       <c r="E29" s="6" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
+      <c r="F29" s="24" t="n"/>
+      <c r="G29" s="24" t="n"/>
       <c r="H29" s="6" t="n"/>
       <c r="I29" s="6" t="n"/>
       <c r="J29" s="6" t="n"/>
-      <c r="K29" s="27" t="n"/>
-    </row>
-    <row r="30" ht="19.5" customHeight="1" s="1">
-      <c r="A30" s="8" t="inlineStr">
+      <c r="K29" s="26" t="n"/>
+    </row>
+    <row r="30" ht="19.5" customHeight="1" s="42">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>APROVAÇÃO</t>
         </is>
       </c>
-      <c r="B30" s="39" t="n"/>
-      <c r="C30" s="39" t="n"/>
-      <c r="D30" s="39" t="n"/>
-      <c r="E30" s="39" t="n"/>
-      <c r="F30" s="39" t="n"/>
-      <c r="G30" s="39" t="n"/>
-      <c r="H30" s="40" t="inlineStr">
+      <c r="B30" s="54" t="n"/>
+      <c r="C30" s="54" t="n"/>
+      <c r="D30" s="54" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="54" t="n"/>
+      <c r="G30" s="54" t="n"/>
+      <c r="H30" s="55" t="inlineStr">
         <is>
           <t>INFORMAÇÕES</t>
         </is>
       </c>
-      <c r="I30" s="39" t="n"/>
-      <c r="J30" s="39" t="n"/>
-      <c r="K30" s="41" t="n"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" s="1">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="I30" s="54" t="n"/>
+      <c r="J30" s="54" t="n"/>
+      <c r="K30" s="56" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="42">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>Diretor Agrícola:______________________________________________________________________</t>
         </is>
       </c>
       <c r="B31" s="6" t="n"/>
-      <c r="C31" s="34" t="n"/>
-      <c r="D31" s="34" t="n"/>
-      <c r="E31" s="10" t="inlineStr">
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="12" t="inlineStr">
         <is>
           <t>Topografia:____________________________________________________________________________</t>
         </is>
       </c>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="10" t="inlineStr">
+      <c r="F31" s="24" t="n"/>
+      <c r="G31" s="24" t="n"/>
+      <c r="H31" s="12" t="inlineStr">
         <is>
           <t>PARC OUT:</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr"/>
-      <c r="J31" s="11" t="inlineStr">
+      <c r="I31" s="24" t="inlineStr"/>
+      <c r="J31" s="45" t="inlineStr">
         <is>
           <t>DATA:</t>
         </is>
       </c>
-      <c r="K31" s="33" t="n"/>
-    </row>
-    <row r="32" ht="19.5" customHeight="1" s="1">
-      <c r="A32" s="10" t="inlineStr">
+      <c r="K31" s="50" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1" s="42">
+      <c r="A32" s="12" t="inlineStr">
         <is>
           <t>Diretor Divisão Agrícola:______________________________________________________________</t>
         </is>
       </c>
       <c r="B32" s="6" t="n"/>
-      <c r="C32" s="34" t="n"/>
-      <c r="D32" s="34" t="n"/>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="12" t="inlineStr">
         <is>
           <t>Preparo e Plantio:__________________________________________________________________</t>
         </is>
       </c>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="10" t="inlineStr">
+      <c r="F32" s="24" t="n"/>
+      <c r="G32" s="24" t="n"/>
+      <c r="H32" s="12" t="inlineStr">
         <is>
           <t>ESCALA:</t>
         </is>
       </c>
-      <c r="I32" s="7" t="inlineStr"/>
-      <c r="J32" s="12" t="inlineStr">
-        <is>
-          <t>27/05/2025</t>
-        </is>
-      </c>
-      <c r="K32" s="37" t="n"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1" s="1">
-      <c r="A33" s="10" t="inlineStr">
+      <c r="I32" s="24" t="inlineStr"/>
+      <c r="J32" s="47" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="K32" s="52" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="42">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>Gerente Agrícola:____________________________________________________</t>
         </is>
       </c>
       <c r="B33" s="6" t="n"/>
-      <c r="C33" s="34" t="n"/>
-      <c r="D33" s="34" t="n"/>
-      <c r="E33" s="10" t="inlineStr">
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="8" t="n"/>
+      <c r="E33" s="12" t="inlineStr">
         <is>
           <t>Colheita e Transporte:______________________________________________________________________</t>
         </is>
       </c>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="7" t="n"/>
-      <c r="H33" s="10" t="inlineStr">
+      <c r="F33" s="24" t="n"/>
+      <c r="G33" s="24" t="n"/>
+      <c r="H33" s="12" t="inlineStr">
         <is>
           <t>DISTÂNCIA:</t>
         </is>
       </c>
-      <c r="I33" s="7" t="inlineStr"/>
-      <c r="J33" s="13" t="inlineStr">
+      <c r="I33" s="24" t="inlineStr"/>
+      <c r="J33" s="48" t="inlineStr">
         <is>
           <t>VERSÃO:</t>
         </is>
       </c>
-      <c r="K33" s="37" t="n"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" s="1">
-      <c r="A34" s="14" t="inlineStr">
+      <c r="K33" s="52" t="n"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" s="42">
+      <c r="A34" s="13" t="inlineStr">
         <is>
           <t>Ger. de Preparo e Plantio:_______________________________________________________________________________</t>
         </is>
       </c>
-      <c r="B34" s="15" t="n"/>
-      <c r="C34" s="15" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="14" t="inlineStr">
+      <c r="B34" s="14" t="n"/>
+      <c r="C34" s="14" t="n"/>
+      <c r="D34" s="14" t="n"/>
+      <c r="E34" s="13" t="inlineStr">
         <is>
           <t>Irrigação - Fertirrigação:_______________________________________________________________</t>
         </is>
       </c>
-      <c r="F34" s="15" t="n"/>
-      <c r="G34" s="15" t="n"/>
-      <c r="H34" s="14" t="inlineStr">
+      <c r="F34" s="14" t="n"/>
+      <c r="G34" s="14" t="n"/>
+      <c r="H34" s="13" t="inlineStr">
         <is>
           <t>AREA CANA (ha):</t>
         </is>
       </c>
-      <c r="I34" s="15" t="inlineStr"/>
-      <c r="J34" s="16" t="inlineStr">
+      <c r="I34" s="14" t="inlineStr"/>
+      <c r="J34" s="49" t="inlineStr">
         <is>
           <t>0.1</t>
         </is>
       </c>
-      <c r="K34" s="42" t="n"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" s="1">
-      <c r="A35" s="17" t="n"/>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="K34" s="57" t="n"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" s="42">
+      <c r="A35" s="15" t="n"/>
+      <c r="B35" s="58" t="inlineStr">
         <is>
           <t>PROPRIEDADE:</t>
         </is>
       </c>
-      <c r="C35" s="43" t="n"/>
-      <c r="D35" s="44" t="n"/>
-      <c r="E35" s="45" t="inlineStr">
+      <c r="C35" s="59" t="n"/>
+      <c r="D35" s="60" t="n"/>
+      <c r="E35" s="61" t="inlineStr">
         <is>
           <t>MUN. EST:</t>
         </is>
       </c>
-      <c r="F35" s="43" t="n"/>
-      <c r="G35" s="44" t="n"/>
-      <c r="H35" s="46" t="inlineStr">
+      <c r="F35" s="59" t="n"/>
+      <c r="G35" s="60" t="n"/>
+      <c r="H35" s="62" t="inlineStr">
         <is>
           <t>DESENHISTA:</t>
         </is>
       </c>
-      <c r="I35" s="43" t="n"/>
-      <c r="J35" s="43" t="n"/>
-      <c r="K35" s="44" t="n"/>
-    </row>
-    <row r="36" ht="22" customHeight="1" s="1">
-      <c r="A36" s="23" t="n"/>
-      <c r="B36" s="14" t="inlineStr">
+      <c r="I35" s="59" t="n"/>
+      <c r="J35" s="59" t="n"/>
+      <c r="K35" s="60" t="n"/>
+    </row>
+    <row r="36" ht="22" customHeight="1" s="42">
+      <c r="A36" s="20" t="n"/>
+      <c r="B36" s="13" t="inlineStr">
         <is>
           <t>916789</t>
         </is>
       </c>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="24" t="n"/>
-      <c r="E36" s="14" t="inlineStr"/>
-      <c r="F36" s="15" t="n"/>
-      <c r="G36" s="24" t="n"/>
-      <c r="H36" s="25" t="inlineStr"/>
-      <c r="I36" s="47" t="n"/>
-      <c r="J36" s="15" t="n"/>
-      <c r="K36" s="24" t="n"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" s="1"/>
-    <row r="38" ht="15.75" customHeight="1" s="1"/>
-    <row r="39" ht="15.75" customHeight="1" s="1"/>
-    <row r="40" ht="15.75" customHeight="1" s="1"/>
-    <row r="200" ht="15.75" customHeight="1" s="1"/>
-    <row r="201" ht="15.75" customHeight="1" s="1"/>
-    <row r="202" ht="15.75" customHeight="1" s="1"/>
-    <row r="203" ht="15.75" customHeight="1" s="1"/>
-    <row r="204" ht="15.75" customHeight="1" s="1"/>
-    <row r="205" ht="15.75" customHeight="1" s="1"/>
-    <row r="206" ht="15.75" customHeight="1" s="1"/>
-    <row r="207" ht="15.75" customHeight="1" s="1"/>
-    <row r="208" ht="15.75" customHeight="1" s="1"/>
-    <row r="209" ht="15.75" customHeight="1" s="1"/>
-    <row r="210" ht="15.75" customHeight="1" s="1"/>
-    <row r="211" ht="15.75" customHeight="1" s="1"/>
-    <row r="212" ht="15.75" customHeight="1" s="1"/>
-    <row r="213" ht="15.75" customHeight="1" s="1"/>
-    <row r="214" ht="15.75" customHeight="1" s="1"/>
-    <row r="215" ht="15.75" customHeight="1" s="1"/>
-    <row r="216" ht="15.75" customHeight="1" s="1"/>
-    <row r="217" ht="15.75" customHeight="1" s="1"/>
-    <row r="218" ht="15.75" customHeight="1" s="1"/>
-    <row r="219" ht="15.75" customHeight="1" s="1"/>
-    <row r="220" ht="15.75" customHeight="1" s="1"/>
-    <row r="221" ht="15.75" customHeight="1" s="1"/>
-    <row r="222" ht="15.75" customHeight="1" s="1"/>
-    <row r="223" ht="15.75" customHeight="1" s="1"/>
-    <row r="224" ht="15.75" customHeight="1" s="1"/>
-    <row r="225" ht="15.75" customHeight="1" s="1"/>
-    <row r="226" ht="15.75" customHeight="1" s="1"/>
-    <row r="227" ht="15.75" customHeight="1" s="1"/>
-    <row r="228" ht="15.75" customHeight="1" s="1"/>
-    <row r="229" ht="15.75" customHeight="1" s="1"/>
-    <row r="230" ht="15.75" customHeight="1" s="1"/>
-    <row r="231" ht="15.75" customHeight="1" s="1"/>
-    <row r="232" ht="15.75" customHeight="1" s="1"/>
-    <row r="233" ht="15.75" customHeight="1" s="1"/>
-    <row r="234" ht="15.75" customHeight="1" s="1"/>
-    <row r="235" ht="15.75" customHeight="1" s="1"/>
-    <row r="236" ht="15.75" customHeight="1" s="1"/>
-    <row r="237" ht="15.75" customHeight="1" s="1"/>
-    <row r="238" ht="15.75" customHeight="1" s="1"/>
-    <row r="239" ht="15.75" customHeight="1" s="1"/>
-    <row r="240" ht="15.75" customHeight="1" s="1"/>
-    <row r="241" ht="15.75" customHeight="1" s="1"/>
-    <row r="242" ht="15.75" customHeight="1" s="1"/>
-    <row r="243" ht="15.75" customHeight="1" s="1"/>
-    <row r="244" ht="15.75" customHeight="1" s="1"/>
-    <row r="245" ht="15.75" customHeight="1" s="1"/>
-    <row r="246" ht="15.75" customHeight="1" s="1"/>
-    <row r="247" ht="15.75" customHeight="1" s="1"/>
-    <row r="248" ht="15.75" customHeight="1" s="1"/>
-    <row r="249" ht="15.75" customHeight="1" s="1"/>
-    <row r="250" ht="15.75" customHeight="1" s="1"/>
-    <row r="251" ht="15.75" customHeight="1" s="1"/>
-    <row r="252" ht="15.75" customHeight="1" s="1"/>
-    <row r="253" ht="15.75" customHeight="1" s="1"/>
-    <row r="254" ht="15.75" customHeight="1" s="1"/>
-    <row r="255" ht="15.75" customHeight="1" s="1"/>
-    <row r="256" ht="15.75" customHeight="1" s="1"/>
-    <row r="257" ht="15.75" customHeight="1" s="1"/>
-    <row r="258" ht="15.75" customHeight="1" s="1"/>
-    <row r="259" ht="15.75" customHeight="1" s="1"/>
-    <row r="260" ht="15.75" customHeight="1" s="1"/>
-    <row r="261" ht="15.75" customHeight="1" s="1"/>
-    <row r="262" ht="15.75" customHeight="1" s="1"/>
-    <row r="263" ht="15.75" customHeight="1" s="1"/>
-    <row r="264" ht="15.75" customHeight="1" s="1"/>
-    <row r="265" ht="15.75" customHeight="1" s="1"/>
-    <row r="266" ht="15.75" customHeight="1" s="1"/>
-    <row r="267" ht="15.75" customHeight="1" s="1"/>
-    <row r="268" ht="15.75" customHeight="1" s="1"/>
-    <row r="269" ht="15.75" customHeight="1" s="1"/>
-    <row r="270" ht="15.75" customHeight="1" s="1"/>
-    <row r="271" ht="15.75" customHeight="1" s="1"/>
-    <row r="272" ht="15.75" customHeight="1" s="1"/>
-    <row r="273" ht="15.75" customHeight="1" s="1"/>
-    <row r="274" ht="15.75" customHeight="1" s="1"/>
-    <row r="275" ht="15.75" customHeight="1" s="1"/>
-    <row r="276" ht="15.75" customHeight="1" s="1"/>
-    <row r="277" ht="15.75" customHeight="1" s="1"/>
-    <row r="278" ht="15.75" customHeight="1" s="1"/>
-    <row r="279" ht="15.75" customHeight="1" s="1"/>
-    <row r="280" ht="15.75" customHeight="1" s="1"/>
-    <row r="281" ht="15.75" customHeight="1" s="1"/>
-    <row r="282" ht="15.75" customHeight="1" s="1"/>
-    <row r="283" ht="15.75" customHeight="1" s="1"/>
-    <row r="284" ht="15.75" customHeight="1" s="1"/>
-    <row r="285" ht="15.75" customHeight="1" s="1"/>
-    <row r="286" ht="15.75" customHeight="1" s="1"/>
-    <row r="287" ht="15.75" customHeight="1" s="1"/>
-    <row r="288" ht="15.75" customHeight="1" s="1"/>
-    <row r="289" ht="15.75" customHeight="1" s="1"/>
-    <row r="290" ht="15.75" customHeight="1" s="1"/>
-    <row r="291" ht="15.75" customHeight="1" s="1"/>
-    <row r="292" ht="15.75" customHeight="1" s="1"/>
-    <row r="293" ht="15.75" customHeight="1" s="1"/>
-    <row r="294" ht="15.75" customHeight="1" s="1"/>
-    <row r="295" ht="15.75" customHeight="1" s="1"/>
-    <row r="296" ht="15.75" customHeight="1" s="1"/>
-    <row r="297" ht="15.75" customHeight="1" s="1"/>
-    <row r="298" ht="15.75" customHeight="1" s="1"/>
-    <row r="299" ht="15.75" customHeight="1" s="1"/>
-    <row r="300" ht="15.75" customHeight="1" s="1"/>
-    <row r="301" ht="15.75" customHeight="1" s="1"/>
-    <row r="302" ht="15.75" customHeight="1" s="1"/>
-    <row r="303" ht="15.75" customHeight="1" s="1"/>
-    <row r="304" ht="15.75" customHeight="1" s="1"/>
-    <row r="305" ht="15.75" customHeight="1" s="1"/>
-    <row r="306" ht="15.75" customHeight="1" s="1"/>
-    <row r="307" ht="15.75" customHeight="1" s="1"/>
-    <row r="308" ht="15.75" customHeight="1" s="1"/>
-    <row r="309" ht="15.75" customHeight="1" s="1"/>
-    <row r="310" ht="15.75" customHeight="1" s="1"/>
-    <row r="311" ht="15.75" customHeight="1" s="1"/>
-    <row r="312" ht="15.75" customHeight="1" s="1"/>
-    <row r="313" ht="15.75" customHeight="1" s="1"/>
-    <row r="314" ht="15.75" customHeight="1" s="1"/>
-    <row r="315" ht="15.75" customHeight="1" s="1"/>
-    <row r="316" ht="15.75" customHeight="1" s="1"/>
-    <row r="317" ht="15.75" customHeight="1" s="1"/>
-    <row r="318" ht="15.75" customHeight="1" s="1"/>
-    <row r="319" ht="15.75" customHeight="1" s="1"/>
-    <row r="320" ht="15.75" customHeight="1" s="1"/>
-    <row r="321" ht="15.75" customHeight="1" s="1"/>
-    <row r="322" ht="15.75" customHeight="1" s="1"/>
-    <row r="323" ht="15.75" customHeight="1" s="1"/>
-    <row r="324" ht="15.75" customHeight="1" s="1"/>
-    <row r="325" ht="15.75" customHeight="1" s="1"/>
-    <row r="326" ht="15.75" customHeight="1" s="1"/>
-    <row r="327" ht="15.75" customHeight="1" s="1"/>
-    <row r="328" ht="15.75" customHeight="1" s="1"/>
-    <row r="329" ht="15.75" customHeight="1" s="1"/>
-    <row r="330" ht="15.75" customHeight="1" s="1"/>
-    <row r="331" ht="15.75" customHeight="1" s="1"/>
-    <row r="332" ht="15.75" customHeight="1" s="1"/>
-    <row r="333" ht="15.75" customHeight="1" s="1"/>
-    <row r="334" ht="15.75" customHeight="1" s="1"/>
-    <row r="335" ht="15.75" customHeight="1" s="1"/>
-    <row r="336" ht="15.75" customHeight="1" s="1"/>
-    <row r="337" ht="15.75" customHeight="1" s="1"/>
-    <row r="338" ht="15.75" customHeight="1" s="1"/>
-    <row r="339" ht="15.75" customHeight="1" s="1"/>
-    <row r="340" ht="15.75" customHeight="1" s="1"/>
-    <row r="341" ht="15.75" customHeight="1" s="1"/>
-    <row r="342" ht="15.75" customHeight="1" s="1"/>
-    <row r="343" ht="15.75" customHeight="1" s="1"/>
-    <row r="344" ht="15.75" customHeight="1" s="1"/>
-    <row r="345" ht="15.75" customHeight="1" s="1"/>
-    <row r="346" ht="15.75" customHeight="1" s="1"/>
-    <row r="347" ht="15.75" customHeight="1" s="1"/>
-    <row r="348" ht="15.75" customHeight="1" s="1"/>
-    <row r="349" ht="15.75" customHeight="1" s="1"/>
-    <row r="350" ht="15.75" customHeight="1" s="1"/>
-    <row r="351" ht="15.75" customHeight="1" s="1"/>
-    <row r="352" ht="15.75" customHeight="1" s="1"/>
-    <row r="353" ht="15.75" customHeight="1" s="1"/>
-    <row r="354" ht="15.75" customHeight="1" s="1"/>
-    <row r="355" ht="15.75" customHeight="1" s="1"/>
-    <row r="356" ht="15.75" customHeight="1" s="1"/>
-    <row r="357" ht="15.75" customHeight="1" s="1"/>
-    <row r="358" ht="15.75" customHeight="1" s="1"/>
-    <row r="359" ht="15.75" customHeight="1" s="1"/>
-    <row r="360" ht="15.75" customHeight="1" s="1"/>
-    <row r="361" ht="15.75" customHeight="1" s="1"/>
-    <row r="362" ht="15.75" customHeight="1" s="1"/>
-    <row r="363" ht="15.75" customHeight="1" s="1"/>
-    <row r="364" ht="15.75" customHeight="1" s="1"/>
-    <row r="365" ht="15.75" customHeight="1" s="1"/>
-    <row r="366" ht="15.75" customHeight="1" s="1"/>
-    <row r="367" ht="15.75" customHeight="1" s="1"/>
-    <row r="368" ht="15.75" customHeight="1" s="1"/>
-    <row r="369" ht="15.75" customHeight="1" s="1"/>
-    <row r="370" ht="15.75" customHeight="1" s="1"/>
-    <row r="371" ht="15.75" customHeight="1" s="1"/>
-    <row r="372" ht="15.75" customHeight="1" s="1"/>
-    <row r="373" ht="15.75" customHeight="1" s="1"/>
-    <row r="374" ht="15.75" customHeight="1" s="1"/>
-    <row r="375" ht="15.75" customHeight="1" s="1"/>
-    <row r="376" ht="15.75" customHeight="1" s="1"/>
-    <row r="377" ht="15.75" customHeight="1" s="1"/>
-    <row r="378" ht="15.75" customHeight="1" s="1"/>
-    <row r="379" ht="15.75" customHeight="1" s="1"/>
-    <row r="380" ht="15.75" customHeight="1" s="1"/>
-    <row r="381" ht="15.75" customHeight="1" s="1"/>
-    <row r="382" ht="15.75" customHeight="1" s="1"/>
-    <row r="383" ht="15.75" customHeight="1" s="1"/>
-    <row r="384" ht="15.75" customHeight="1" s="1"/>
-    <row r="385" ht="15.75" customHeight="1" s="1"/>
-    <row r="386" ht="15.75" customHeight="1" s="1"/>
-    <row r="387" ht="15.75" customHeight="1" s="1"/>
-    <row r="388" ht="15.75" customHeight="1" s="1"/>
-    <row r="389" ht="15.75" customHeight="1" s="1"/>
-    <row r="390" ht="15.75" customHeight="1" s="1"/>
-    <row r="391" ht="15.75" customHeight="1" s="1"/>
-    <row r="392" ht="15.75" customHeight="1" s="1"/>
-    <row r="393" ht="15.75" customHeight="1" s="1"/>
-    <row r="394" ht="15.75" customHeight="1" s="1"/>
-    <row r="395" ht="15.75" customHeight="1" s="1"/>
-    <row r="396" ht="15.75" customHeight="1" s="1"/>
-    <row r="397" ht="15.75" customHeight="1" s="1"/>
-    <row r="398" ht="15.75" customHeight="1" s="1"/>
-    <row r="399" ht="15.75" customHeight="1" s="1"/>
-    <row r="400" ht="15.75" customHeight="1" s="1"/>
-    <row r="401" ht="15.75" customHeight="1" s="1"/>
-    <row r="402" ht="15.75" customHeight="1" s="1"/>
-    <row r="403" ht="15.75" customHeight="1" s="1"/>
-    <row r="404" ht="15.75" customHeight="1" s="1"/>
-    <row r="405" ht="15.75" customHeight="1" s="1"/>
-    <row r="406" ht="15.75" customHeight="1" s="1"/>
-    <row r="407" ht="15.75" customHeight="1" s="1"/>
-    <row r="408" ht="15.75" customHeight="1" s="1"/>
-    <row r="409" ht="15.75" customHeight="1" s="1"/>
-    <row r="410" ht="15.75" customHeight="1" s="1"/>
-    <row r="411" ht="15.75" customHeight="1" s="1"/>
-    <row r="412" ht="15.75" customHeight="1" s="1"/>
-    <row r="413" ht="15.75" customHeight="1" s="1"/>
-    <row r="414" ht="15.75" customHeight="1" s="1"/>
-    <row r="415" ht="15.75" customHeight="1" s="1"/>
-    <row r="416" ht="15.75" customHeight="1" s="1"/>
-    <row r="417" ht="15.75" customHeight="1" s="1"/>
-    <row r="418" ht="15.75" customHeight="1" s="1"/>
-    <row r="419" ht="15.75" customHeight="1" s="1"/>
-    <row r="420" ht="15.75" customHeight="1" s="1"/>
-    <row r="421" ht="15.75" customHeight="1" s="1"/>
-    <row r="422" ht="15.75" customHeight="1" s="1"/>
-    <row r="423" ht="15.75" customHeight="1" s="1"/>
-    <row r="424" ht="15.75" customHeight="1" s="1"/>
-    <row r="425" ht="15.75" customHeight="1" s="1"/>
-    <row r="426" ht="15.75" customHeight="1" s="1"/>
-    <row r="427" ht="15.75" customHeight="1" s="1"/>
-    <row r="428" ht="15.75" customHeight="1" s="1"/>
-    <row r="429" ht="15.75" customHeight="1" s="1"/>
-    <row r="430" ht="15.75" customHeight="1" s="1"/>
-    <row r="431" ht="15.75" customHeight="1" s="1"/>
-    <row r="432" ht="15.75" customHeight="1" s="1"/>
-    <row r="433" ht="15.75" customHeight="1" s="1"/>
-    <row r="434" ht="15.75" customHeight="1" s="1"/>
-    <row r="435" ht="15.75" customHeight="1" s="1"/>
-    <row r="436" ht="15.75" customHeight="1" s="1"/>
-    <row r="437" ht="15.75" customHeight="1" s="1"/>
-    <row r="438" ht="15.75" customHeight="1" s="1"/>
-    <row r="439" ht="15.75" customHeight="1" s="1"/>
-    <row r="440" ht="15.75" customHeight="1" s="1"/>
-    <row r="441" ht="15.75" customHeight="1" s="1"/>
-    <row r="442" ht="15.75" customHeight="1" s="1"/>
-    <row r="443" ht="15.75" customHeight="1" s="1"/>
-    <row r="444" ht="15.75" customHeight="1" s="1"/>
-    <row r="445" ht="15.75" customHeight="1" s="1"/>
-    <row r="446" ht="15.75" customHeight="1" s="1"/>
-    <row r="447" ht="15.75" customHeight="1" s="1"/>
-    <row r="448" ht="15.75" customHeight="1" s="1"/>
-    <row r="449" ht="15.75" customHeight="1" s="1"/>
-    <row r="450" ht="15.75" customHeight="1" s="1"/>
-    <row r="451" ht="15.75" customHeight="1" s="1"/>
-    <row r="452" ht="15.75" customHeight="1" s="1"/>
-    <row r="453" ht="15.75" customHeight="1" s="1"/>
-    <row r="454" ht="15.75" customHeight="1" s="1"/>
-    <row r="455" ht="15.75" customHeight="1" s="1"/>
-    <row r="456" ht="15.75" customHeight="1" s="1"/>
-    <row r="457" ht="15.75" customHeight="1" s="1"/>
-    <row r="458" ht="15.75" customHeight="1" s="1"/>
-    <row r="459" ht="15.75" customHeight="1" s="1"/>
-    <row r="460" ht="15.75" customHeight="1" s="1"/>
-    <row r="461" ht="15.75" customHeight="1" s="1"/>
-    <row r="462" ht="15.75" customHeight="1" s="1"/>
-    <row r="463" ht="15.75" customHeight="1" s="1"/>
-    <row r="464" ht="15.75" customHeight="1" s="1"/>
-    <row r="465" ht="15.75" customHeight="1" s="1"/>
-    <row r="466" ht="15.75" customHeight="1" s="1"/>
-    <row r="467" ht="15.75" customHeight="1" s="1"/>
-    <row r="468" ht="15.75" customHeight="1" s="1"/>
-    <row r="469" ht="15.75" customHeight="1" s="1"/>
-    <row r="470" ht="15.75" customHeight="1" s="1"/>
-    <row r="471" ht="15.75" customHeight="1" s="1"/>
-    <row r="472" ht="15.75" customHeight="1" s="1"/>
-    <row r="473" ht="15.75" customHeight="1" s="1"/>
-    <row r="474" ht="15.75" customHeight="1" s="1"/>
-    <row r="475" ht="15.75" customHeight="1" s="1"/>
-    <row r="476" ht="15.75" customHeight="1" s="1"/>
-    <row r="477" ht="15.75" customHeight="1" s="1"/>
-    <row r="478" ht="15.75" customHeight="1" s="1"/>
-    <row r="479" ht="15.75" customHeight="1" s="1"/>
-    <row r="480" ht="15.75" customHeight="1" s="1"/>
-    <row r="481" ht="15.75" customHeight="1" s="1"/>
-    <row r="482" ht="15.75" customHeight="1" s="1"/>
-    <row r="483" ht="15.75" customHeight="1" s="1"/>
-    <row r="484" ht="15.75" customHeight="1" s="1"/>
-    <row r="485" ht="15.75" customHeight="1" s="1"/>
-    <row r="486" ht="15.75" customHeight="1" s="1"/>
-    <row r="487" ht="15.75" customHeight="1" s="1"/>
-    <row r="488" ht="15.75" customHeight="1" s="1"/>
-    <row r="489" ht="15.75" customHeight="1" s="1"/>
-    <row r="490" ht="15.75" customHeight="1" s="1"/>
-    <row r="491" ht="15.75" customHeight="1" s="1"/>
-    <row r="492" ht="15.75" customHeight="1" s="1"/>
-    <row r="493" ht="15.75" customHeight="1" s="1"/>
-    <row r="494" ht="15.75" customHeight="1" s="1"/>
-    <row r="495" ht="15.75" customHeight="1" s="1"/>
-    <row r="496" ht="15.75" customHeight="1" s="1"/>
-    <row r="497" ht="15.75" customHeight="1" s="1"/>
-    <row r="498" ht="15.75" customHeight="1" s="1"/>
-    <row r="499" ht="15.75" customHeight="1" s="1"/>
-    <row r="500" ht="15.75" customHeight="1" s="1"/>
-    <row r="501" ht="15.75" customHeight="1" s="1"/>
-    <row r="502" ht="15.75" customHeight="1" s="1"/>
-    <row r="503" ht="15.75" customHeight="1" s="1"/>
-    <row r="504" ht="15.75" customHeight="1" s="1"/>
-    <row r="505" ht="15.75" customHeight="1" s="1"/>
-    <row r="506" ht="15.75" customHeight="1" s="1"/>
-    <row r="507" ht="15.75" customHeight="1" s="1"/>
-    <row r="508" ht="15.75" customHeight="1" s="1"/>
-    <row r="509" ht="15.75" customHeight="1" s="1"/>
-    <row r="510" ht="15.75" customHeight="1" s="1"/>
-    <row r="511" ht="15.75" customHeight="1" s="1"/>
-    <row r="512" ht="15.75" customHeight="1" s="1"/>
-    <row r="513" ht="15.75" customHeight="1" s="1"/>
-    <row r="514" ht="15.75" customHeight="1" s="1"/>
-    <row r="515" ht="15.75" customHeight="1" s="1"/>
-    <row r="516" ht="15.75" customHeight="1" s="1"/>
-    <row r="517" ht="15.75" customHeight="1" s="1"/>
-    <row r="518" ht="15.75" customHeight="1" s="1"/>
-    <row r="519" ht="15.75" customHeight="1" s="1"/>
-    <row r="520" ht="15.75" customHeight="1" s="1"/>
-    <row r="521" ht="15.75" customHeight="1" s="1"/>
-    <row r="522" ht="15.75" customHeight="1" s="1"/>
-    <row r="523" ht="15.75" customHeight="1" s="1"/>
-    <row r="524" ht="15.75" customHeight="1" s="1"/>
-    <row r="525" ht="15.75" customHeight="1" s="1"/>
-    <row r="526" ht="15.75" customHeight="1" s="1"/>
-    <row r="527" ht="15.75" customHeight="1" s="1"/>
-    <row r="528" ht="15.75" customHeight="1" s="1"/>
-    <row r="529" ht="15.75" customHeight="1" s="1"/>
-    <row r="530" ht="15.75" customHeight="1" s="1"/>
-    <row r="531" ht="15.75" customHeight="1" s="1"/>
-    <row r="532" ht="15.75" customHeight="1" s="1"/>
-    <row r="533" ht="15.75" customHeight="1" s="1"/>
-    <row r="534" ht="15.75" customHeight="1" s="1"/>
-    <row r="535" ht="15.75" customHeight="1" s="1"/>
-    <row r="536" ht="15.75" customHeight="1" s="1"/>
-    <row r="537" ht="15.75" customHeight="1" s="1"/>
-    <row r="538" ht="15.75" customHeight="1" s="1"/>
-    <row r="539" ht="15.75" customHeight="1" s="1"/>
-    <row r="540" ht="15.75" customHeight="1" s="1"/>
-    <row r="541" ht="15.75" customHeight="1" s="1"/>
-    <row r="542" ht="15.75" customHeight="1" s="1"/>
-    <row r="543" ht="15.75" customHeight="1" s="1"/>
-    <row r="544" ht="15.75" customHeight="1" s="1"/>
-    <row r="545" ht="15.75" customHeight="1" s="1"/>
-    <row r="546" ht="15.75" customHeight="1" s="1"/>
-    <row r="547" ht="15.75" customHeight="1" s="1"/>
-    <row r="548" ht="15.75" customHeight="1" s="1"/>
-    <row r="549" ht="15.75" customHeight="1" s="1"/>
-    <row r="550" ht="15.75" customHeight="1" s="1"/>
-    <row r="551" ht="15.75" customHeight="1" s="1"/>
-    <row r="552" ht="15.75" customHeight="1" s="1"/>
-    <row r="553" ht="15.75" customHeight="1" s="1"/>
-    <row r="554" ht="15.75" customHeight="1" s="1"/>
-    <row r="555" ht="15.75" customHeight="1" s="1"/>
-    <row r="556" ht="15.75" customHeight="1" s="1"/>
-    <row r="557" ht="15.75" customHeight="1" s="1"/>
-    <row r="558" ht="15.75" customHeight="1" s="1"/>
-    <row r="559" ht="15.75" customHeight="1" s="1"/>
-    <row r="560" ht="15.75" customHeight="1" s="1"/>
-    <row r="561" ht="15.75" customHeight="1" s="1"/>
-    <row r="562" ht="15.75" customHeight="1" s="1"/>
-    <row r="563" ht="15.75" customHeight="1" s="1"/>
-    <row r="564" ht="15.75" customHeight="1" s="1"/>
-    <row r="565" ht="15.75" customHeight="1" s="1"/>
-    <row r="566" ht="15.75" customHeight="1" s="1"/>
-    <row r="567" ht="15.75" customHeight="1" s="1"/>
-    <row r="568" ht="15.75" customHeight="1" s="1"/>
-    <row r="569" ht="15.75" customHeight="1" s="1"/>
-    <row r="570" ht="15.75" customHeight="1" s="1"/>
-    <row r="571" ht="15.75" customHeight="1" s="1"/>
-    <row r="572" ht="15.75" customHeight="1" s="1"/>
-    <row r="573" ht="15.75" customHeight="1" s="1"/>
-    <row r="574" ht="15.75" customHeight="1" s="1"/>
-    <row r="575" ht="15.75" customHeight="1" s="1"/>
-    <row r="576" ht="15.75" customHeight="1" s="1"/>
-    <row r="577" ht="15.75" customHeight="1" s="1"/>
-    <row r="578" ht="15.75" customHeight="1" s="1"/>
-    <row r="579" ht="15.75" customHeight="1" s="1"/>
-    <row r="580" ht="15.75" customHeight="1" s="1"/>
-    <row r="581" ht="15.75" customHeight="1" s="1"/>
-    <row r="582" ht="15.75" customHeight="1" s="1"/>
-    <row r="583" ht="15.75" customHeight="1" s="1"/>
-    <row r="584" ht="15.75" customHeight="1" s="1"/>
-    <row r="585" ht="15.75" customHeight="1" s="1"/>
-    <row r="586" ht="15.75" customHeight="1" s="1"/>
-    <row r="587" ht="15.75" customHeight="1" s="1"/>
-    <row r="588" ht="15.75" customHeight="1" s="1"/>
-    <row r="589" ht="15.75" customHeight="1" s="1"/>
-    <row r="590" ht="15.75" customHeight="1" s="1"/>
-    <row r="591" ht="15.75" customHeight="1" s="1"/>
-    <row r="592" ht="15.75" customHeight="1" s="1"/>
-    <row r="593" ht="15.75" customHeight="1" s="1"/>
-    <row r="594" ht="15.75" customHeight="1" s="1"/>
-    <row r="595" ht="15.75" customHeight="1" s="1"/>
-    <row r="596" ht="15.75" customHeight="1" s="1"/>
-    <row r="597" ht="15.75" customHeight="1" s="1"/>
-    <row r="598" ht="15.75" customHeight="1" s="1"/>
-    <row r="599" ht="15.75" customHeight="1" s="1"/>
-    <row r="600" ht="15.75" customHeight="1" s="1"/>
-    <row r="601" ht="15.75" customHeight="1" s="1"/>
-    <row r="602" ht="15.75" customHeight="1" s="1"/>
-    <row r="603" ht="15.75" customHeight="1" s="1"/>
-    <row r="604" ht="15.75" customHeight="1" s="1"/>
-    <row r="605" ht="15.75" customHeight="1" s="1"/>
-    <row r="606" ht="15.75" customHeight="1" s="1"/>
-    <row r="607" ht="15.75" customHeight="1" s="1"/>
-    <row r="608" ht="15.75" customHeight="1" s="1"/>
-    <row r="609" ht="15.75" customHeight="1" s="1"/>
-    <row r="610" ht="15.75" customHeight="1" s="1"/>
-    <row r="611" ht="15.75" customHeight="1" s="1"/>
-    <row r="612" ht="15.75" customHeight="1" s="1"/>
-    <row r="613" ht="15.75" customHeight="1" s="1"/>
-    <row r="614" ht="15.75" customHeight="1" s="1"/>
-    <row r="615" ht="15.75" customHeight="1" s="1"/>
-    <row r="616" ht="15.75" customHeight="1" s="1"/>
-    <row r="617" ht="15.75" customHeight="1" s="1"/>
-    <row r="618" ht="15.75" customHeight="1" s="1"/>
-    <row r="619" ht="15.75" customHeight="1" s="1"/>
-    <row r="620" ht="15.75" customHeight="1" s="1"/>
-    <row r="621" ht="15.75" customHeight="1" s="1"/>
-    <row r="622" ht="15.75" customHeight="1" s="1"/>
-    <row r="623" ht="15.75" customHeight="1" s="1"/>
-    <row r="624" ht="15.75" customHeight="1" s="1"/>
-    <row r="625" ht="15.75" customHeight="1" s="1"/>
-    <row r="626" ht="15.75" customHeight="1" s="1"/>
-    <row r="627" ht="15.75" customHeight="1" s="1"/>
-    <row r="628" ht="15.75" customHeight="1" s="1"/>
-    <row r="629" ht="15.75" customHeight="1" s="1"/>
-    <row r="630" ht="15.75" customHeight="1" s="1"/>
-    <row r="631" ht="15.75" customHeight="1" s="1"/>
-    <row r="632" ht="15.75" customHeight="1" s="1"/>
-    <row r="633" ht="15.75" customHeight="1" s="1"/>
-    <row r="634" ht="15.75" customHeight="1" s="1"/>
-    <row r="635" ht="15.75" customHeight="1" s="1"/>
-    <row r="636" ht="15.75" customHeight="1" s="1"/>
-    <row r="637" ht="15.75" customHeight="1" s="1"/>
-    <row r="638" ht="15.75" customHeight="1" s="1"/>
-    <row r="639" ht="15.75" customHeight="1" s="1"/>
-    <row r="640" ht="15.75" customHeight="1" s="1"/>
-    <row r="641" ht="15.75" customHeight="1" s="1"/>
-    <row r="642" ht="15.75" customHeight="1" s="1"/>
-    <row r="643" ht="15.75" customHeight="1" s="1"/>
-    <row r="644" ht="15.75" customHeight="1" s="1"/>
-    <row r="645" ht="15.75" customHeight="1" s="1"/>
-    <row r="646" ht="15.75" customHeight="1" s="1"/>
-    <row r="647" ht="15.75" customHeight="1" s="1"/>
-    <row r="648" ht="15.75" customHeight="1" s="1"/>
-    <row r="649" ht="15.75" customHeight="1" s="1"/>
-    <row r="650" ht="15.75" customHeight="1" s="1"/>
-    <row r="651" ht="15.75" customHeight="1" s="1"/>
-    <row r="652" ht="15.75" customHeight="1" s="1"/>
-    <row r="653" ht="15.75" customHeight="1" s="1"/>
-    <row r="654" ht="15.75" customHeight="1" s="1"/>
-    <row r="655" ht="15.75" customHeight="1" s="1"/>
-    <row r="656" ht="15.75" customHeight="1" s="1"/>
-    <row r="657" ht="15.75" customHeight="1" s="1"/>
-    <row r="658" ht="15.75" customHeight="1" s="1"/>
-    <row r="659" ht="15.75" customHeight="1" s="1"/>
-    <row r="660" ht="15.75" customHeight="1" s="1"/>
-    <row r="661" ht="15.75" customHeight="1" s="1"/>
-    <row r="662" ht="15.75" customHeight="1" s="1"/>
-    <row r="663" ht="15.75" customHeight="1" s="1"/>
-    <row r="664" ht="15.75" customHeight="1" s="1"/>
-    <row r="665" ht="15.75" customHeight="1" s="1"/>
-    <row r="666" ht="15.75" customHeight="1" s="1"/>
-    <row r="667" ht="15.75" customHeight="1" s="1"/>
-    <row r="668" ht="15.75" customHeight="1" s="1"/>
-    <row r="669" ht="15.75" customHeight="1" s="1"/>
-    <row r="670" ht="15.75" customHeight="1" s="1"/>
-    <row r="671" ht="15.75" customHeight="1" s="1"/>
-    <row r="672" ht="15.75" customHeight="1" s="1"/>
-    <row r="673" ht="15.75" customHeight="1" s="1"/>
-    <row r="674" ht="15.75" customHeight="1" s="1"/>
-    <row r="675" ht="15.75" customHeight="1" s="1"/>
-    <row r="676" ht="15.75" customHeight="1" s="1"/>
-    <row r="677" ht="15.75" customHeight="1" s="1"/>
-    <row r="678" ht="15.75" customHeight="1" s="1"/>
-    <row r="679" ht="15.75" customHeight="1" s="1"/>
-    <row r="680" ht="15.75" customHeight="1" s="1"/>
-    <row r="681" ht="15.75" customHeight="1" s="1"/>
-    <row r="682" ht="15.75" customHeight="1" s="1"/>
-    <row r="683" ht="15.75" customHeight="1" s="1"/>
-    <row r="684" ht="15.75" customHeight="1" s="1"/>
-    <row r="685" ht="15.75" customHeight="1" s="1"/>
-    <row r="686" ht="15.75" customHeight="1" s="1"/>
-    <row r="687" ht="15.75" customHeight="1" s="1"/>
-    <row r="688" ht="15.75" customHeight="1" s="1"/>
-    <row r="689" ht="15.75" customHeight="1" s="1"/>
-    <row r="690" ht="15.75" customHeight="1" s="1"/>
-    <row r="691" ht="15.75" customHeight="1" s="1"/>
-    <row r="692" ht="15.75" customHeight="1" s="1"/>
-    <row r="693" ht="15.75" customHeight="1" s="1"/>
-    <row r="694" ht="15.75" customHeight="1" s="1"/>
-    <row r="695" ht="15.75" customHeight="1" s="1"/>
-    <row r="696" ht="15.75" customHeight="1" s="1"/>
-    <row r="697" ht="15.75" customHeight="1" s="1"/>
-    <row r="698" ht="15.75" customHeight="1" s="1"/>
-    <row r="699" ht="15.75" customHeight="1" s="1"/>
-    <row r="700" ht="15.75" customHeight="1" s="1"/>
-    <row r="701" ht="15.75" customHeight="1" s="1"/>
-    <row r="702" ht="15.75" customHeight="1" s="1"/>
-    <row r="703" ht="15.75" customHeight="1" s="1"/>
-    <row r="704" ht="15.75" customHeight="1" s="1"/>
-    <row r="705" ht="15.75" customHeight="1" s="1"/>
-    <row r="706" ht="15.75" customHeight="1" s="1"/>
-    <row r="707" ht="15.75" customHeight="1" s="1"/>
-    <row r="708" ht="15.75" customHeight="1" s="1"/>
-    <row r="709" ht="15.75" customHeight="1" s="1"/>
-    <row r="710" ht="15.75" customHeight="1" s="1"/>
-    <row r="711" ht="15.75" customHeight="1" s="1"/>
-    <row r="712" ht="15.75" customHeight="1" s="1"/>
-    <row r="713" ht="15.75" customHeight="1" s="1"/>
-    <row r="714" ht="15.75" customHeight="1" s="1"/>
-    <row r="715" ht="15.75" customHeight="1" s="1"/>
-    <row r="716" ht="15.75" customHeight="1" s="1"/>
-    <row r="717" ht="15.75" customHeight="1" s="1"/>
-    <row r="718" ht="15.75" customHeight="1" s="1"/>
-    <row r="719" ht="15.75" customHeight="1" s="1"/>
-    <row r="720" ht="15.75" customHeight="1" s="1"/>
-    <row r="721" ht="15.75" customHeight="1" s="1"/>
-    <row r="722" ht="15.75" customHeight="1" s="1"/>
-    <row r="723" ht="15.75" customHeight="1" s="1"/>
-    <row r="724" ht="15.75" customHeight="1" s="1"/>
-    <row r="725" ht="15.75" customHeight="1" s="1"/>
-    <row r="726" ht="15.75" customHeight="1" s="1"/>
-    <row r="727" ht="15.75" customHeight="1" s="1"/>
-    <row r="728" ht="15.75" customHeight="1" s="1"/>
-    <row r="729" ht="15.75" customHeight="1" s="1"/>
-    <row r="730" ht="15.75" customHeight="1" s="1"/>
-    <row r="731" ht="15.75" customHeight="1" s="1"/>
-    <row r="732" ht="15.75" customHeight="1" s="1"/>
-    <row r="733" ht="15.75" customHeight="1" s="1"/>
-    <row r="734" ht="15.75" customHeight="1" s="1"/>
-    <row r="735" ht="15.75" customHeight="1" s="1"/>
-    <row r="736" ht="15.75" customHeight="1" s="1"/>
-    <row r="737" ht="15.75" customHeight="1" s="1"/>
-    <row r="738" ht="15.75" customHeight="1" s="1"/>
-    <row r="739" ht="15.75" customHeight="1" s="1"/>
-    <row r="740" ht="15.75" customHeight="1" s="1"/>
-    <row r="741" ht="15.75" customHeight="1" s="1"/>
-    <row r="742" ht="15.75" customHeight="1" s="1"/>
-    <row r="743" ht="15.75" customHeight="1" s="1"/>
-    <row r="744" ht="15.75" customHeight="1" s="1"/>
-    <row r="745" ht="15.75" customHeight="1" s="1"/>
-    <row r="746" ht="15.75" customHeight="1" s="1"/>
-    <row r="747" ht="15.75" customHeight="1" s="1"/>
-    <row r="748" ht="15.75" customHeight="1" s="1"/>
-    <row r="749" ht="15.75" customHeight="1" s="1"/>
-    <row r="750" ht="15.75" customHeight="1" s="1"/>
-    <row r="751" ht="15.75" customHeight="1" s="1"/>
-    <row r="752" ht="15.75" customHeight="1" s="1"/>
-    <row r="753" ht="15.75" customHeight="1" s="1"/>
-    <row r="754" ht="15.75" customHeight="1" s="1"/>
-    <row r="755" ht="15.75" customHeight="1" s="1"/>
-    <row r="756" ht="15.75" customHeight="1" s="1"/>
-    <row r="757" ht="15.75" customHeight="1" s="1"/>
-    <row r="758" ht="15.75" customHeight="1" s="1"/>
-    <row r="759" ht="15.75" customHeight="1" s="1"/>
-    <row r="760" ht="15.75" customHeight="1" s="1"/>
-    <row r="761" ht="15.75" customHeight="1" s="1"/>
-    <row r="762" ht="15.75" customHeight="1" s="1"/>
-    <row r="763" ht="15.75" customHeight="1" s="1"/>
-    <row r="764" ht="15.75" customHeight="1" s="1"/>
-    <row r="765" ht="15.75" customHeight="1" s="1"/>
-    <row r="766" ht="15.75" customHeight="1" s="1"/>
-    <row r="767" ht="15.75" customHeight="1" s="1"/>
-    <row r="768" ht="15.75" customHeight="1" s="1"/>
-    <row r="769" ht="15.75" customHeight="1" s="1"/>
-    <row r="770" ht="15.75" customHeight="1" s="1"/>
-    <row r="771" ht="15.75" customHeight="1" s="1"/>
-    <row r="772" ht="15.75" customHeight="1" s="1"/>
-    <row r="773" ht="15.75" customHeight="1" s="1"/>
-    <row r="774" ht="15.75" customHeight="1" s="1"/>
-    <row r="775" ht="15.75" customHeight="1" s="1"/>
-    <row r="776" ht="15.75" customHeight="1" s="1"/>
-    <row r="777" ht="15.75" customHeight="1" s="1"/>
-    <row r="778" ht="15.75" customHeight="1" s="1"/>
-    <row r="779" ht="15.75" customHeight="1" s="1"/>
-    <row r="780" ht="15.75" customHeight="1" s="1"/>
-    <row r="781" ht="15.75" customHeight="1" s="1"/>
-    <row r="782" ht="15.75" customHeight="1" s="1"/>
-    <row r="783" ht="15.75" customHeight="1" s="1"/>
-    <row r="784" ht="15.75" customHeight="1" s="1"/>
-    <row r="785" ht="15.75" customHeight="1" s="1"/>
-    <row r="786" ht="15.75" customHeight="1" s="1"/>
-    <row r="787" ht="15.75" customHeight="1" s="1"/>
-    <row r="788" ht="15.75" customHeight="1" s="1"/>
-    <row r="789" ht="15.75" customHeight="1" s="1"/>
-    <row r="790" ht="15.75" customHeight="1" s="1"/>
-    <row r="791" ht="15.75" customHeight="1" s="1"/>
-    <row r="792" ht="15.75" customHeight="1" s="1"/>
-    <row r="793" ht="15.75" customHeight="1" s="1"/>
-    <row r="794" ht="15.75" customHeight="1" s="1"/>
+      <c r="C36" s="14" t="n"/>
+      <c r="D36" s="21" t="n"/>
+      <c r="E36" s="13" t="inlineStr"/>
+      <c r="F36" s="14" t="n"/>
+      <c r="G36" s="21" t="n"/>
+      <c r="H36" s="22" t="inlineStr"/>
+      <c r="I36" s="63" t="n"/>
+      <c r="J36" s="14" t="n"/>
+      <c r="K36" s="21" t="n"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" s="42"/>
+    <row r="38" ht="15.75" customHeight="1" s="42"/>
+    <row r="39" ht="15.75" customHeight="1" s="42"/>
+    <row r="40" ht="15.75" customHeight="1" s="42"/>
+    <row r="41" ht="15.75" customHeight="1" s="42"/>
+    <row r="42" ht="15.75" customHeight="1" s="42"/>
+    <row r="43" ht="15.75" customHeight="1" s="42"/>
+    <row r="44" ht="15.75" customHeight="1" s="42"/>
+    <row r="45" ht="15.75" customHeight="1" s="42"/>
+    <row r="46" ht="15.75" customHeight="1" s="42"/>
+    <row r="47" ht="15.75" customHeight="1" s="42"/>
+    <row r="48" ht="15.75" customHeight="1" s="42"/>
+    <row r="49" ht="15.75" customHeight="1" s="42"/>
+    <row r="50" ht="15.75" customHeight="1" s="42"/>
+    <row r="51" ht="15.75" customHeight="1" s="42"/>
+    <row r="52" ht="15.75" customHeight="1" s="42"/>
+    <row r="53" ht="15.75" customHeight="1" s="42"/>
+    <row r="54" ht="15.75" customHeight="1" s="42"/>
+    <row r="55" ht="15.75" customHeight="1" s="42"/>
+    <row r="56" ht="15.75" customHeight="1" s="42"/>
+    <row r="57" ht="15.75" customHeight="1" s="42"/>
+    <row r="58" ht="15.75" customHeight="1" s="42"/>
+    <row r="59" ht="15.75" customHeight="1" s="42"/>
+    <row r="60" ht="15.75" customHeight="1" s="42"/>
+    <row r="61" ht="15.75" customHeight="1" s="42"/>
+    <row r="62" ht="15.75" customHeight="1" s="42"/>
+    <row r="63" ht="15.75" customHeight="1" s="42"/>
+    <row r="64" ht="15.75" customHeight="1" s="42"/>
+    <row r="65" ht="15.75" customHeight="1" s="42"/>
+    <row r="66" ht="15.75" customHeight="1" s="42"/>
+    <row r="67" ht="15.75" customHeight="1" s="42"/>
+    <row r="68" ht="15.75" customHeight="1" s="42"/>
+    <row r="69" ht="15.75" customHeight="1" s="42"/>
+    <row r="70" ht="15.75" customHeight="1" s="42"/>
+    <row r="71" ht="15.75" customHeight="1" s="42"/>
+    <row r="72" ht="15.75" customHeight="1" s="42"/>
+    <row r="73" ht="15.75" customHeight="1" s="42"/>
+    <row r="74" ht="15.75" customHeight="1" s="42"/>
+    <row r="75" ht="15.75" customHeight="1" s="42"/>
+    <row r="76" ht="15.75" customHeight="1" s="42"/>
+    <row r="77" ht="15.75" customHeight="1" s="42"/>
+    <row r="78" ht="15.75" customHeight="1" s="42"/>
+    <row r="79" ht="15.75" customHeight="1" s="42"/>
+    <row r="80" ht="15.75" customHeight="1" s="42"/>
+    <row r="81" ht="15.75" customHeight="1" s="42"/>
+    <row r="82" ht="15.75" customHeight="1" s="42"/>
+    <row r="83" ht="15.75" customHeight="1" s="42"/>
+    <row r="84" ht="15.75" customHeight="1" s="42"/>
+    <row r="85" ht="15.75" customHeight="1" s="42"/>
+    <row r="86" ht="15.75" customHeight="1" s="42"/>
+    <row r="87" ht="15.75" customHeight="1" s="42"/>
+    <row r="88" ht="15.75" customHeight="1" s="42"/>
+    <row r="89" ht="15.75" customHeight="1" s="42"/>
+    <row r="90" ht="15.75" customHeight="1" s="42"/>
+    <row r="91" ht="15.75" customHeight="1" s="42"/>
+    <row r="92" ht="15.75" customHeight="1" s="42"/>
+    <row r="93" ht="15.75" customHeight="1" s="42"/>
+    <row r="94" ht="15.75" customHeight="1" s="42"/>
+    <row r="95" ht="15.75" customHeight="1" s="42"/>
+    <row r="96" ht="15.75" customHeight="1" s="42"/>
+    <row r="97" ht="15.75" customHeight="1" s="42"/>
+    <row r="98" ht="15.75" customHeight="1" s="42"/>
+    <row r="99" ht="15.75" customHeight="1" s="42"/>
+    <row r="100" ht="15.75" customHeight="1" s="42"/>
+    <row r="101" ht="15.75" customHeight="1" s="42"/>
+    <row r="102" ht="15.75" customHeight="1" s="42"/>
+    <row r="103" ht="15.75" customHeight="1" s="42"/>
+    <row r="104" ht="15.75" customHeight="1" s="42"/>
+    <row r="105" ht="15.75" customHeight="1" s="42"/>
+    <row r="106" ht="15.75" customHeight="1" s="42"/>
+    <row r="107" ht="15.75" customHeight="1" s="42"/>
+    <row r="108" ht="15.75" customHeight="1" s="42"/>
+    <row r="109" ht="15.75" customHeight="1" s="42"/>
+    <row r="110" ht="15.75" customHeight="1" s="42"/>
+    <row r="111" ht="15.75" customHeight="1" s="42"/>
+    <row r="112" ht="15.75" customHeight="1" s="42"/>
+    <row r="113" ht="15.75" customHeight="1" s="42"/>
+    <row r="114" ht="15.75" customHeight="1" s="42"/>
+    <row r="115" ht="15.75" customHeight="1" s="42"/>
+    <row r="116" ht="15.75" customHeight="1" s="42"/>
+    <row r="117" ht="15.75" customHeight="1" s="42"/>
+    <row r="118" ht="15.75" customHeight="1" s="42"/>
+    <row r="119" ht="15.75" customHeight="1" s="42"/>
+    <row r="120" ht="15.75" customHeight="1" s="42"/>
+    <row r="121" ht="15.75" customHeight="1" s="42"/>
+    <row r="122" ht="15.75" customHeight="1" s="42"/>
+    <row r="123" ht="15.75" customHeight="1" s="42"/>
+    <row r="124" ht="15.75" customHeight="1" s="42"/>
+    <row r="125" ht="15.75" customHeight="1" s="42"/>
+    <row r="126" ht="15.75" customHeight="1" s="42"/>
+    <row r="127" ht="15.75" customHeight="1" s="42"/>
+    <row r="128" ht="15.75" customHeight="1" s="42"/>
+    <row r="129" ht="15.75" customHeight="1" s="42"/>
+    <row r="130" ht="15.75" customHeight="1" s="42"/>
+    <row r="131" ht="15.75" customHeight="1" s="42"/>
+    <row r="132" ht="15.75" customHeight="1" s="42"/>
+    <row r="133" ht="15.75" customHeight="1" s="42"/>
+    <row r="134" ht="15.75" customHeight="1" s="42"/>
+    <row r="135" ht="15.75" customHeight="1" s="42"/>
+    <row r="136" ht="15.75" customHeight="1" s="42"/>
+    <row r="137" ht="15.75" customHeight="1" s="42"/>
+    <row r="138" ht="15.75" customHeight="1" s="42"/>
+    <row r="139" ht="15.75" customHeight="1" s="42"/>
+    <row r="140" ht="15.75" customHeight="1" s="42"/>
+    <row r="141" ht="15.75" customHeight="1" s="42"/>
+    <row r="142" ht="15.75" customHeight="1" s="42"/>
+    <row r="143" ht="15.75" customHeight="1" s="42"/>
+    <row r="144" ht="15.75" customHeight="1" s="42"/>
+    <row r="145" ht="15.75" customHeight="1" s="42"/>
+    <row r="146" ht="15.75" customHeight="1" s="42"/>
+    <row r="147" ht="15.75" customHeight="1" s="42"/>
+    <row r="148" ht="15.75" customHeight="1" s="42"/>
+    <row r="149" ht="15.75" customHeight="1" s="42"/>
+    <row r="150" ht="15.75" customHeight="1" s="42"/>
+    <row r="151" ht="15.75" customHeight="1" s="42"/>
+    <row r="152" ht="15.75" customHeight="1" s="42"/>
+    <row r="153" ht="15.75" customHeight="1" s="42"/>
+    <row r="154" ht="15.75" customHeight="1" s="42"/>
+    <row r="155" ht="15.75" customHeight="1" s="42"/>
+    <row r="156" ht="15.75" customHeight="1" s="42"/>
+    <row r="157" ht="15.75" customHeight="1" s="42"/>
+    <row r="158" ht="15.75" customHeight="1" s="42"/>
+    <row r="159" ht="15.75" customHeight="1" s="42"/>
+    <row r="160" ht="15.75" customHeight="1" s="42"/>
+    <row r="161" ht="15.75" customHeight="1" s="42"/>
+    <row r="162" ht="15.75" customHeight="1" s="42"/>
+    <row r="163" ht="15.75" customHeight="1" s="42"/>
+    <row r="164" ht="15.75" customHeight="1" s="42"/>
+    <row r="165" ht="15.75" customHeight="1" s="42"/>
+    <row r="166" ht="15.75" customHeight="1" s="42"/>
+    <row r="167" ht="15.75" customHeight="1" s="42"/>
+    <row r="168" ht="15.75" customHeight="1" s="42"/>
+    <row r="169" ht="15.75" customHeight="1" s="42"/>
+    <row r="170" ht="15.75" customHeight="1" s="42"/>
+    <row r="171" ht="15.75" customHeight="1" s="42"/>
+    <row r="172" ht="15.75" customHeight="1" s="42"/>
+    <row r="173" ht="15.75" customHeight="1" s="42"/>
+    <row r="174" ht="15.75" customHeight="1" s="42"/>
+    <row r="175" ht="15.75" customHeight="1" s="42"/>
+    <row r="176" ht="15.75" customHeight="1" s="42"/>
+    <row r="177" ht="15.75" customHeight="1" s="42"/>
+    <row r="178" ht="15.75" customHeight="1" s="42"/>
+    <row r="179" ht="15.75" customHeight="1" s="42"/>
+    <row r="180" ht="15.75" customHeight="1" s="42"/>
+    <row r="181" ht="15.75" customHeight="1" s="42"/>
+    <row r="182" ht="15.75" customHeight="1" s="42"/>
+    <row r="183" ht="15.75" customHeight="1" s="42"/>
+    <row r="184" ht="15.75" customHeight="1" s="42"/>
+    <row r="185" ht="15.75" customHeight="1" s="42"/>
+    <row r="186" ht="15.75" customHeight="1" s="42"/>
+    <row r="187" ht="15.75" customHeight="1" s="42"/>
+    <row r="188" ht="15.75" customHeight="1" s="42"/>
+    <row r="189" ht="15.75" customHeight="1" s="42"/>
+    <row r="190" ht="15.75" customHeight="1" s="42"/>
+    <row r="191" ht="15.75" customHeight="1" s="42"/>
+    <row r="192" ht="15.75" customHeight="1" s="42"/>
+    <row r="193" ht="15.75" customHeight="1" s="42"/>
+    <row r="194" ht="15.75" customHeight="1" s="42"/>
+    <row r="195" ht="15.75" customHeight="1" s="42"/>
+    <row r="196" ht="15.75" customHeight="1" s="42"/>
+    <row r="197" ht="15.75" customHeight="1" s="42"/>
+    <row r="198" ht="15.75" customHeight="1" s="42"/>
+    <row r="199" ht="15.75" customHeight="1" s="42"/>
+    <row r="200" ht="15.75" customHeight="1" s="42"/>
+    <row r="201" ht="15.75" customHeight="1" s="42"/>
+    <row r="202" ht="15.75" customHeight="1" s="42"/>
+    <row r="203" ht="15.75" customHeight="1" s="42"/>
+    <row r="204" ht="15.75" customHeight="1" s="42"/>
+    <row r="205" ht="15.75" customHeight="1" s="42"/>
+    <row r="206" ht="15.75" customHeight="1" s="42"/>
+    <row r="207" ht="15.75" customHeight="1" s="42"/>
+    <row r="208" ht="15.75" customHeight="1" s="42"/>
+    <row r="209" ht="15.75" customHeight="1" s="42"/>
+    <row r="210" ht="15.75" customHeight="1" s="42"/>
+    <row r="211" ht="15.75" customHeight="1" s="42"/>
+    <row r="212" ht="15.75" customHeight="1" s="42"/>
+    <row r="213" ht="15.75" customHeight="1" s="42"/>
+    <row r="214" ht="15.75" customHeight="1" s="42"/>
+    <row r="215" ht="15.75" customHeight="1" s="42"/>
+    <row r="216" ht="15.75" customHeight="1" s="42"/>
+    <row r="217" ht="15.75" customHeight="1" s="42"/>
+    <row r="218" ht="15.75" customHeight="1" s="42"/>
+    <row r="219" ht="15.75" customHeight="1" s="42"/>
+    <row r="220" ht="15.75" customHeight="1" s="42"/>
+    <row r="221" ht="15.75" customHeight="1" s="42"/>
+    <row r="222" ht="15.75" customHeight="1" s="42"/>
+    <row r="223" ht="15.75" customHeight="1" s="42"/>
+    <row r="224" ht="15.75" customHeight="1" s="42"/>
+    <row r="225" ht="15.75" customHeight="1" s="42"/>
+    <row r="226" ht="15.75" customHeight="1" s="42"/>
+    <row r="227" ht="15.75" customHeight="1" s="42"/>
+    <row r="228" ht="15.75" customHeight="1" s="42"/>
+    <row r="229" ht="15.75" customHeight="1" s="42"/>
+    <row r="230" ht="15.75" customHeight="1" s="42"/>
+    <row r="231" ht="15.75" customHeight="1" s="42"/>
+    <row r="232" ht="15.75" customHeight="1" s="42"/>
+    <row r="233" ht="15.75" customHeight="1" s="42"/>
+    <row r="234" ht="15.75" customHeight="1" s="42"/>
+    <row r="235" ht="15.75" customHeight="1" s="42"/>
+    <row r="236" ht="15.75" customHeight="1" s="42"/>
+    <row r="237" ht="15.75" customHeight="1" s="42"/>
+    <row r="238" ht="15.75" customHeight="1" s="42"/>
+    <row r="239" ht="15.75" customHeight="1" s="42"/>
+    <row r="240" ht="15.75" customHeight="1" s="42"/>
+    <row r="241" ht="15.75" customHeight="1" s="42"/>
+    <row r="242" ht="15.75" customHeight="1" s="42"/>
+    <row r="243" ht="15.75" customHeight="1" s="42"/>
+    <row r="244" ht="15.75" customHeight="1" s="42"/>
+    <row r="245" ht="15.75" customHeight="1" s="42"/>
+    <row r="246" ht="15.75" customHeight="1" s="42"/>
+    <row r="247" ht="15.75" customHeight="1" s="42"/>
+    <row r="248" ht="15.75" customHeight="1" s="42"/>
+    <row r="249" ht="15.75" customHeight="1" s="42"/>
+    <row r="250" ht="15.75" customHeight="1" s="42"/>
+    <row r="251" ht="15.75" customHeight="1" s="42"/>
+    <row r="252" ht="15.75" customHeight="1" s="42"/>
+    <row r="253" ht="15.75" customHeight="1" s="42"/>
+    <row r="254" ht="15.75" customHeight="1" s="42"/>
+    <row r="255" ht="15.75" customHeight="1" s="42"/>
+    <row r="256" ht="15.75" customHeight="1" s="42"/>
+    <row r="257" ht="15.75" customHeight="1" s="42"/>
+    <row r="258" ht="15.75" customHeight="1" s="42"/>
+    <row r="259" ht="15.75" customHeight="1" s="42"/>
+    <row r="260" ht="15.75" customHeight="1" s="42"/>
+    <row r="261" ht="15.75" customHeight="1" s="42"/>
+    <row r="262" ht="15.75" customHeight="1" s="42"/>
+    <row r="263" ht="15.75" customHeight="1" s="42"/>
+    <row r="264" ht="15.75" customHeight="1" s="42"/>
+    <row r="265" ht="15.75" customHeight="1" s="42"/>
+    <row r="266" ht="15.75" customHeight="1" s="42"/>
+    <row r="267" ht="15.75" customHeight="1" s="42"/>
+    <row r="268" ht="15.75" customHeight="1" s="42"/>
+    <row r="269" ht="15.75" customHeight="1" s="42"/>
+    <row r="270" ht="15.75" customHeight="1" s="42"/>
+    <row r="271" ht="15.75" customHeight="1" s="42"/>
+    <row r="272" ht="15.75" customHeight="1" s="42"/>
+    <row r="273" ht="15.75" customHeight="1" s="42"/>
+    <row r="274" ht="15.75" customHeight="1" s="42"/>
+    <row r="275" ht="15.75" customHeight="1" s="42"/>
+    <row r="276" ht="15.75" customHeight="1" s="42"/>
+    <row r="277" ht="15.75" customHeight="1" s="42"/>
+    <row r="278" ht="15.75" customHeight="1" s="42"/>
+    <row r="279" ht="15.75" customHeight="1" s="42"/>
+    <row r="280" ht="15.75" customHeight="1" s="42"/>
+    <row r="281" ht="15.75" customHeight="1" s="42"/>
+    <row r="282" ht="15.75" customHeight="1" s="42"/>
+    <row r="283" ht="15.75" customHeight="1" s="42"/>
+    <row r="284" ht="15.75" customHeight="1" s="42"/>
+    <row r="285" ht="15.75" customHeight="1" s="42"/>
+    <row r="286" ht="15.75" customHeight="1" s="42"/>
+    <row r="287" ht="15.75" customHeight="1" s="42"/>
+    <row r="288" ht="15.75" customHeight="1" s="42"/>
+    <row r="289" ht="15.75" customHeight="1" s="42"/>
+    <row r="290" ht="15.75" customHeight="1" s="42"/>
+    <row r="291" ht="15.75" customHeight="1" s="42"/>
+    <row r="292" ht="15.75" customHeight="1" s="42"/>
+    <row r="293" ht="15.75" customHeight="1" s="42"/>
+    <row r="294" ht="15.75" customHeight="1" s="42"/>
+    <row r="295" ht="15.75" customHeight="1" s="42"/>
+    <row r="296" ht="15.75" customHeight="1" s="42"/>
+    <row r="297" ht="15.75" customHeight="1" s="42"/>
+    <row r="298" ht="15.75" customHeight="1" s="42"/>
+    <row r="299" ht="15.75" customHeight="1" s="42"/>
+    <row r="300" ht="15.75" customHeight="1" s="42"/>
+    <row r="301" ht="15.75" customHeight="1" s="42"/>
+    <row r="302" ht="15.75" customHeight="1" s="42"/>
+    <row r="303" ht="15.75" customHeight="1" s="42"/>
+    <row r="304" ht="15.75" customHeight="1" s="42"/>
+    <row r="305" ht="15.75" customHeight="1" s="42"/>
+    <row r="306" ht="15.75" customHeight="1" s="42"/>
+    <row r="307" ht="15.75" customHeight="1" s="42"/>
+    <row r="308" ht="15.75" customHeight="1" s="42"/>
+    <row r="309" ht="15.75" customHeight="1" s="42"/>
+    <row r="310" ht="15.75" customHeight="1" s="42"/>
+    <row r="311" ht="15.75" customHeight="1" s="42"/>
+    <row r="312" ht="15.75" customHeight="1" s="42"/>
+    <row r="313" ht="15.75" customHeight="1" s="42"/>
+    <row r="314" ht="15.75" customHeight="1" s="42"/>
+    <row r="315" ht="15.75" customHeight="1" s="42"/>
+    <row r="316" ht="15.75" customHeight="1" s="42"/>
+    <row r="317" ht="15.75" customHeight="1" s="42"/>
+    <row r="318" ht="15.75" customHeight="1" s="42"/>
+    <row r="319" ht="15.75" customHeight="1" s="42"/>
+    <row r="320" ht="15.75" customHeight="1" s="42"/>
+    <row r="321" ht="15.75" customHeight="1" s="42"/>
+    <row r="322" ht="15.75" customHeight="1" s="42"/>
+    <row r="323" ht="15.75" customHeight="1" s="42"/>
+    <row r="324" ht="15.75" customHeight="1" s="42"/>
+    <row r="325" ht="15.75" customHeight="1" s="42"/>
+    <row r="326" ht="15.75" customHeight="1" s="42"/>
+    <row r="327" ht="15.75" customHeight="1" s="42"/>
+    <row r="328" ht="15.75" customHeight="1" s="42"/>
+    <row r="329" ht="15.75" customHeight="1" s="42"/>
+    <row r="330" ht="15.75" customHeight="1" s="42"/>
+    <row r="331" ht="15.75" customHeight="1" s="42"/>
+    <row r="332" ht="15.75" customHeight="1" s="42"/>
+    <row r="333" ht="15.75" customHeight="1" s="42"/>
+    <row r="334" ht="15.75" customHeight="1" s="42"/>
+    <row r="335" ht="15.75" customHeight="1" s="42"/>
+    <row r="336" ht="15.75" customHeight="1" s="42"/>
+    <row r="337" ht="15.75" customHeight="1" s="42"/>
+    <row r="338" ht="15.75" customHeight="1" s="42"/>
+    <row r="339" ht="15.75" customHeight="1" s="42"/>
+    <row r="340" ht="15.75" customHeight="1" s="42"/>
+    <row r="341" ht="15.75" customHeight="1" s="42"/>
+    <row r="342" ht="15.75" customHeight="1" s="42"/>
+    <row r="343" ht="15.75" customHeight="1" s="42"/>
+    <row r="344" ht="15.75" customHeight="1" s="42"/>
+    <row r="345" ht="15.75" customHeight="1" s="42"/>
+    <row r="346" ht="15.75" customHeight="1" s="42"/>
+    <row r="347" ht="15.75" customHeight="1" s="42"/>
+    <row r="348" ht="15.75" customHeight="1" s="42"/>
+    <row r="349" ht="15.75" customHeight="1" s="42"/>
+    <row r="350" ht="15.75" customHeight="1" s="42"/>
+    <row r="351" ht="15.75" customHeight="1" s="42"/>
+    <row r="352" ht="15.75" customHeight="1" s="42"/>
+    <row r="353" ht="15.75" customHeight="1" s="42"/>
+    <row r="354" ht="15.75" customHeight="1" s="42"/>
+    <row r="355" ht="15.75" customHeight="1" s="42"/>
+    <row r="356" ht="15.75" customHeight="1" s="42"/>
+    <row r="357" ht="15.75" customHeight="1" s="42"/>
+    <row r="358" ht="15.75" customHeight="1" s="42"/>
+    <row r="359" ht="15.75" customHeight="1" s="42"/>
+    <row r="360" ht="15.75" customHeight="1" s="42"/>
+    <row r="361" ht="15.75" customHeight="1" s="42"/>
+    <row r="362" ht="15.75" customHeight="1" s="42"/>
+    <row r="363" ht="15.75" customHeight="1" s="42"/>
+    <row r="364" ht="15.75" customHeight="1" s="42"/>
+    <row r="365" ht="15.75" customHeight="1" s="42"/>
+    <row r="366" ht="15.75" customHeight="1" s="42"/>
+    <row r="367" ht="15.75" customHeight="1" s="42"/>
+    <row r="368" ht="15.75" customHeight="1" s="42"/>
+    <row r="369" ht="15.75" customHeight="1" s="42"/>
+    <row r="370" ht="15.75" customHeight="1" s="42"/>
+    <row r="371" ht="15.75" customHeight="1" s="42"/>
+    <row r="372" ht="15.75" customHeight="1" s="42"/>
+    <row r="373" ht="15.75" customHeight="1" s="42"/>
+    <row r="374" ht="15.75" customHeight="1" s="42"/>
+    <row r="375" ht="15.75" customHeight="1" s="42"/>
+    <row r="376" ht="15.75" customHeight="1" s="42"/>
+    <row r="377" ht="15.75" customHeight="1" s="42"/>
+    <row r="378" ht="15.75" customHeight="1" s="42"/>
+    <row r="379" ht="15.75" customHeight="1" s="42"/>
+    <row r="380" ht="15.75" customHeight="1" s="42"/>
+    <row r="381" ht="15.75" customHeight="1" s="42"/>
+    <row r="382" ht="15.75" customHeight="1" s="42"/>
+    <row r="383" ht="15.75" customHeight="1" s="42"/>
+    <row r="384" ht="15.75" customHeight="1" s="42"/>
+    <row r="385" ht="15.75" customHeight="1" s="42"/>
+    <row r="386" ht="15.75" customHeight="1" s="42"/>
+    <row r="387" ht="15.75" customHeight="1" s="42"/>
+    <row r="388" ht="15.75" customHeight="1" s="42"/>
+    <row r="389" ht="15.75" customHeight="1" s="42"/>
+    <row r="390" ht="15.75" customHeight="1" s="42"/>
+    <row r="391" ht="15.75" customHeight="1" s="42"/>
+    <row r="392" ht="15.75" customHeight="1" s="42"/>
+    <row r="393" ht="15.75" customHeight="1" s="42"/>
+    <row r="394" ht="15.75" customHeight="1" s="42"/>
+    <row r="395" ht="15.75" customHeight="1" s="42"/>
+    <row r="396" ht="15.75" customHeight="1" s="42"/>
+    <row r="397" ht="15.75" customHeight="1" s="42"/>
+    <row r="398" ht="15.75" customHeight="1" s="42"/>
+    <row r="399" ht="15.75" customHeight="1" s="42"/>
+    <row r="400" ht="15.75" customHeight="1" s="42"/>
+    <row r="401" ht="15.75" customHeight="1" s="42"/>
+    <row r="402" ht="15.75" customHeight="1" s="42"/>
+    <row r="403" ht="15.75" customHeight="1" s="42"/>
+    <row r="404" ht="15.75" customHeight="1" s="42"/>
+    <row r="405" ht="15.75" customHeight="1" s="42"/>
+    <row r="406" ht="15.75" customHeight="1" s="42"/>
+    <row r="407" ht="15.75" customHeight="1" s="42"/>
+    <row r="408" ht="15.75" customHeight="1" s="42"/>
+    <row r="409" ht="15.75" customHeight="1" s="42"/>
+    <row r="410" ht="15.75" customHeight="1" s="42"/>
+    <row r="411" ht="15.75" customHeight="1" s="42"/>
+    <row r="412" ht="15.75" customHeight="1" s="42"/>
+    <row r="413" ht="15.75" customHeight="1" s="42"/>
+    <row r="414" ht="15.75" customHeight="1" s="42"/>
+    <row r="415" ht="15.75" customHeight="1" s="42"/>
+    <row r="416" ht="15.75" customHeight="1" s="42"/>
+    <row r="417" ht="15.75" customHeight="1" s="42"/>
+    <row r="418" ht="15.75" customHeight="1" s="42"/>
+    <row r="419" ht="15.75" customHeight="1" s="42"/>
+    <row r="420" ht="15.75" customHeight="1" s="42"/>
+    <row r="421" ht="15.75" customHeight="1" s="42"/>
+    <row r="422" ht="15.75" customHeight="1" s="42"/>
+    <row r="423" ht="15.75" customHeight="1" s="42"/>
+    <row r="424" ht="15.75" customHeight="1" s="42"/>
+    <row r="425" ht="15.75" customHeight="1" s="42"/>
+    <row r="426" ht="15.75" customHeight="1" s="42"/>
+    <row r="427" ht="15.75" customHeight="1" s="42"/>
+    <row r="428" ht="15.75" customHeight="1" s="42"/>
+    <row r="429" ht="15.75" customHeight="1" s="42"/>
+    <row r="430" ht="15.75" customHeight="1" s="42"/>
+    <row r="431" ht="15.75" customHeight="1" s="42"/>
+    <row r="432" ht="15.75" customHeight="1" s="42"/>
+    <row r="433" ht="15.75" customHeight="1" s="42"/>
+    <row r="434" ht="15.75" customHeight="1" s="42"/>
+    <row r="435" ht="15.75" customHeight="1" s="42"/>
+    <row r="436" ht="15.75" customHeight="1" s="42"/>
+    <row r="437" ht="15.75" customHeight="1" s="42"/>
+    <row r="438" ht="15.75" customHeight="1" s="42"/>
+    <row r="439" ht="15.75" customHeight="1" s="42"/>
+    <row r="440" ht="15.75" customHeight="1" s="42"/>
+    <row r="441" ht="15.75" customHeight="1" s="42"/>
+    <row r="442" ht="15.75" customHeight="1" s="42"/>
+    <row r="443" ht="15.75" customHeight="1" s="42"/>
+    <row r="444" ht="15.75" customHeight="1" s="42"/>
+    <row r="445" ht="15.75" customHeight="1" s="42"/>
+    <row r="446" ht="15.75" customHeight="1" s="42"/>
+    <row r="447" ht="15.75" customHeight="1" s="42"/>
+    <row r="448" ht="15.75" customHeight="1" s="42"/>
+    <row r="449" ht="15.75" customHeight="1" s="42"/>
+    <row r="450" ht="15.75" customHeight="1" s="42"/>
+    <row r="451" ht="15.75" customHeight="1" s="42"/>
+    <row r="452" ht="15.75" customHeight="1" s="42"/>
+    <row r="453" ht="15.75" customHeight="1" s="42"/>
+    <row r="454" ht="15.75" customHeight="1" s="42"/>
+    <row r="455" ht="15.75" customHeight="1" s="42"/>
+    <row r="456" ht="15.75" customHeight="1" s="42"/>
+    <row r="457" ht="15.75" customHeight="1" s="42"/>
+    <row r="458" ht="15.75" customHeight="1" s="42"/>
+    <row r="459" ht="15.75" customHeight="1" s="42"/>
+    <row r="460" ht="15.75" customHeight="1" s="42"/>
+    <row r="461" ht="15.75" customHeight="1" s="42"/>
+    <row r="462" ht="15.75" customHeight="1" s="42"/>
+    <row r="463" ht="15.75" customHeight="1" s="42"/>
+    <row r="464" ht="15.75" customHeight="1" s="42"/>
+    <row r="465" ht="15.75" customHeight="1" s="42"/>
+    <row r="466" ht="15.75" customHeight="1" s="42"/>
+    <row r="467" ht="15.75" customHeight="1" s="42"/>
+    <row r="468" ht="15.75" customHeight="1" s="42"/>
+    <row r="469" ht="15.75" customHeight="1" s="42"/>
+    <row r="470" ht="15.75" customHeight="1" s="42"/>
+    <row r="471" ht="15.75" customHeight="1" s="42"/>
+    <row r="472" ht="15.75" customHeight="1" s="42"/>
+    <row r="473" ht="15.75" customHeight="1" s="42"/>
+    <row r="474" ht="15.75" customHeight="1" s="42"/>
+    <row r="475" ht="15.75" customHeight="1" s="42"/>
+    <row r="476" ht="15.75" customHeight="1" s="42"/>
+    <row r="477" ht="15.75" customHeight="1" s="42"/>
+    <row r="478" ht="15.75" customHeight="1" s="42"/>
+    <row r="479" ht="15.75" customHeight="1" s="42"/>
+    <row r="480" ht="15.75" customHeight="1" s="42"/>
+    <row r="481" ht="15.75" customHeight="1" s="42"/>
+    <row r="482" ht="15.75" customHeight="1" s="42"/>
+    <row r="483" ht="15.75" customHeight="1" s="42"/>
+    <row r="484" ht="15.75" customHeight="1" s="42"/>
+    <row r="485" ht="15.75" customHeight="1" s="42"/>
+    <row r="486" ht="15.75" customHeight="1" s="42"/>
+    <row r="487" ht="15.75" customHeight="1" s="42"/>
+    <row r="488" ht="15.75" customHeight="1" s="42"/>
+    <row r="489" ht="15.75" customHeight="1" s="42"/>
+    <row r="490" ht="15.75" customHeight="1" s="42"/>
+    <row r="491" ht="15.75" customHeight="1" s="42"/>
+    <row r="492" ht="15.75" customHeight="1" s="42"/>
+    <row r="493" ht="15.75" customHeight="1" s="42"/>
+    <row r="494" ht="15.75" customHeight="1" s="42"/>
+    <row r="495" ht="15.75" customHeight="1" s="42"/>
+    <row r="496" ht="15.75" customHeight="1" s="42"/>
+    <row r="497" ht="15.75" customHeight="1" s="42"/>
+    <row r="498" ht="15.75" customHeight="1" s="42"/>
+    <row r="499" ht="15.75" customHeight="1" s="42"/>
+    <row r="500" ht="15.75" customHeight="1" s="42"/>
+    <row r="501" ht="15.75" customHeight="1" s="42"/>
+    <row r="502" ht="15.75" customHeight="1" s="42"/>
+    <row r="503" ht="15.75" customHeight="1" s="42"/>
+    <row r="504" ht="15.75" customHeight="1" s="42"/>
+    <row r="505" ht="15.75" customHeight="1" s="42"/>
+    <row r="506" ht="15.75" customHeight="1" s="42"/>
+    <row r="507" ht="15.75" customHeight="1" s="42"/>
+    <row r="508" ht="15.75" customHeight="1" s="42"/>
+    <row r="509" ht="15.75" customHeight="1" s="42"/>
+    <row r="510" ht="15.75" customHeight="1" s="42"/>
+    <row r="511" ht="15.75" customHeight="1" s="42"/>
+    <row r="512" ht="15.75" customHeight="1" s="42"/>
+    <row r="513" ht="15.75" customHeight="1" s="42"/>
+    <row r="514" ht="15.75" customHeight="1" s="42"/>
+    <row r="515" ht="15.75" customHeight="1" s="42"/>
+    <row r="516" ht="15.75" customHeight="1" s="42"/>
+    <row r="517" ht="15.75" customHeight="1" s="42"/>
+    <row r="518" ht="15.75" customHeight="1" s="42"/>
+    <row r="519" ht="15.75" customHeight="1" s="42"/>
+    <row r="520" ht="15.75" customHeight="1" s="42"/>
+    <row r="521" ht="15.75" customHeight="1" s="42"/>
+    <row r="522" ht="15.75" customHeight="1" s="42"/>
+    <row r="523" ht="15.75" customHeight="1" s="42"/>
+    <row r="524" ht="15.75" customHeight="1" s="42"/>
+    <row r="525" ht="15.75" customHeight="1" s="42"/>
+    <row r="526" ht="15.75" customHeight="1" s="42"/>
+    <row r="527" ht="15.75" customHeight="1" s="42"/>
+    <row r="528" ht="15.75" customHeight="1" s="42"/>
+    <row r="529" ht="15.75" customHeight="1" s="42"/>
+    <row r="530" ht="15.75" customHeight="1" s="42"/>
+    <row r="531" ht="15.75" customHeight="1" s="42"/>
+    <row r="532" ht="15.75" customHeight="1" s="42"/>
+    <row r="533" ht="15.75" customHeight="1" s="42"/>
+    <row r="534" ht="15.75" customHeight="1" s="42"/>
+    <row r="535" ht="15.75" customHeight="1" s="42"/>
+    <row r="536" ht="15.75" customHeight="1" s="42"/>
+    <row r="537" ht="15.75" customHeight="1" s="42"/>
+    <row r="538" ht="15.75" customHeight="1" s="42"/>
+    <row r="539" ht="15.75" customHeight="1" s="42"/>
+    <row r="540" ht="15.75" customHeight="1" s="42"/>
+    <row r="541" ht="15.75" customHeight="1" s="42"/>
+    <row r="542" ht="15.75" customHeight="1" s="42"/>
+    <row r="543" ht="15.75" customHeight="1" s="42"/>
+    <row r="544" ht="15.75" customHeight="1" s="42"/>
+    <row r="545" ht="15.75" customHeight="1" s="42"/>
+    <row r="546" ht="15.75" customHeight="1" s="42"/>
+    <row r="547" ht="15.75" customHeight="1" s="42"/>
+    <row r="548" ht="15.75" customHeight="1" s="42"/>
+    <row r="549" ht="15.75" customHeight="1" s="42"/>
+    <row r="550" ht="15.75" customHeight="1" s="42"/>
+    <row r="551" ht="15.75" customHeight="1" s="42"/>
+    <row r="552" ht="15.75" customHeight="1" s="42"/>
+    <row r="553" ht="15.75" customHeight="1" s="42"/>
+    <row r="554" ht="15.75" customHeight="1" s="42"/>
+    <row r="555" ht="15.75" customHeight="1" s="42"/>
+    <row r="556" ht="15.75" customHeight="1" s="42"/>
+    <row r="557" ht="15.75" customHeight="1" s="42"/>
+    <row r="558" ht="15.75" customHeight="1" s="42"/>
+    <row r="559" ht="15.75" customHeight="1" s="42"/>
+    <row r="560" ht="15.75" customHeight="1" s="42"/>
+    <row r="561" ht="15.75" customHeight="1" s="42"/>
+    <row r="562" ht="15.75" customHeight="1" s="42"/>
+    <row r="563" ht="15.75" customHeight="1" s="42"/>
+    <row r="564" ht="15.75" customHeight="1" s="42"/>
+    <row r="565" ht="15.75" customHeight="1" s="42"/>
+    <row r="566" ht="15.75" customHeight="1" s="42"/>
+    <row r="567" ht="15.75" customHeight="1" s="42"/>
+    <row r="568" ht="15.75" customHeight="1" s="42"/>
+    <row r="569" ht="15.75" customHeight="1" s="42"/>
+    <row r="570" ht="15.75" customHeight="1" s="42"/>
+    <row r="571" ht="15.75" customHeight="1" s="42"/>
+    <row r="572" ht="15.75" customHeight="1" s="42"/>
+    <row r="573" ht="15.75" customHeight="1" s="42"/>
+    <row r="574" ht="15.75" customHeight="1" s="42"/>
+    <row r="575" ht="15.75" customHeight="1" s="42"/>
+    <row r="576" ht="15.75" customHeight="1" s="42"/>
+    <row r="577" ht="15.75" customHeight="1" s="42"/>
+    <row r="578" ht="15.75" customHeight="1" s="42"/>
+    <row r="579" ht="15.75" customHeight="1" s="42"/>
+    <row r="580" ht="15.75" customHeight="1" s="42"/>
+    <row r="581" ht="15.75" customHeight="1" s="42"/>
+    <row r="582" ht="15.75" customHeight="1" s="42"/>
+    <row r="583" ht="15.75" customHeight="1" s="42"/>
+    <row r="584" ht="15.75" customHeight="1" s="42"/>
+    <row r="585" ht="15.75" customHeight="1" s="42"/>
+    <row r="586" ht="15.75" customHeight="1" s="42"/>
+    <row r="587" ht="15.75" customHeight="1" s="42"/>
+    <row r="588" ht="15.75" customHeight="1" s="42"/>
+    <row r="589" ht="15.75" customHeight="1" s="42"/>
+    <row r="590" ht="15.75" customHeight="1" s="42"/>
+    <row r="591" ht="15.75" customHeight="1" s="42"/>
+    <row r="592" ht="15.75" customHeight="1" s="42"/>
+    <row r="593" ht="15.75" customHeight="1" s="42"/>
+    <row r="594" ht="15.75" customHeight="1" s="42"/>
+    <row r="595" ht="15.75" customHeight="1" s="42"/>
+    <row r="596" ht="15.75" customHeight="1" s="42"/>
+    <row r="597" ht="15.75" customHeight="1" s="42"/>
+    <row r="598" ht="15.75" customHeight="1" s="42"/>
+    <row r="599" ht="15.75" customHeight="1" s="42"/>
+    <row r="600" ht="15.75" customHeight="1" s="42"/>
+    <row r="601" ht="15.75" customHeight="1" s="42"/>
+    <row r="602" ht="15.75" customHeight="1" s="42"/>
+    <row r="603" ht="15.75" customHeight="1" s="42"/>
+    <row r="604" ht="15.75" customHeight="1" s="42"/>
+    <row r="605" ht="15.75" customHeight="1" s="42"/>
+    <row r="606" ht="15.75" customHeight="1" s="42"/>
+    <row r="607" ht="15.75" customHeight="1" s="42"/>
+    <row r="608" ht="15.75" customHeight="1" s="42"/>
+    <row r="609" ht="15.75" customHeight="1" s="42"/>
+    <row r="610" ht="15.75" customHeight="1" s="42"/>
+    <row r="611" ht="15.75" customHeight="1" s="42"/>
+    <row r="612" ht="15.75" customHeight="1" s="42"/>
+    <row r="613" ht="15.75" customHeight="1" s="42"/>
+    <row r="614" ht="15.75" customHeight="1" s="42"/>
+    <row r="615" ht="15.75" customHeight="1" s="42"/>
+    <row r="616" ht="15.75" customHeight="1" s="42"/>
+    <row r="617" ht="15.75" customHeight="1" s="42"/>
+    <row r="618" ht="15.75" customHeight="1" s="42"/>
+    <row r="619" ht="15.75" customHeight="1" s="42"/>
+    <row r="620" ht="15.75" customHeight="1" s="42"/>
+    <row r="621" ht="15.75" customHeight="1" s="42"/>
+    <row r="622" ht="15.75" customHeight="1" s="42"/>
+    <row r="623" ht="15.75" customHeight="1" s="42"/>
+    <row r="624" ht="15.75" customHeight="1" s="42"/>
+    <row r="625" ht="15.75" customHeight="1" s="42"/>
+    <row r="626" ht="15.75" customHeight="1" s="42"/>
+    <row r="627" ht="15.75" customHeight="1" s="42"/>
+    <row r="628" ht="15.75" customHeight="1" s="42"/>
+    <row r="629" ht="15.75" customHeight="1" s="42"/>
+    <row r="630" ht="15.75" customHeight="1" s="42"/>
+    <row r="631" ht="15.75" customHeight="1" s="42"/>
+    <row r="632" ht="15.75" customHeight="1" s="42"/>
+    <row r="633" ht="15.75" customHeight="1" s="42"/>
+    <row r="634" ht="15.75" customHeight="1" s="42"/>
+    <row r="635" ht="15.75" customHeight="1" s="42"/>
+    <row r="636" ht="15.75" customHeight="1" s="42"/>
+    <row r="637" ht="15.75" customHeight="1" s="42"/>
+    <row r="638" ht="15.75" customHeight="1" s="42"/>
+    <row r="639" ht="15.75" customHeight="1" s="42"/>
+    <row r="640" ht="15.75" customHeight="1" s="42"/>
+    <row r="641" ht="15.75" customHeight="1" s="42"/>
+    <row r="642" ht="15.75" customHeight="1" s="42"/>
+    <row r="643" ht="15.75" customHeight="1" s="42"/>
+    <row r="644" ht="15.75" customHeight="1" s="42"/>
+    <row r="645" ht="15.75" customHeight="1" s="42"/>
+    <row r="646" ht="15.75" customHeight="1" s="42"/>
+    <row r="647" ht="15.75" customHeight="1" s="42"/>
+    <row r="648" ht="15.75" customHeight="1" s="42"/>
+    <row r="649" ht="15.75" customHeight="1" s="42"/>
+    <row r="650" ht="15.75" customHeight="1" s="42"/>
+    <row r="651" ht="15.75" customHeight="1" s="42"/>
+    <row r="652" ht="15.75" customHeight="1" s="42"/>
+    <row r="653" ht="15.75" customHeight="1" s="42"/>
+    <row r="654" ht="15.75" customHeight="1" s="42"/>
+    <row r="655" ht="15.75" customHeight="1" s="42"/>
+    <row r="656" ht="15.75" customHeight="1" s="42"/>
+    <row r="657" ht="15.75" customHeight="1" s="42"/>
+    <row r="658" ht="15.75" customHeight="1" s="42"/>
+    <row r="659" ht="15.75" customHeight="1" s="42"/>
+    <row r="660" ht="15.75" customHeight="1" s="42"/>
+    <row r="661" ht="15.75" customHeight="1" s="42"/>
+    <row r="662" ht="15.75" customHeight="1" s="42"/>
+    <row r="663" ht="15.75" customHeight="1" s="42"/>
+    <row r="664" ht="15.75" customHeight="1" s="42"/>
+    <row r="665" ht="15.75" customHeight="1" s="42"/>
+    <row r="666" ht="15.75" customHeight="1" s="42"/>
+    <row r="667" ht="15.75" customHeight="1" s="42"/>
+    <row r="668" ht="15.75" customHeight="1" s="42"/>
+    <row r="669" ht="15.75" customHeight="1" s="42"/>
+    <row r="670" ht="15.75" customHeight="1" s="42"/>
+    <row r="671" ht="15.75" customHeight="1" s="42"/>
+    <row r="672" ht="15.75" customHeight="1" s="42"/>
+    <row r="673" ht="15.75" customHeight="1" s="42"/>
+    <row r="674" ht="15.75" customHeight="1" s="42"/>
+    <row r="675" ht="15.75" customHeight="1" s="42"/>
+    <row r="676" ht="15.75" customHeight="1" s="42"/>
+    <row r="677" ht="15.75" customHeight="1" s="42"/>
+    <row r="678" ht="15.75" customHeight="1" s="42"/>
+    <row r="679" ht="15.75" customHeight="1" s="42"/>
+    <row r="680" ht="15.75" customHeight="1" s="42"/>
+    <row r="681" ht="15.75" customHeight="1" s="42"/>
+    <row r="682" ht="15.75" customHeight="1" s="42"/>
+    <row r="683" ht="15.75" customHeight="1" s="42"/>
+    <row r="684" ht="15.75" customHeight="1" s="42"/>
+    <row r="685" ht="15.75" customHeight="1" s="42"/>
+    <row r="686" ht="15.75" customHeight="1" s="42"/>
+    <row r="687" ht="15.75" customHeight="1" s="42"/>
+    <row r="688" ht="15.75" customHeight="1" s="42"/>
+    <row r="689" ht="15.75" customHeight="1" s="42"/>
+    <row r="690" ht="15.75" customHeight="1" s="42"/>
+    <row r="691" ht="15.75" customHeight="1" s="42"/>
+    <row r="692" ht="15.75" customHeight="1" s="42"/>
+    <row r="693" ht="15.75" customHeight="1" s="42"/>
+    <row r="694" ht="15.75" customHeight="1" s="42"/>
+    <row r="695" ht="15.75" customHeight="1" s="42"/>
+    <row r="696" ht="15.75" customHeight="1" s="42"/>
+    <row r="697" ht="15.75" customHeight="1" s="42"/>
+    <row r="698" ht="15.75" customHeight="1" s="42"/>
+    <row r="699" ht="15.75" customHeight="1" s="42"/>
+    <row r="700" ht="15.75" customHeight="1" s="42"/>
+    <row r="701" ht="15.75" customHeight="1" s="42"/>
+    <row r="702" ht="15.75" customHeight="1" s="42"/>
+    <row r="703" ht="15.75" customHeight="1" s="42"/>
+    <row r="704" ht="15.75" customHeight="1" s="42"/>
+    <row r="705" ht="15.75" customHeight="1" s="42"/>
+    <row r="706" ht="15.75" customHeight="1" s="42"/>
+    <row r="707" ht="15.75" customHeight="1" s="42"/>
+    <row r="708" ht="15.75" customHeight="1" s="42"/>
+    <row r="709" ht="15.75" customHeight="1" s="42"/>
+    <row r="710" ht="15.75" customHeight="1" s="42"/>
+    <row r="711" ht="15.75" customHeight="1" s="42"/>
+    <row r="712" ht="15.75" customHeight="1" s="42"/>
+    <row r="713" ht="15.75" customHeight="1" s="42"/>
+    <row r="714" ht="15.75" customHeight="1" s="42"/>
+    <row r="715" ht="15.75" customHeight="1" s="42"/>
+    <row r="716" ht="15.75" customHeight="1" s="42"/>
+    <row r="717" ht="15.75" customHeight="1" s="42"/>
+    <row r="718" ht="15.75" customHeight="1" s="42"/>
+    <row r="719" ht="15.75" customHeight="1" s="42"/>
+    <row r="720" ht="15.75" customHeight="1" s="42"/>
+    <row r="721" ht="15.75" customHeight="1" s="42"/>
+    <row r="722" ht="15.75" customHeight="1" s="42"/>
+    <row r="723" ht="15.75" customHeight="1" s="42"/>
+    <row r="724" ht="15.75" customHeight="1" s="42"/>
+    <row r="725" ht="15.75" customHeight="1" s="42"/>
+    <row r="726" ht="15.75" customHeight="1" s="42"/>
+    <row r="727" ht="15.75" customHeight="1" s="42"/>
+    <row r="728" ht="15.75" customHeight="1" s="42"/>
+    <row r="729" ht="15.75" customHeight="1" s="42"/>
+    <row r="730" ht="15.75" customHeight="1" s="42"/>
+    <row r="731" ht="15.75" customHeight="1" s="42"/>
+    <row r="732" ht="15.75" customHeight="1" s="42"/>
+    <row r="733" ht="15.75" customHeight="1" s="42"/>
+    <row r="734" ht="15.75" customHeight="1" s="42"/>
+    <row r="735" ht="15.75" customHeight="1" s="42"/>
+    <row r="736" ht="15.75" customHeight="1" s="42"/>
+    <row r="737" ht="15.75" customHeight="1" s="42"/>
+    <row r="738" ht="15.75" customHeight="1" s="42"/>
+    <row r="739" ht="15.75" customHeight="1" s="42"/>
+    <row r="740" ht="15.75" customHeight="1" s="42"/>
+    <row r="741" ht="15.75" customHeight="1" s="42"/>
+    <row r="742" ht="15.75" customHeight="1" s="42"/>
+    <row r="743" ht="15.75" customHeight="1" s="42"/>
+    <row r="744" ht="15.75" customHeight="1" s="42"/>
+    <row r="745" ht="15.75" customHeight="1" s="42"/>
+    <row r="746" ht="15.75" customHeight="1" s="42"/>
+    <row r="747" ht="15.75" customHeight="1" s="42"/>
+    <row r="748" ht="15.75" customHeight="1" s="42"/>
+    <row r="749" ht="15.75" customHeight="1" s="42"/>
+    <row r="750" ht="15.75" customHeight="1" s="42"/>
+    <row r="751" ht="15.75" customHeight="1" s="42"/>
+    <row r="752" ht="15.75" customHeight="1" s="42"/>
+    <row r="753" ht="15.75" customHeight="1" s="42"/>
+    <row r="754" ht="15.75" customHeight="1" s="42"/>
+    <row r="755" ht="15.75" customHeight="1" s="42"/>
+    <row r="756" ht="15.75" customHeight="1" s="42"/>
+    <row r="757" ht="15.75" customHeight="1" s="42"/>
+    <row r="758" ht="15.75" customHeight="1" s="42"/>
+    <row r="759" ht="15.75" customHeight="1" s="42"/>
+    <row r="760" ht="15.75" customHeight="1" s="42"/>
+    <row r="761" ht="15.75" customHeight="1" s="42"/>
+    <row r="762" ht="15.75" customHeight="1" s="42"/>
+    <row r="763" ht="15.75" customHeight="1" s="42"/>
+    <row r="764" ht="15.75" customHeight="1" s="42"/>
+    <row r="765" ht="15.75" customHeight="1" s="42"/>
+    <row r="766" ht="15.75" customHeight="1" s="42"/>
+    <row r="767" ht="15.75" customHeight="1" s="42"/>
+    <row r="768" ht="15.75" customHeight="1" s="42"/>
+    <row r="769" ht="15.75" customHeight="1" s="42"/>
+    <row r="770" ht="15.75" customHeight="1" s="42"/>
+    <row r="771" ht="15.75" customHeight="1" s="42"/>
+    <row r="772" ht="15.75" customHeight="1" s="42"/>
+    <row r="773" ht="15.75" customHeight="1" s="42"/>
+    <row r="774" ht="15.75" customHeight="1" s="42"/>
+    <row r="775" ht="15.75" customHeight="1" s="42"/>
+    <row r="776" ht="15.75" customHeight="1" s="42"/>
+    <row r="777" ht="15.75" customHeight="1" s="42"/>
+    <row r="778" ht="15.75" customHeight="1" s="42"/>
+    <row r="779" ht="15.75" customHeight="1" s="42"/>
+    <row r="780" ht="15.75" customHeight="1" s="42"/>
+    <row r="781" ht="15.75" customHeight="1" s="42"/>
+    <row r="782" ht="15.75" customHeight="1" s="42"/>
+    <row r="783" ht="15.75" customHeight="1" s="42"/>
+    <row r="784" ht="15.75" customHeight="1" s="42"/>
+    <row r="785" ht="15.75" customHeight="1" s="42"/>
+    <row r="786" ht="15.75" customHeight="1" s="42"/>
+    <row r="787" ht="15.75" customHeight="1" s="42"/>
+    <row r="788" ht="15.75" customHeight="1" s="42"/>
+    <row r="789" ht="15.75" customHeight="1" s="42"/>
+    <row r="790" ht="15.75" customHeight="1" s="42"/>
+    <row r="791" ht="15.75" customHeight="1" s="42"/>
+    <row r="792" ht="15.75" customHeight="1" s="42"/>
+    <row r="793" ht="15.75" customHeight="1" s="42"/>
+    <row r="794" ht="15.75" customHeight="1" s="42"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J4:K4"/>
@@ -3044,27 +3372,46 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:J35"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="14.152380952381" customWidth="1" style="1" min="1" max="1"/>
-    <col width="43.7238095238095" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10.0095238095238" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.5809523809524" customWidth="1" style="1" min="4" max="5"/>
-    <col width="18.152380952381" customWidth="1" style="1" min="6" max="6"/>
-    <col width="10" customWidth="1" style="1" min="7" max="7"/>
-    <col width="12" customWidth="1" style="1" min="8" max="8"/>
-    <col width="12" customWidth="1" style="1" min="9" max="10"/>
+    <col width="14.152380952381" customWidth="1" style="42" min="1" max="1"/>
+    <col width="10.8666666666667" customWidth="1" style="42" min="2" max="2"/>
+    <col width="10.0095238095238" customWidth="1" style="42" min="3" max="5"/>
+    <col width="12.5809523809524" customWidth="1" style="42" min="6" max="7"/>
+    <col width="18.152380952381" customWidth="1" style="42" min="8" max="8"/>
+    <col width="10.1428571428571" customWidth="1" style="42" min="9" max="9"/>
+    <col width="14.7142857142857" customWidth="1" style="42" min="10" max="10"/>
+    <col width="8.857142857142859" customWidth="1" style="42" min="11" max="11"/>
+    <col width="8.571428571428569" customWidth="1" style="42" min="12" max="15"/>
+    <col width="9.428571428571431" customWidth="1" style="42" min="16" max="16"/>
+    <col width="13.4285714285714" customWidth="1" style="42" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="1"/>
-    <row r="2" ht="18.75" customHeight="1" s="1"/>
-    <row r="3" ht="18.75" customHeight="1" s="1">
+    <row r="1" ht="18.75" customHeight="1" s="42">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="42"/>
+    <row r="3" ht="18.75" customHeight="1" s="42">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
@@ -3072,1123 +3419,1656 @@
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="26" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="1">
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="23" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="42">
       <c r="A4" s="5" t="n"/>
-      <c r="B4" s="48" t="inlineStr">
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>COMPRIMENTOS POR LAYER</t>
         </is>
       </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="49" t="inlineStr">
+      <c r="K4" s="65" t="inlineStr">
         <is>
           <t>TALHÕES</t>
         </is>
       </c>
-      <c r="J4" s="27" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="1">
+      <c r="N4" s="24" t="n"/>
+      <c r="O4" s="24" t="n"/>
+      <c r="P4" s="25" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="42">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="50" t="inlineStr">
+      <c r="B5" s="66" t="inlineStr">
         <is>
           <t>NOME DO LAYER</t>
         </is>
       </c>
-      <c r="C5" s="50" t="inlineStr">
+      <c r="F5" s="66" t="inlineStr">
         <is>
           <t>QTD</t>
         </is>
       </c>
-      <c r="D5" s="50" t="inlineStr">
+      <c r="G5" s="66" t="inlineStr">
         <is>
           <t>TOTAL (m)</t>
         </is>
       </c>
-      <c r="E5" s="50" t="inlineStr">
+      <c r="H5" s="66" t="inlineStr">
         <is>
           <t>MÉDIA (m)</t>
         </is>
       </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="51" t="inlineStr">
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="67" t="inlineStr">
         <is>
           <t>Número</t>
         </is>
       </c>
-      <c r="H5" s="51" t="inlineStr">
+      <c r="L5" s="67" t="inlineStr">
         <is>
           <t>Área (ha)</t>
         </is>
       </c>
-      <c r="I5" s="51" t="inlineStr">
+      <c r="M5" s="67" t="inlineStr">
         <is>
           <t>Área (alq)*</t>
         </is>
       </c>
-      <c r="J5" s="27" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="1">
+      <c r="N5" s="24" t="n"/>
+      <c r="O5" s="24" t="n"/>
+      <c r="P5" s="25" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="42">
       <c r="A6" s="5" t="n"/>
-      <c r="B6" s="52" t="inlineStr">
+      <c r="B6" s="68" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C6" s="53" t="n">
+      <c r="F6" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="53" t="n">
+      <c r="G6" s="69" t="n">
         <v>3236.79</v>
       </c>
-      <c r="E6" s="53" t="n">
+      <c r="H6" s="69" t="n">
         <v>647.36</v>
       </c>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="54" t="inlineStr">
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n"/>
+      <c r="K6" s="70" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="H6" s="54" t="n">
+      <c r="L6" s="70" t="n">
         <v>0.24</v>
       </c>
-      <c r="I6" s="54" t="n">
+      <c r="M6" s="70" t="n">
         <v>0.1</v>
       </c>
-      <c r="J6" s="27" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="1">
+      <c r="N6" s="24" t="n"/>
+      <c r="O6" s="24" t="n"/>
+      <c r="P6" s="25" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="42">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="52" t="inlineStr">
+      <c r="B7" s="68" t="inlineStr">
         <is>
           <t>CONSTRUÇÃO DE TERRAÇO BASE LARGA</t>
         </is>
       </c>
-      <c r="C7" s="53" t="n">
+      <c r="F7" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="53" t="n">
+      <c r="G7" s="69" t="n">
         <v>143.06</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="H7" s="69" t="n">
         <v>71.53</v>
       </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="54" t="inlineStr">
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="70" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="H7" s="54" t="n">
+      <c r="L7" s="70" t="n">
         <v>17.2</v>
       </c>
-      <c r="I7" s="54" t="n">
+      <c r="M7" s="70" t="n">
         <v>7.11</v>
       </c>
-      <c r="J7" s="27" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="1">
+      <c r="N7" s="24" t="n"/>
+      <c r="O7" s="24" t="n"/>
+      <c r="P7" s="25" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" s="42">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="52" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CARREADOR 5M</t>
         </is>
       </c>
-      <c r="C8" s="53" t="n">
+      <c r="F8" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="53" t="n">
+      <c r="G8" s="69" t="n">
         <v>2585.6</v>
       </c>
-      <c r="E8" s="53" t="n">
+      <c r="H8" s="69" t="n">
         <v>2585.6</v>
       </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="54" t="inlineStr">
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="70" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="H8" s="54" t="n">
+      <c r="L8" s="70" t="n">
         <v>4.24</v>
       </c>
-      <c r="I8" s="54" t="n">
+      <c r="M8" s="70" t="n">
         <v>1.75</v>
       </c>
-      <c r="J8" s="28" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="1">
+      <c r="N8" s="24" t="n"/>
+      <c r="O8" s="24" t="n"/>
+      <c r="P8" s="25" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="42">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="52" t="inlineStr">
+      <c r="B9" s="68" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CARREADOR 6M</t>
         </is>
       </c>
-      <c r="C9" s="53" t="n">
+      <c r="F9" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="53" t="n">
+      <c r="G9" s="69" t="n">
         <v>352.84</v>
       </c>
-      <c r="E9" s="53" t="n">
+      <c r="H9" s="69" t="n">
         <v>176.42</v>
       </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="55" t="inlineStr">
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n"/>
+      <c r="K9" s="71" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H9" s="56" t="n">
+      <c r="L9" s="72" t="n">
         <v>21.69</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="M9" s="72" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J9" s="27" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="1">
+      <c r="N9" s="24" t="n"/>
+      <c r="O9" s="24" t="n"/>
+      <c r="P9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="42">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="52" t="inlineStr">
+      <c r="B10" s="68" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CARREADOR 7.5M</t>
         </is>
       </c>
-      <c r="C10" s="53" t="n">
+      <c r="F10" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="53" t="n">
+      <c r="G10" s="69" t="n">
         <v>237.86</v>
       </c>
-      <c r="E10" s="53" t="n">
+      <c r="H10" s="69" t="n">
         <v>118.93</v>
       </c>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="57" t="inlineStr">
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="24" t="n"/>
+      <c r="M10" s="73" t="inlineStr">
         <is>
           <t>*Alqueires Paulistas</t>
         </is>
       </c>
-      <c r="J10" s="27" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="1">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="24" t="n"/>
+      <c r="P10" s="25" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="42">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="52" t="inlineStr">
+      <c r="B11" s="68" t="inlineStr">
         <is>
           <t>MANUTENÇÃO-LIMPEZA DE CURVA EMBUTIDA</t>
         </is>
       </c>
-      <c r="C11" s="53" t="n">
+      <c r="F11" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="53" t="n">
+      <c r="G11" s="69" t="n">
         <v>1545.45</v>
       </c>
-      <c r="E11" s="53" t="n">
+      <c r="H11" s="69" t="n">
         <v>309.09</v>
       </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="6" t="n"/>
-      <c r="J11" s="27" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="1">
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L11" s="24" t="n"/>
+      <c r="M11" s="24" t="n"/>
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="24" t="n"/>
+      <c r="P11" s="25" t="n"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" s="42">
       <c r="A12" s="5" t="n"/>
-      <c r="B12" s="52" t="inlineStr">
+      <c r="B12" s="68" t="inlineStr">
         <is>
           <t>NUMERAÇÕES DOS TALHÕES</t>
         </is>
       </c>
-      <c r="C12" s="53" t="n">
+      <c r="F12" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="53" t="n">
+      <c r="G12" s="69" t="n">
         <v>81.34</v>
       </c>
-      <c r="E12" s="53" t="n">
+      <c r="H12" s="69" t="n">
         <v>81.34</v>
       </c>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="27" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" s="1">
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="24" t="n"/>
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="24" t="n"/>
+      <c r="P12" s="25" t="n"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" s="42">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="52" t="inlineStr">
+      <c r="B13" s="68" t="inlineStr">
         <is>
           <t>REDE</t>
         </is>
       </c>
-      <c r="C13" s="53" t="n">
+      <c r="F13" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="53" t="n">
+      <c r="G13" s="69" t="n">
         <v>118.93</v>
       </c>
-      <c r="E13" s="53" t="n">
+      <c r="H13" s="69" t="n">
         <v>118.93</v>
       </c>
-      <c r="F13" s="6" t="n"/>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="27" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" s="1">
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="24" t="n"/>
+      <c r="M13" s="24" t="n"/>
+      <c r="N13" s="24" t="n"/>
+      <c r="O13" s="24" t="n"/>
+      <c r="P13" s="25" t="n"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" s="42">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="52" t="inlineStr">
+      <c r="B14" s="68" t="inlineStr">
         <is>
           <t>TALHÕES</t>
         </is>
       </c>
-      <c r="C14" s="53" t="n">
+      <c r="F14" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="53" t="n">
+      <c r="G14" s="69" t="n">
         <v>3031</v>
       </c>
-      <c r="E14" s="53" t="n">
+      <c r="H14" s="69" t="n">
         <v>1010.33</v>
       </c>
-      <c r="F14" s="6" t="n"/>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="6" t="n"/>
-      <c r="I14" s="6" t="n"/>
-      <c r="J14" s="27" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" s="1">
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="8" t="n"/>
+      <c r="L14" s="24" t="n"/>
+      <c r="M14" s="24" t="n"/>
+      <c r="N14" s="24" t="n"/>
+      <c r="O14" s="24" t="n"/>
+      <c r="P14" s="25" t="n"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" s="42">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="52" t="inlineStr">
+      <c r="B15" s="68" t="inlineStr">
         <is>
           <t>TRANSFORMAÇÃO DE EMBUTIDA P- BASE LARGA</t>
         </is>
       </c>
-      <c r="C15" s="53" t="n">
+      <c r="F15" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="53" t="n">
+      <c r="G15" s="69" t="n">
         <v>18.96</v>
       </c>
-      <c r="E15" s="53" t="n">
+      <c r="H15" s="69" t="n">
         <v>18.96</v>
       </c>
-      <c r="J15" s="27" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="1">
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="8" t="n"/>
+      <c r="L15" s="24" t="n"/>
+      <c r="M15" s="24" t="n"/>
+      <c r="N15" s="24" t="n"/>
+      <c r="O15" s="24" t="n"/>
+      <c r="P15" s="25" t="n"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1" s="42">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="52" t="inlineStr">
+      <c r="B16" s="68" t="inlineStr">
         <is>
           <t>XLEGENDA SISTEMATIZAÇÃO</t>
         </is>
       </c>
-      <c r="C16" s="53" t="n">
+      <c r="F16" s="69" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="53" t="n">
+      <c r="G16" s="69" t="n">
         <v>168.81</v>
       </c>
-      <c r="E16" s="53" t="n">
+      <c r="H16" s="69" t="n">
         <v>16.88</v>
       </c>
-      <c r="J16" s="27" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="1">
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="24" t="n"/>
+      <c r="M16" s="24" t="n"/>
+      <c r="N16" s="24" t="n"/>
+      <c r="O16" s="24" t="n"/>
+      <c r="P16" s="25" t="n"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1" s="42">
       <c r="A17" s="5" t="n"/>
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="J17" s="27" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" s="1">
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="24" t="n"/>
+      <c r="G17" s="24" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="8" t="n"/>
+      <c r="J17" s="8" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="24" t="n"/>
+      <c r="M17" s="24" t="n"/>
+      <c r="N17" s="24" t="n"/>
+      <c r="O17" s="24" t="n"/>
+      <c r="P17" s="25" t="n"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1" s="42">
       <c r="A18" s="5" t="n"/>
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="J18" s="27" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" s="1">
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="24" t="n"/>
+      <c r="G18" s="24" t="n"/>
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="6" t="n"/>
+      <c r="J18" s="6" t="n"/>
+      <c r="K18" s="6" t="n"/>
+      <c r="L18" s="6" t="n"/>
+      <c r="M18" s="6" t="n"/>
+      <c r="N18" s="6" t="n"/>
+      <c r="O18" s="6" t="n"/>
+      <c r="P18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1" s="42">
       <c r="A19" s="5" t="n"/>
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="J19" s="27" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" s="1">
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="24" t="n"/>
+      <c r="G19" s="24" t="n"/>
+      <c r="H19" s="6" t="n"/>
+      <c r="I19" s="6" t="n"/>
+      <c r="J19" s="6" t="n"/>
+      <c r="K19" s="6" t="n"/>
+      <c r="L19" s="6" t="n"/>
+      <c r="M19" s="6" t="n"/>
+      <c r="N19" s="6" t="n"/>
+      <c r="O19" s="6" t="n"/>
+      <c r="P19" s="26" t="n"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1" s="42">
       <c r="A20" s="5" t="n"/>
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="J20" s="27" t="n"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="1">
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="24" t="n"/>
+      <c r="G20" s="24" t="n"/>
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="6" t="n"/>
+      <c r="J20" s="6" t="n"/>
+      <c r="K20" s="6" t="n"/>
+      <c r="L20" s="6" t="n"/>
+      <c r="M20" s="6" t="n"/>
+      <c r="N20" s="6" t="n"/>
+      <c r="O20" s="6" t="n"/>
+      <c r="P20" s="26" t="n"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1" s="42">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="J21" s="27" t="n"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="1">
+      <c r="B21" s="65" t="inlineStr">
+        <is>
+          <t>ÁREAS CALCULADAS</t>
+        </is>
+      </c>
+      <c r="F21" s="24" t="n"/>
+      <c r="G21" s="24" t="n"/>
+      <c r="H21" s="6" t="n"/>
+      <c r="I21" s="6" t="n"/>
+      <c r="J21" s="6" t="n"/>
+      <c r="K21" s="6" t="n"/>
+      <c r="L21" s="6" t="n"/>
+      <c r="M21" s="6" t="n"/>
+      <c r="N21" s="6" t="n"/>
+      <c r="O21" s="6" t="n"/>
+      <c r="P21" s="26" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="42">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="J22" s="27" t="n"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" s="1">
+      <c r="B22" s="67" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="E22" s="67" t="inlineStr">
+        <is>
+          <t>ÁREA (ha)</t>
+        </is>
+      </c>
+      <c r="F22" s="24" t="n"/>
+      <c r="G22" s="24" t="n"/>
+      <c r="H22" s="6" t="n"/>
+      <c r="I22" s="6" t="n"/>
+      <c r="J22" s="6" t="n"/>
+      <c r="K22" s="6" t="n"/>
+      <c r="L22" s="6" t="n"/>
+      <c r="M22" s="6" t="n"/>
+      <c r="N22" s="6" t="n"/>
+      <c r="O22" s="6" t="n"/>
+      <c r="P22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="42">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="J23" s="27" t="n"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" s="1">
+      <c r="B23" s="74" t="inlineStr">
+        <is>
+          <t>Layer '0' (preto)</t>
+        </is>
+      </c>
+      <c r="E23" s="70" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="F23" s="24" t="n"/>
+      <c r="G23" s="24" t="n"/>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" s="6" t="n"/>
+      <c r="J23" s="6" t="n"/>
+      <c r="K23" s="6" t="n"/>
+      <c r="L23" s="6" t="n"/>
+      <c r="M23" s="6" t="n"/>
+      <c r="N23" s="6" t="n"/>
+      <c r="O23" s="6" t="n"/>
+      <c r="P23" s="26" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="42">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="J24" s="27" t="n"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" s="1">
+      <c r="B24" s="74" t="inlineStr">
+        <is>
+          <t>Layer 'TALHÕES'</t>
+        </is>
+      </c>
+      <c r="E24" s="70" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="F24" s="24" t="n"/>
+      <c r="G24" s="24" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" s="6" t="n"/>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="6" t="n"/>
+      <c r="L24" s="6" t="n"/>
+      <c r="M24" s="6" t="n"/>
+      <c r="N24" s="6" t="n"/>
+      <c r="O24" s="6" t="n"/>
+      <c r="P24" s="26" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1" s="42">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="6" t="n"/>
-      <c r="G25" s="6" t="n"/>
+      <c r="B25" s="74" t="inlineStr">
+        <is>
+          <t>Área Carreador (calculada)</t>
+        </is>
+      </c>
+      <c r="E25" s="70" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F25" s="24" t="n"/>
+      <c r="G25" s="24" t="n"/>
       <c r="H25" s="6" t="n"/>
       <c r="I25" s="6" t="n"/>
-      <c r="J25" s="27" t="n"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" s="1">
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="6" t="n"/>
+      <c r="M25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="26" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" s="42">
       <c r="A26" s="5" t="n"/>
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="6" t="n"/>
-      <c r="G26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="24" t="n"/>
+      <c r="G26" s="24" t="n"/>
       <c r="H26" s="6" t="n"/>
       <c r="I26" s="6" t="n"/>
-      <c r="J26" s="27" t="n"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" s="1">
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="n"/>
+      <c r="L26" s="6" t="n"/>
+      <c r="M26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="26" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customHeight="1" s="42">
       <c r="A27" s="5" t="n"/>
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="24" t="n"/>
+      <c r="G27" s="24" t="n"/>
       <c r="H27" s="6" t="n"/>
       <c r="I27" s="6" t="n"/>
-      <c r="J27" s="27" t="n"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" s="1">
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="n"/>
+      <c r="M27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="6" t="n"/>
+      <c r="P27" s="26" t="n"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="19.5" customHeight="1" s="42">
       <c r="A28" s="5" t="n"/>
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="24" t="n"/>
+      <c r="G28" s="24" t="n"/>
       <c r="H28" s="6" t="n"/>
       <c r="I28" s="6" t="n"/>
-      <c r="J28" s="27" t="n"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" s="1">
-      <c r="A29" s="8" t="inlineStr">
+      <c r="J28" s="6" t="n"/>
+      <c r="K28" s="6" t="n"/>
+      <c r="L28" s="6" t="n"/>
+      <c r="M28" s="6" t="n"/>
+      <c r="N28" s="6" t="n"/>
+      <c r="O28" s="6" t="n"/>
+      <c r="P28" s="26" t="n"/>
+    </row>
+    <row r="29" ht="19.5" customHeight="1" s="42">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="24" t="n"/>
+      <c r="G29" s="24" t="n"/>
+      <c r="H29" s="6" t="n"/>
+      <c r="I29" s="6" t="n"/>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="6" t="n"/>
+      <c r="M29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="6" t="n"/>
+      <c r="P29" s="26" t="n"/>
+    </row>
+    <row r="30" ht="19.5" customHeight="1" s="42">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>APROVAÇÃO</t>
         </is>
       </c>
-      <c r="B29" s="39" t="n"/>
-      <c r="C29" s="39" t="n"/>
-      <c r="D29" s="39" t="n"/>
-      <c r="E29" s="39" t="n"/>
-      <c r="F29" s="40" t="inlineStr">
+      <c r="B30" s="54" t="n"/>
+      <c r="C30" s="54" t="n"/>
+      <c r="D30" s="54" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="54" t="n"/>
+      <c r="G30" s="54" t="n"/>
+      <c r="H30" s="75" t="inlineStr">
         <is>
           <t>INFORMAÇÕES</t>
         </is>
       </c>
-      <c r="G29" s="39" t="n"/>
-      <c r="H29" s="39" t="n"/>
-      <c r="I29" s="39" t="n"/>
-      <c r="J29" s="41" t="n"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" s="1">
-      <c r="A30" s="10" t="inlineStr">
-        <is>
-          <t>Diretor Agrícola:___________________________________________________________________________________________</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>Topografia:______________________________________________________________________</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="10" t="inlineStr">
+      <c r="I30" s="76" t="n"/>
+      <c r="J30" s="76" t="n"/>
+      <c r="K30" s="76" t="n"/>
+      <c r="L30" s="76" t="n"/>
+      <c r="M30" s="76" t="n"/>
+      <c r="N30" s="76" t="n"/>
+      <c r="O30" s="76" t="n"/>
+      <c r="P30" s="77" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="42">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>Diretor Agrícola:______________________________________________________________________</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>Topografia:____________________________________________________________________________</t>
+        </is>
+      </c>
+      <c r="F31" s="24" t="n"/>
+      <c r="G31" s="24" t="n"/>
+      <c r="H31" s="12" t="inlineStr">
         <is>
           <t>PARC OUT:</t>
         </is>
       </c>
-      <c r="G30" s="7" t="inlineStr"/>
-      <c r="H30" s="11" t="inlineStr">
+      <c r="I31" s="24" t="inlineStr"/>
+      <c r="J31" s="8" t="n"/>
+      <c r="K31" s="12" t="inlineStr">
         <is>
           <t>DATA:</t>
         </is>
       </c>
-      <c r="I30" s="33" t="n"/>
-      <c r="J30" s="37" t="n"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" s="1">
-      <c r="A31" s="10" t="inlineStr">
-        <is>
-          <t>Diretor Divisão Agrícola:________________________________________________________________________________</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>Preparo e Plantio:__________________________________________________________</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="10" t="inlineStr">
+      <c r="M31" s="78" t="n"/>
+      <c r="P31" s="79" t="n"/>
+      <c r="Q31" s="43" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1" s="42">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>Diretor Divisão Agrícola:______________________________________________________________</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="12" t="inlineStr">
+        <is>
+          <t>Preparo e Plantio:__________________________________________________________________</t>
+        </is>
+      </c>
+      <c r="F32" s="24" t="n"/>
+      <c r="G32" s="24" t="n"/>
+      <c r="H32" s="12" t="inlineStr">
         <is>
           <t>ESCALA:</t>
         </is>
       </c>
-      <c r="G31" s="7" t="inlineStr"/>
-      <c r="H31" s="12" t="inlineStr">
-        <is>
-          <t>27/05/2025</t>
-        </is>
-      </c>
-      <c r="J31" s="37" t="n"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" s="1">
-      <c r="A32" s="10" t="inlineStr">
-        <is>
-          <t>Gerente Agrícola:_________________________________________________________________________</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>Colheita e Transporte:__________________________________________________________</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="n"/>
-      <c r="E32" s="7" t="n"/>
-      <c r="F32" s="10" t="inlineStr">
+      <c r="I32" s="24" t="inlineStr"/>
+      <c r="J32" s="32" t="n"/>
+      <c r="K32" s="80" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="L32" s="81" t="n"/>
+      <c r="M32" s="43" t="n"/>
+      <c r="P32" s="79" t="n"/>
+      <c r="Q32" s="43" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="42">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Gerente Agrícola:____________________________________________________</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="8" t="n"/>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>Colheita e Transporte:______________________________________________________________________</t>
+        </is>
+      </c>
+      <c r="F33" s="24" t="n"/>
+      <c r="G33" s="24" t="n"/>
+      <c r="H33" s="12" t="inlineStr">
         <is>
           <t>DISTÂNCIA:</t>
         </is>
       </c>
-      <c r="G32" s="7" t="inlineStr"/>
-      <c r="H32" s="13" t="inlineStr">
+      <c r="I33" s="24" t="inlineStr"/>
+      <c r="J33" s="35" t="n"/>
+      <c r="K33" s="36" t="inlineStr">
         <is>
           <t>VERSÃO:</t>
         </is>
       </c>
-      <c r="J32" s="37" t="n"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" s="1">
-      <c r="A33" s="14" t="inlineStr">
-        <is>
-          <t>Ger. de Preparo e Plantio:_______________________________________________________________</t>
-        </is>
-      </c>
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="14" t="inlineStr">
-        <is>
-          <t>Irrigação - Fertirrigação:_____________________________________________________</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="M33" s="43" t="n"/>
+      <c r="P33" s="79" t="n"/>
+      <c r="Q33" s="43" t="n"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" s="42">
+      <c r="A34" s="13" t="inlineStr">
+        <is>
+          <t>Ger. de Preparo e Plantio:_______________________________________________________________________________</t>
+        </is>
+      </c>
+      <c r="B34" s="14" t="n"/>
+      <c r="C34" s="14" t="n"/>
+      <c r="D34" s="14" t="n"/>
+      <c r="E34" s="13" t="inlineStr">
+        <is>
+          <t>Irrigação - Fertirrigação:_______________________________________________________________</t>
+        </is>
+      </c>
+      <c r="F34" s="14" t="n"/>
+      <c r="G34" s="14" t="n"/>
+      <c r="H34" s="13" t="inlineStr">
         <is>
           <t>AREA CANA (ha):</t>
         </is>
       </c>
-      <c r="G33" s="15" t="inlineStr"/>
-      <c r="H33" s="16" t="inlineStr">
+      <c r="I34" s="14" t="inlineStr"/>
+      <c r="J34" s="37" t="n"/>
+      <c r="K34" s="80" t="inlineStr">
         <is>
           <t>0.1</t>
         </is>
       </c>
-      <c r="I33" s="47" t="n"/>
-      <c r="J33" s="42" t="n"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" s="1">
-      <c r="A34" s="17" t="n"/>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="L34" s="81" t="n"/>
+      <c r="M34" s="82" t="n"/>
+      <c r="N34" s="81" t="n"/>
+      <c r="O34" s="81" t="n"/>
+      <c r="P34" s="83" t="n"/>
+      <c r="Q34" s="43" t="n"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" s="42">
+      <c r="A35" s="15" t="n"/>
+      <c r="B35" s="58" t="inlineStr">
         <is>
           <t>PROPRIEDADE:</t>
         </is>
       </c>
-      <c r="C34" s="45" t="inlineStr">
+      <c r="C35" s="59" t="n"/>
+      <c r="D35" s="60" t="n"/>
+      <c r="E35" s="61" t="inlineStr">
         <is>
           <t>MUN. EST:</t>
         </is>
       </c>
-      <c r="D34" s="43" t="n"/>
-      <c r="E34" s="44" t="n"/>
-      <c r="F34" s="46" t="inlineStr">
+      <c r="F35" s="59" t="n"/>
+      <c r="G35" s="60" t="n"/>
+      <c r="H35" s="62" t="inlineStr">
         <is>
           <t>DESENHISTA:</t>
         </is>
       </c>
-      <c r="G34" s="43" t="n"/>
-      <c r="H34" s="43" t="n"/>
-      <c r="I34" s="43" t="n"/>
-      <c r="J34" s="44" t="n"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" s="1">
-      <c r="A35" s="23" t="n"/>
-      <c r="B35" s="14" t="inlineStr">
+      <c r="I35" s="59" t="n"/>
+      <c r="J35" s="59" t="n"/>
+      <c r="K35" s="59" t="n"/>
+      <c r="L35" s="59" t="n"/>
+      <c r="M35" s="59" t="n"/>
+      <c r="N35" s="59" t="n"/>
+      <c r="O35" s="59" t="n"/>
+      <c r="P35" s="60" t="n"/>
+    </row>
+    <row r="36" ht="22" customHeight="1" s="42">
+      <c r="A36" s="20" t="n"/>
+      <c r="B36" s="13" t="inlineStr">
         <is>
           <t>916789</t>
         </is>
       </c>
-      <c r="C35" s="14" t="inlineStr"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="24" t="n"/>
-      <c r="F35" s="58" t="inlineStr"/>
-      <c r="G35" s="47" t="n"/>
-      <c r="H35" s="47" t="n"/>
-      <c r="I35" s="47" t="n"/>
-      <c r="J35" s="42" t="n"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" s="1"/>
-    <row r="37" ht="15.75" customHeight="1" s="1"/>
-    <row r="38" ht="15.75" customHeight="1" s="1"/>
-    <row r="39" ht="15.75" customHeight="1" s="1"/>
-    <row r="40" ht="15.75" customHeight="1" s="1"/>
-    <row r="200" ht="15.75" customHeight="1" s="1"/>
-    <row r="201" ht="15.75" customHeight="1" s="1"/>
-    <row r="202" ht="15.75" customHeight="1" s="1"/>
-    <row r="203" ht="15.75" customHeight="1" s="1"/>
-    <row r="204" ht="15.75" customHeight="1" s="1"/>
-    <row r="205" ht="15.75" customHeight="1" s="1"/>
-    <row r="206" ht="15.75" customHeight="1" s="1"/>
-    <row r="207" ht="15.75" customHeight="1" s="1"/>
-    <row r="208" ht="15.75" customHeight="1" s="1"/>
-    <row r="209" ht="15.75" customHeight="1" s="1"/>
-    <row r="210" ht="15.75" customHeight="1" s="1"/>
-    <row r="211" ht="15.75" customHeight="1" s="1"/>
-    <row r="212" ht="15.75" customHeight="1" s="1"/>
-    <row r="213" ht="15.75" customHeight="1" s="1"/>
-    <row r="214" ht="15.75" customHeight="1" s="1"/>
-    <row r="215" ht="15.75" customHeight="1" s="1"/>
-    <row r="216" ht="15.75" customHeight="1" s="1"/>
-    <row r="217" ht="15.75" customHeight="1" s="1"/>
-    <row r="218" ht="15.75" customHeight="1" s="1"/>
-    <row r="219" ht="15.75" customHeight="1" s="1"/>
-    <row r="220" ht="15.75" customHeight="1" s="1"/>
-    <row r="221" ht="15.75" customHeight="1" s="1"/>
-    <row r="222" ht="15.75" customHeight="1" s="1"/>
-    <row r="223" ht="15.75" customHeight="1" s="1"/>
-    <row r="224" ht="15.75" customHeight="1" s="1"/>
-    <row r="225" ht="15.75" customHeight="1" s="1"/>
-    <row r="226" ht="15.75" customHeight="1" s="1"/>
-    <row r="227" ht="15.75" customHeight="1" s="1"/>
-    <row r="228" ht="15.75" customHeight="1" s="1"/>
-    <row r="229" ht="15.75" customHeight="1" s="1"/>
-    <row r="230" ht="15.75" customHeight="1" s="1"/>
-    <row r="231" ht="15.75" customHeight="1" s="1"/>
-    <row r="232" ht="15.75" customHeight="1" s="1"/>
-    <row r="233" ht="15.75" customHeight="1" s="1"/>
-    <row r="234" ht="15.75" customHeight="1" s="1"/>
-    <row r="235" ht="15.75" customHeight="1" s="1"/>
-    <row r="236" ht="15.75" customHeight="1" s="1"/>
-    <row r="237" ht="15.75" customHeight="1" s="1"/>
-    <row r="238" ht="15.75" customHeight="1" s="1"/>
-    <row r="239" ht="15.75" customHeight="1" s="1"/>
-    <row r="240" ht="15.75" customHeight="1" s="1"/>
-    <row r="241" ht="15.75" customHeight="1" s="1"/>
-    <row r="242" ht="15.75" customHeight="1" s="1"/>
-    <row r="243" ht="15.75" customHeight="1" s="1"/>
-    <row r="244" ht="15.75" customHeight="1" s="1"/>
-    <row r="245" ht="15.75" customHeight="1" s="1"/>
-    <row r="246" ht="15.75" customHeight="1" s="1"/>
-    <row r="247" ht="15.75" customHeight="1" s="1"/>
-    <row r="248" ht="15.75" customHeight="1" s="1"/>
-    <row r="249" ht="15.75" customHeight="1" s="1"/>
-    <row r="250" ht="15.75" customHeight="1" s="1"/>
-    <row r="251" ht="15.75" customHeight="1" s="1"/>
-    <row r="252" ht="15.75" customHeight="1" s="1"/>
-    <row r="253" ht="15.75" customHeight="1" s="1"/>
-    <row r="254" ht="15.75" customHeight="1" s="1"/>
-    <row r="255" ht="15.75" customHeight="1" s="1"/>
-    <row r="256" ht="15.75" customHeight="1" s="1"/>
-    <row r="257" ht="15.75" customHeight="1" s="1"/>
-    <row r="258" ht="15.75" customHeight="1" s="1"/>
-    <row r="259" ht="15.75" customHeight="1" s="1"/>
-    <row r="260" ht="15.75" customHeight="1" s="1"/>
-    <row r="261" ht="15.75" customHeight="1" s="1"/>
-    <row r="262" ht="15.75" customHeight="1" s="1"/>
-    <row r="263" ht="15.75" customHeight="1" s="1"/>
-    <row r="264" ht="15.75" customHeight="1" s="1"/>
-    <row r="265" ht="15.75" customHeight="1" s="1"/>
-    <row r="266" ht="15.75" customHeight="1" s="1"/>
-    <row r="267" ht="15.75" customHeight="1" s="1"/>
-    <row r="268" ht="15.75" customHeight="1" s="1"/>
-    <row r="269" ht="15.75" customHeight="1" s="1"/>
-    <row r="270" ht="15.75" customHeight="1" s="1"/>
-    <row r="271" ht="15.75" customHeight="1" s="1"/>
-    <row r="272" ht="15.75" customHeight="1" s="1"/>
-    <row r="273" ht="15.75" customHeight="1" s="1"/>
-    <row r="274" ht="15.75" customHeight="1" s="1"/>
-    <row r="275" ht="15.75" customHeight="1" s="1"/>
-    <row r="276" ht="15.75" customHeight="1" s="1"/>
-    <row r="277" ht="15.75" customHeight="1" s="1"/>
-    <row r="278" ht="15.75" customHeight="1" s="1"/>
-    <row r="279" ht="15.75" customHeight="1" s="1"/>
-    <row r="280" ht="15.75" customHeight="1" s="1"/>
-    <row r="281" ht="15.75" customHeight="1" s="1"/>
-    <row r="282" ht="15.75" customHeight="1" s="1"/>
-    <row r="283" ht="15.75" customHeight="1" s="1"/>
-    <row r="284" ht="15.75" customHeight="1" s="1"/>
-    <row r="285" ht="15.75" customHeight="1" s="1"/>
-    <row r="286" ht="15.75" customHeight="1" s="1"/>
-    <row r="287" ht="15.75" customHeight="1" s="1"/>
-    <row r="288" ht="15.75" customHeight="1" s="1"/>
-    <row r="289" ht="15.75" customHeight="1" s="1"/>
-    <row r="290" ht="15.75" customHeight="1" s="1"/>
-    <row r="291" ht="15.75" customHeight="1" s="1"/>
-    <row r="292" ht="15.75" customHeight="1" s="1"/>
-    <row r="293" ht="15.75" customHeight="1" s="1"/>
-    <row r="294" ht="15.75" customHeight="1" s="1"/>
-    <row r="295" ht="15.75" customHeight="1" s="1"/>
-    <row r="296" ht="15.75" customHeight="1" s="1"/>
-    <row r="297" ht="15.75" customHeight="1" s="1"/>
-    <row r="298" ht="15.75" customHeight="1" s="1"/>
-    <row r="299" ht="15.75" customHeight="1" s="1"/>
-    <row r="300" ht="15.75" customHeight="1" s="1"/>
-    <row r="301" ht="15.75" customHeight="1" s="1"/>
-    <row r="302" ht="15.75" customHeight="1" s="1"/>
-    <row r="303" ht="15.75" customHeight="1" s="1"/>
-    <row r="304" ht="15.75" customHeight="1" s="1"/>
-    <row r="305" ht="15.75" customHeight="1" s="1"/>
-    <row r="306" ht="15.75" customHeight="1" s="1"/>
-    <row r="307" ht="15.75" customHeight="1" s="1"/>
-    <row r="308" ht="15.75" customHeight="1" s="1"/>
-    <row r="309" ht="15.75" customHeight="1" s="1"/>
-    <row r="310" ht="15.75" customHeight="1" s="1"/>
-    <row r="311" ht="15.75" customHeight="1" s="1"/>
-    <row r="312" ht="15.75" customHeight="1" s="1"/>
-    <row r="313" ht="15.75" customHeight="1" s="1"/>
-    <row r="314" ht="15.75" customHeight="1" s="1"/>
-    <row r="315" ht="15.75" customHeight="1" s="1"/>
-    <row r="316" ht="15.75" customHeight="1" s="1"/>
-    <row r="317" ht="15.75" customHeight="1" s="1"/>
-    <row r="318" ht="15.75" customHeight="1" s="1"/>
-    <row r="319" ht="15.75" customHeight="1" s="1"/>
-    <row r="320" ht="15.75" customHeight="1" s="1"/>
-    <row r="321" ht="15.75" customHeight="1" s="1"/>
-    <row r="322" ht="15.75" customHeight="1" s="1"/>
-    <row r="323" ht="15.75" customHeight="1" s="1"/>
-    <row r="324" ht="15.75" customHeight="1" s="1"/>
-    <row r="325" ht="15.75" customHeight="1" s="1"/>
-    <row r="326" ht="15.75" customHeight="1" s="1"/>
-    <row r="327" ht="15.75" customHeight="1" s="1"/>
-    <row r="328" ht="15.75" customHeight="1" s="1"/>
-    <row r="329" ht="15.75" customHeight="1" s="1"/>
-    <row r="330" ht="15.75" customHeight="1" s="1"/>
-    <row r="331" ht="15.75" customHeight="1" s="1"/>
-    <row r="332" ht="15.75" customHeight="1" s="1"/>
-    <row r="333" ht="15.75" customHeight="1" s="1"/>
-    <row r="334" ht="15.75" customHeight="1" s="1"/>
-    <row r="335" ht="15.75" customHeight="1" s="1"/>
-    <row r="336" ht="15.75" customHeight="1" s="1"/>
-    <row r="337" ht="15.75" customHeight="1" s="1"/>
-    <row r="338" ht="15.75" customHeight="1" s="1"/>
-    <row r="339" ht="15.75" customHeight="1" s="1"/>
-    <row r="340" ht="15.75" customHeight="1" s="1"/>
-    <row r="341" ht="15.75" customHeight="1" s="1"/>
-    <row r="342" ht="15.75" customHeight="1" s="1"/>
-    <row r="343" ht="15.75" customHeight="1" s="1"/>
-    <row r="344" ht="15.75" customHeight="1" s="1"/>
-    <row r="345" ht="15.75" customHeight="1" s="1"/>
-    <row r="346" ht="15.75" customHeight="1" s="1"/>
-    <row r="347" ht="15.75" customHeight="1" s="1"/>
-    <row r="348" ht="15.75" customHeight="1" s="1"/>
-    <row r="349" ht="15.75" customHeight="1" s="1"/>
-    <row r="350" ht="15.75" customHeight="1" s="1"/>
-    <row r="351" ht="15.75" customHeight="1" s="1"/>
-    <row r="352" ht="15.75" customHeight="1" s="1"/>
-    <row r="353" ht="15.75" customHeight="1" s="1"/>
-    <row r="354" ht="15.75" customHeight="1" s="1"/>
-    <row r="355" ht="15.75" customHeight="1" s="1"/>
-    <row r="356" ht="15.75" customHeight="1" s="1"/>
-    <row r="357" ht="15.75" customHeight="1" s="1"/>
-    <row r="358" ht="15.75" customHeight="1" s="1"/>
-    <row r="359" ht="15.75" customHeight="1" s="1"/>
-    <row r="360" ht="15.75" customHeight="1" s="1"/>
-    <row r="361" ht="15.75" customHeight="1" s="1"/>
-    <row r="362" ht="15.75" customHeight="1" s="1"/>
-    <row r="363" ht="15.75" customHeight="1" s="1"/>
-    <row r="364" ht="15.75" customHeight="1" s="1"/>
-    <row r="365" ht="15.75" customHeight="1" s="1"/>
-    <row r="366" ht="15.75" customHeight="1" s="1"/>
-    <row r="367" ht="15.75" customHeight="1" s="1"/>
-    <row r="368" ht="15.75" customHeight="1" s="1"/>
-    <row r="369" ht="15.75" customHeight="1" s="1"/>
-    <row r="370" ht="15.75" customHeight="1" s="1"/>
-    <row r="371" ht="15.75" customHeight="1" s="1"/>
-    <row r="372" ht="15.75" customHeight="1" s="1"/>
-    <row r="373" ht="15.75" customHeight="1" s="1"/>
-    <row r="374" ht="15.75" customHeight="1" s="1"/>
-    <row r="375" ht="15.75" customHeight="1" s="1"/>
-    <row r="376" ht="15.75" customHeight="1" s="1"/>
-    <row r="377" ht="15.75" customHeight="1" s="1"/>
-    <row r="378" ht="15.75" customHeight="1" s="1"/>
-    <row r="379" ht="15.75" customHeight="1" s="1"/>
-    <row r="380" ht="15.75" customHeight="1" s="1"/>
-    <row r="381" ht="15.75" customHeight="1" s="1"/>
-    <row r="382" ht="15.75" customHeight="1" s="1"/>
-    <row r="383" ht="15.75" customHeight="1" s="1"/>
-    <row r="384" ht="15.75" customHeight="1" s="1"/>
-    <row r="385" ht="15.75" customHeight="1" s="1"/>
-    <row r="386" ht="15.75" customHeight="1" s="1"/>
-    <row r="387" ht="15.75" customHeight="1" s="1"/>
-    <row r="388" ht="15.75" customHeight="1" s="1"/>
-    <row r="389" ht="15.75" customHeight="1" s="1"/>
-    <row r="390" ht="15.75" customHeight="1" s="1"/>
-    <row r="391" ht="15.75" customHeight="1" s="1"/>
-    <row r="392" ht="15.75" customHeight="1" s="1"/>
-    <row r="393" ht="15.75" customHeight="1" s="1"/>
-    <row r="394" ht="15.75" customHeight="1" s="1"/>
-    <row r="395" ht="15.75" customHeight="1" s="1"/>
-    <row r="396" ht="15.75" customHeight="1" s="1"/>
-    <row r="397" ht="15.75" customHeight="1" s="1"/>
-    <row r="398" ht="15.75" customHeight="1" s="1"/>
-    <row r="399" ht="15.75" customHeight="1" s="1"/>
-    <row r="400" ht="15.75" customHeight="1" s="1"/>
-    <row r="401" ht="15.75" customHeight="1" s="1"/>
-    <row r="402" ht="15.75" customHeight="1" s="1"/>
-    <row r="403" ht="15.75" customHeight="1" s="1"/>
-    <row r="404" ht="15.75" customHeight="1" s="1"/>
-    <row r="405" ht="15.75" customHeight="1" s="1"/>
-    <row r="406" ht="15.75" customHeight="1" s="1"/>
-    <row r="407" ht="15.75" customHeight="1" s="1"/>
-    <row r="408" ht="15.75" customHeight="1" s="1"/>
-    <row r="409" ht="15.75" customHeight="1" s="1"/>
-    <row r="410" ht="15.75" customHeight="1" s="1"/>
-    <row r="411" ht="15.75" customHeight="1" s="1"/>
-    <row r="412" ht="15.75" customHeight="1" s="1"/>
-    <row r="413" ht="15.75" customHeight="1" s="1"/>
-    <row r="414" ht="15.75" customHeight="1" s="1"/>
-    <row r="415" ht="15.75" customHeight="1" s="1"/>
-    <row r="416" ht="15.75" customHeight="1" s="1"/>
-    <row r="417" ht="15.75" customHeight="1" s="1"/>
-    <row r="418" ht="15.75" customHeight="1" s="1"/>
-    <row r="419" ht="15.75" customHeight="1" s="1"/>
-    <row r="420" ht="15.75" customHeight="1" s="1"/>
-    <row r="421" ht="15.75" customHeight="1" s="1"/>
-    <row r="422" ht="15.75" customHeight="1" s="1"/>
-    <row r="423" ht="15.75" customHeight="1" s="1"/>
-    <row r="424" ht="15.75" customHeight="1" s="1"/>
-    <row r="425" ht="15.75" customHeight="1" s="1"/>
-    <row r="426" ht="15.75" customHeight="1" s="1"/>
-    <row r="427" ht="15.75" customHeight="1" s="1"/>
-    <row r="428" ht="15.75" customHeight="1" s="1"/>
-    <row r="429" ht="15.75" customHeight="1" s="1"/>
-    <row r="430" ht="15.75" customHeight="1" s="1"/>
-    <row r="431" ht="15.75" customHeight="1" s="1"/>
-    <row r="432" ht="15.75" customHeight="1" s="1"/>
-    <row r="433" ht="15.75" customHeight="1" s="1"/>
-    <row r="434" ht="15.75" customHeight="1" s="1"/>
-    <row r="435" ht="15.75" customHeight="1" s="1"/>
-    <row r="436" ht="15.75" customHeight="1" s="1"/>
-    <row r="437" ht="15.75" customHeight="1" s="1"/>
-    <row r="438" ht="15.75" customHeight="1" s="1"/>
-    <row r="439" ht="15.75" customHeight="1" s="1"/>
-    <row r="440" ht="15.75" customHeight="1" s="1"/>
-    <row r="441" ht="15.75" customHeight="1" s="1"/>
-    <row r="442" ht="15.75" customHeight="1" s="1"/>
-    <row r="443" ht="15.75" customHeight="1" s="1"/>
-    <row r="444" ht="15.75" customHeight="1" s="1"/>
-    <row r="445" ht="15.75" customHeight="1" s="1"/>
-    <row r="446" ht="15.75" customHeight="1" s="1"/>
-    <row r="447" ht="15.75" customHeight="1" s="1"/>
-    <row r="448" ht="15.75" customHeight="1" s="1"/>
-    <row r="449" ht="15.75" customHeight="1" s="1"/>
-    <row r="450" ht="15.75" customHeight="1" s="1"/>
-    <row r="451" ht="15.75" customHeight="1" s="1"/>
-    <row r="452" ht="15.75" customHeight="1" s="1"/>
-    <row r="453" ht="15.75" customHeight="1" s="1"/>
-    <row r="454" ht="15.75" customHeight="1" s="1"/>
-    <row r="455" ht="15.75" customHeight="1" s="1"/>
-    <row r="456" ht="15.75" customHeight="1" s="1"/>
-    <row r="457" ht="15.75" customHeight="1" s="1"/>
-    <row r="458" ht="15.75" customHeight="1" s="1"/>
-    <row r="459" ht="15.75" customHeight="1" s="1"/>
-    <row r="460" ht="15.75" customHeight="1" s="1"/>
-    <row r="461" ht="15.75" customHeight="1" s="1"/>
-    <row r="462" ht="15.75" customHeight="1" s="1"/>
-    <row r="463" ht="15.75" customHeight="1" s="1"/>
-    <row r="464" ht="15.75" customHeight="1" s="1"/>
-    <row r="465" ht="15.75" customHeight="1" s="1"/>
-    <row r="466" ht="15.75" customHeight="1" s="1"/>
-    <row r="467" ht="15.75" customHeight="1" s="1"/>
-    <row r="468" ht="15.75" customHeight="1" s="1"/>
-    <row r="469" ht="15.75" customHeight="1" s="1"/>
-    <row r="470" ht="15.75" customHeight="1" s="1"/>
-    <row r="471" ht="15.75" customHeight="1" s="1"/>
-    <row r="472" ht="15.75" customHeight="1" s="1"/>
-    <row r="473" ht="15.75" customHeight="1" s="1"/>
-    <row r="474" ht="15.75" customHeight="1" s="1"/>
-    <row r="475" ht="15.75" customHeight="1" s="1"/>
-    <row r="476" ht="15.75" customHeight="1" s="1"/>
-    <row r="477" ht="15.75" customHeight="1" s="1"/>
-    <row r="478" ht="15.75" customHeight="1" s="1"/>
-    <row r="479" ht="15.75" customHeight="1" s="1"/>
-    <row r="480" ht="15.75" customHeight="1" s="1"/>
-    <row r="481" ht="15.75" customHeight="1" s="1"/>
-    <row r="482" ht="15.75" customHeight="1" s="1"/>
-    <row r="483" ht="15.75" customHeight="1" s="1"/>
-    <row r="484" ht="15.75" customHeight="1" s="1"/>
-    <row r="485" ht="15.75" customHeight="1" s="1"/>
-    <row r="486" ht="15.75" customHeight="1" s="1"/>
-    <row r="487" ht="15.75" customHeight="1" s="1"/>
-    <row r="488" ht="15.75" customHeight="1" s="1"/>
-    <row r="489" ht="15.75" customHeight="1" s="1"/>
-    <row r="490" ht="15.75" customHeight="1" s="1"/>
-    <row r="491" ht="15.75" customHeight="1" s="1"/>
-    <row r="492" ht="15.75" customHeight="1" s="1"/>
-    <row r="493" ht="15.75" customHeight="1" s="1"/>
-    <row r="494" ht="15.75" customHeight="1" s="1"/>
-    <row r="495" ht="15.75" customHeight="1" s="1"/>
-    <row r="496" ht="15.75" customHeight="1" s="1"/>
-    <row r="497" ht="15.75" customHeight="1" s="1"/>
-    <row r="498" ht="15.75" customHeight="1" s="1"/>
-    <row r="499" ht="15.75" customHeight="1" s="1"/>
-    <row r="500" ht="15.75" customHeight="1" s="1"/>
-    <row r="501" ht="15.75" customHeight="1" s="1"/>
-    <row r="502" ht="15.75" customHeight="1" s="1"/>
-    <row r="503" ht="15.75" customHeight="1" s="1"/>
-    <row r="504" ht="15.75" customHeight="1" s="1"/>
-    <row r="505" ht="15.75" customHeight="1" s="1"/>
-    <row r="506" ht="15.75" customHeight="1" s="1"/>
-    <row r="507" ht="15.75" customHeight="1" s="1"/>
-    <row r="508" ht="15.75" customHeight="1" s="1"/>
-    <row r="509" ht="15.75" customHeight="1" s="1"/>
-    <row r="510" ht="15.75" customHeight="1" s="1"/>
-    <row r="511" ht="15.75" customHeight="1" s="1"/>
-    <row r="512" ht="15.75" customHeight="1" s="1"/>
-    <row r="513" ht="15.75" customHeight="1" s="1"/>
-    <row r="514" ht="15.75" customHeight="1" s="1"/>
-    <row r="515" ht="15.75" customHeight="1" s="1"/>
-    <row r="516" ht="15.75" customHeight="1" s="1"/>
-    <row r="517" ht="15.75" customHeight="1" s="1"/>
-    <row r="518" ht="15.75" customHeight="1" s="1"/>
-    <row r="519" ht="15.75" customHeight="1" s="1"/>
-    <row r="520" ht="15.75" customHeight="1" s="1"/>
-    <row r="521" ht="15.75" customHeight="1" s="1"/>
-    <row r="522" ht="15.75" customHeight="1" s="1"/>
-    <row r="523" ht="15.75" customHeight="1" s="1"/>
-    <row r="524" ht="15.75" customHeight="1" s="1"/>
-    <row r="525" ht="15.75" customHeight="1" s="1"/>
-    <row r="526" ht="15.75" customHeight="1" s="1"/>
-    <row r="527" ht="15.75" customHeight="1" s="1"/>
-    <row r="528" ht="15.75" customHeight="1" s="1"/>
-    <row r="529" ht="15.75" customHeight="1" s="1"/>
-    <row r="530" ht="15.75" customHeight="1" s="1"/>
-    <row r="531" ht="15.75" customHeight="1" s="1"/>
-    <row r="532" ht="15.75" customHeight="1" s="1"/>
-    <row r="533" ht="15.75" customHeight="1" s="1"/>
-    <row r="534" ht="15.75" customHeight="1" s="1"/>
-    <row r="535" ht="15.75" customHeight="1" s="1"/>
-    <row r="536" ht="15.75" customHeight="1" s="1"/>
-    <row r="537" ht="15.75" customHeight="1" s="1"/>
-    <row r="538" ht="15.75" customHeight="1" s="1"/>
-    <row r="539" ht="15.75" customHeight="1" s="1"/>
-    <row r="540" ht="15.75" customHeight="1" s="1"/>
-    <row r="541" ht="15.75" customHeight="1" s="1"/>
-    <row r="542" ht="15.75" customHeight="1" s="1"/>
-    <row r="543" ht="15.75" customHeight="1" s="1"/>
-    <row r="544" ht="15.75" customHeight="1" s="1"/>
-    <row r="545" ht="15.75" customHeight="1" s="1"/>
-    <row r="546" ht="15.75" customHeight="1" s="1"/>
-    <row r="547" ht="15.75" customHeight="1" s="1"/>
-    <row r="548" ht="15.75" customHeight="1" s="1"/>
-    <row r="549" ht="15.75" customHeight="1" s="1"/>
-    <row r="550" ht="15.75" customHeight="1" s="1"/>
-    <row r="551" ht="15.75" customHeight="1" s="1"/>
-    <row r="552" ht="15.75" customHeight="1" s="1"/>
-    <row r="553" ht="15.75" customHeight="1" s="1"/>
-    <row r="554" ht="15.75" customHeight="1" s="1"/>
-    <row r="555" ht="15.75" customHeight="1" s="1"/>
-    <row r="556" ht="15.75" customHeight="1" s="1"/>
-    <row r="557" ht="15.75" customHeight="1" s="1"/>
-    <row r="558" ht="15.75" customHeight="1" s="1"/>
-    <row r="559" ht="15.75" customHeight="1" s="1"/>
-    <row r="560" ht="15.75" customHeight="1" s="1"/>
-    <row r="561" ht="15.75" customHeight="1" s="1"/>
-    <row r="562" ht="15.75" customHeight="1" s="1"/>
-    <row r="563" ht="15.75" customHeight="1" s="1"/>
-    <row r="564" ht="15.75" customHeight="1" s="1"/>
-    <row r="565" ht="15.75" customHeight="1" s="1"/>
-    <row r="566" ht="15.75" customHeight="1" s="1"/>
-    <row r="567" ht="15.75" customHeight="1" s="1"/>
-    <row r="568" ht="15.75" customHeight="1" s="1"/>
-    <row r="569" ht="15.75" customHeight="1" s="1"/>
-    <row r="570" ht="15.75" customHeight="1" s="1"/>
-    <row r="571" ht="15.75" customHeight="1" s="1"/>
-    <row r="572" ht="15.75" customHeight="1" s="1"/>
-    <row r="573" ht="15.75" customHeight="1" s="1"/>
-    <row r="574" ht="15.75" customHeight="1" s="1"/>
-    <row r="575" ht="15.75" customHeight="1" s="1"/>
-    <row r="576" ht="15.75" customHeight="1" s="1"/>
-    <row r="577" ht="15.75" customHeight="1" s="1"/>
-    <row r="578" ht="15.75" customHeight="1" s="1"/>
-    <row r="579" ht="15.75" customHeight="1" s="1"/>
-    <row r="580" ht="15.75" customHeight="1" s="1"/>
-    <row r="581" ht="15.75" customHeight="1" s="1"/>
-    <row r="582" ht="15.75" customHeight="1" s="1"/>
-    <row r="583" ht="15.75" customHeight="1" s="1"/>
-    <row r="584" ht="15.75" customHeight="1" s="1"/>
-    <row r="585" ht="15.75" customHeight="1" s="1"/>
-    <row r="586" ht="15.75" customHeight="1" s="1"/>
-    <row r="587" ht="15.75" customHeight="1" s="1"/>
-    <row r="588" ht="15.75" customHeight="1" s="1"/>
-    <row r="589" ht="15.75" customHeight="1" s="1"/>
-    <row r="590" ht="15.75" customHeight="1" s="1"/>
-    <row r="591" ht="15.75" customHeight="1" s="1"/>
-    <row r="592" ht="15.75" customHeight="1" s="1"/>
-    <row r="593" ht="15.75" customHeight="1" s="1"/>
-    <row r="594" ht="15.75" customHeight="1" s="1"/>
-    <row r="595" ht="15.75" customHeight="1" s="1"/>
-    <row r="596" ht="15.75" customHeight="1" s="1"/>
-    <row r="597" ht="15.75" customHeight="1" s="1"/>
-    <row r="598" ht="15.75" customHeight="1" s="1"/>
-    <row r="599" ht="15.75" customHeight="1" s="1"/>
-    <row r="600" ht="15.75" customHeight="1" s="1"/>
-    <row r="601" ht="15.75" customHeight="1" s="1"/>
-    <row r="602" ht="15.75" customHeight="1" s="1"/>
-    <row r="603" ht="15.75" customHeight="1" s="1"/>
-    <row r="604" ht="15.75" customHeight="1" s="1"/>
-    <row r="605" ht="15.75" customHeight="1" s="1"/>
-    <row r="606" ht="15.75" customHeight="1" s="1"/>
-    <row r="607" ht="15.75" customHeight="1" s="1"/>
-    <row r="608" ht="15.75" customHeight="1" s="1"/>
-    <row r="609" ht="15.75" customHeight="1" s="1"/>
-    <row r="610" ht="15.75" customHeight="1" s="1"/>
-    <row r="611" ht="15.75" customHeight="1" s="1"/>
-    <row r="612" ht="15.75" customHeight="1" s="1"/>
-    <row r="613" ht="15.75" customHeight="1" s="1"/>
-    <row r="614" ht="15.75" customHeight="1" s="1"/>
-    <row r="615" ht="15.75" customHeight="1" s="1"/>
-    <row r="616" ht="15.75" customHeight="1" s="1"/>
-    <row r="617" ht="15.75" customHeight="1" s="1"/>
-    <row r="618" ht="15.75" customHeight="1" s="1"/>
-    <row r="619" ht="15.75" customHeight="1" s="1"/>
-    <row r="620" ht="15.75" customHeight="1" s="1"/>
-    <row r="621" ht="15.75" customHeight="1" s="1"/>
-    <row r="622" ht="15.75" customHeight="1" s="1"/>
-    <row r="623" ht="15.75" customHeight="1" s="1"/>
-    <row r="624" ht="15.75" customHeight="1" s="1"/>
-    <row r="625" ht="15.75" customHeight="1" s="1"/>
-    <row r="626" ht="15.75" customHeight="1" s="1"/>
-    <row r="627" ht="15.75" customHeight="1" s="1"/>
-    <row r="628" ht="15.75" customHeight="1" s="1"/>
-    <row r="629" ht="15.75" customHeight="1" s="1"/>
-    <row r="630" ht="15.75" customHeight="1" s="1"/>
-    <row r="631" ht="15.75" customHeight="1" s="1"/>
-    <row r="632" ht="15.75" customHeight="1" s="1"/>
-    <row r="633" ht="15.75" customHeight="1" s="1"/>
-    <row r="634" ht="15.75" customHeight="1" s="1"/>
-    <row r="635" ht="15.75" customHeight="1" s="1"/>
-    <row r="636" ht="15.75" customHeight="1" s="1"/>
-    <row r="637" ht="15.75" customHeight="1" s="1"/>
-    <row r="638" ht="15.75" customHeight="1" s="1"/>
-    <row r="639" ht="15.75" customHeight="1" s="1"/>
-    <row r="640" ht="15.75" customHeight="1" s="1"/>
-    <row r="641" ht="15.75" customHeight="1" s="1"/>
-    <row r="642" ht="15.75" customHeight="1" s="1"/>
-    <row r="643" ht="15.75" customHeight="1" s="1"/>
-    <row r="644" ht="15.75" customHeight="1" s="1"/>
-    <row r="645" ht="15.75" customHeight="1" s="1"/>
-    <row r="646" ht="15.75" customHeight="1" s="1"/>
-    <row r="647" ht="15.75" customHeight="1" s="1"/>
-    <row r="648" ht="15.75" customHeight="1" s="1"/>
-    <row r="649" ht="15.75" customHeight="1" s="1"/>
-    <row r="650" ht="15.75" customHeight="1" s="1"/>
-    <row r="651" ht="15.75" customHeight="1" s="1"/>
-    <row r="652" ht="15.75" customHeight="1" s="1"/>
-    <row r="653" ht="15.75" customHeight="1" s="1"/>
-    <row r="654" ht="15.75" customHeight="1" s="1"/>
-    <row r="655" ht="15.75" customHeight="1" s="1"/>
-    <row r="656" ht="15.75" customHeight="1" s="1"/>
-    <row r="657" ht="15.75" customHeight="1" s="1"/>
-    <row r="658" ht="15.75" customHeight="1" s="1"/>
-    <row r="659" ht="15.75" customHeight="1" s="1"/>
-    <row r="660" ht="15.75" customHeight="1" s="1"/>
-    <row r="661" ht="15.75" customHeight="1" s="1"/>
-    <row r="662" ht="15.75" customHeight="1" s="1"/>
-    <row r="663" ht="15.75" customHeight="1" s="1"/>
-    <row r="664" ht="15.75" customHeight="1" s="1"/>
-    <row r="665" ht="15.75" customHeight="1" s="1"/>
-    <row r="666" ht="15.75" customHeight="1" s="1"/>
-    <row r="667" ht="15.75" customHeight="1" s="1"/>
-    <row r="668" ht="15.75" customHeight="1" s="1"/>
-    <row r="669" ht="15.75" customHeight="1" s="1"/>
-    <row r="670" ht="15.75" customHeight="1" s="1"/>
-    <row r="671" ht="15.75" customHeight="1" s="1"/>
-    <row r="672" ht="15.75" customHeight="1" s="1"/>
-    <row r="673" ht="15.75" customHeight="1" s="1"/>
-    <row r="674" ht="15.75" customHeight="1" s="1"/>
-    <row r="675" ht="15.75" customHeight="1" s="1"/>
-    <row r="676" ht="15.75" customHeight="1" s="1"/>
-    <row r="677" ht="15.75" customHeight="1" s="1"/>
-    <row r="678" ht="15.75" customHeight="1" s="1"/>
-    <row r="679" ht="15.75" customHeight="1" s="1"/>
-    <row r="680" ht="15.75" customHeight="1" s="1"/>
-    <row r="681" ht="15.75" customHeight="1" s="1"/>
-    <row r="682" ht="15.75" customHeight="1" s="1"/>
-    <row r="683" ht="15.75" customHeight="1" s="1"/>
-    <row r="684" ht="15.75" customHeight="1" s="1"/>
-    <row r="685" ht="15.75" customHeight="1" s="1"/>
-    <row r="686" ht="15.75" customHeight="1" s="1"/>
-    <row r="687" ht="15.75" customHeight="1" s="1"/>
+      <c r="C36" s="14" t="n"/>
+      <c r="D36" s="21" t="n"/>
+      <c r="E36" s="13" t="inlineStr"/>
+      <c r="F36" s="14" t="n"/>
+      <c r="G36" s="21" t="n"/>
+      <c r="H36" s="22" t="inlineStr"/>
+      <c r="I36" s="63" t="n"/>
+      <c r="J36" s="14" t="n"/>
+      <c r="K36" s="14" t="n"/>
+      <c r="L36" s="14" t="n"/>
+      <c r="M36" s="14" t="n"/>
+      <c r="N36" s="14" t="n"/>
+      <c r="O36" s="14" t="n"/>
+      <c r="P36" s="21" t="n"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" s="42"/>
+    <row r="38" ht="15.75" customHeight="1" s="42"/>
+    <row r="39" ht="15.75" customHeight="1" s="42"/>
+    <row r="40" ht="15.75" customHeight="1" s="42"/>
+    <row r="41" ht="15.75" customHeight="1" s="42"/>
+    <row r="42" ht="15.75" customHeight="1" s="42"/>
+    <row r="43" ht="15.75" customHeight="1" s="42"/>
+    <row r="44" ht="15.75" customHeight="1" s="42"/>
+    <row r="45" ht="15.75" customHeight="1" s="42"/>
+    <row r="46" ht="15.75" customHeight="1" s="42"/>
+    <row r="47" ht="15.75" customHeight="1" s="42"/>
+    <row r="48" ht="15.75" customHeight="1" s="42"/>
+    <row r="49" ht="15.75" customHeight="1" s="42"/>
+    <row r="50" ht="15.75" customHeight="1" s="42"/>
+    <row r="51" ht="15.75" customHeight="1" s="42"/>
+    <row r="52" ht="15.75" customHeight="1" s="42"/>
+    <row r="53" ht="15.75" customHeight="1" s="42"/>
+    <row r="54" ht="15.75" customHeight="1" s="42"/>
+    <row r="55" ht="15.75" customHeight="1" s="42"/>
+    <row r="56" ht="15.75" customHeight="1" s="42"/>
+    <row r="57" ht="15.75" customHeight="1" s="42"/>
+    <row r="58" ht="15.75" customHeight="1" s="42"/>
+    <row r="59" ht="15.75" customHeight="1" s="42"/>
+    <row r="60" ht="15.75" customHeight="1" s="42"/>
+    <row r="61" ht="15.75" customHeight="1" s="42"/>
+    <row r="62" ht="15.75" customHeight="1" s="42"/>
+    <row r="63" ht="15.75" customHeight="1" s="42"/>
+    <row r="64" ht="15.75" customHeight="1" s="42"/>
+    <row r="65" ht="15.75" customHeight="1" s="42"/>
+    <row r="66" ht="15.75" customHeight="1" s="42"/>
+    <row r="67" ht="15.75" customHeight="1" s="42"/>
+    <row r="68" ht="15.75" customHeight="1" s="42"/>
+    <row r="69" ht="15.75" customHeight="1" s="42"/>
+    <row r="70" ht="15.75" customHeight="1" s="42"/>
+    <row r="71" ht="15.75" customHeight="1" s="42"/>
+    <row r="72" ht="15.75" customHeight="1" s="42"/>
+    <row r="73" ht="15.75" customHeight="1" s="42"/>
+    <row r="74" ht="15.75" customHeight="1" s="42"/>
+    <row r="75" ht="15.75" customHeight="1" s="42"/>
+    <row r="76" ht="15.75" customHeight="1" s="42"/>
+    <row r="77" ht="15.75" customHeight="1" s="42"/>
+    <row r="78" ht="15.75" customHeight="1" s="42"/>
+    <row r="79" ht="15.75" customHeight="1" s="42"/>
+    <row r="80" ht="15.75" customHeight="1" s="42"/>
+    <row r="81" ht="15.75" customHeight="1" s="42"/>
+    <row r="82" ht="15.75" customHeight="1" s="42"/>
+    <row r="83" ht="15.75" customHeight="1" s="42"/>
+    <row r="84" ht="15.75" customHeight="1" s="42"/>
+    <row r="85" ht="15.75" customHeight="1" s="42"/>
+    <row r="86" ht="15.75" customHeight="1" s="42"/>
+    <row r="87" ht="15.75" customHeight="1" s="42"/>
+    <row r="88" ht="15.75" customHeight="1" s="42"/>
+    <row r="89" ht="15.75" customHeight="1" s="42"/>
+    <row r="90" ht="15.75" customHeight="1" s="42"/>
+    <row r="91" ht="15.75" customHeight="1" s="42"/>
+    <row r="92" ht="15.75" customHeight="1" s="42"/>
+    <row r="93" ht="15.75" customHeight="1" s="42"/>
+    <row r="94" ht="15.75" customHeight="1" s="42"/>
+    <row r="95" ht="15.75" customHeight="1" s="42"/>
+    <row r="96" ht="15.75" customHeight="1" s="42"/>
+    <row r="97" ht="15.75" customHeight="1" s="42"/>
+    <row r="98" ht="15.75" customHeight="1" s="42"/>
+    <row r="99" ht="15.75" customHeight="1" s="42"/>
+    <row r="100" ht="15.75" customHeight="1" s="42"/>
+    <row r="101" ht="15.75" customHeight="1" s="42"/>
+    <row r="102" ht="15.75" customHeight="1" s="42"/>
+    <row r="103" ht="15.75" customHeight="1" s="42"/>
+    <row r="104" ht="15.75" customHeight="1" s="42"/>
+    <row r="105" ht="15.75" customHeight="1" s="42"/>
+    <row r="106" ht="15.75" customHeight="1" s="42"/>
+    <row r="107" ht="15.75" customHeight="1" s="42"/>
+    <row r="108" ht="15.75" customHeight="1" s="42"/>
+    <row r="109" ht="15.75" customHeight="1" s="42"/>
+    <row r="110" ht="15.75" customHeight="1" s="42"/>
+    <row r="111" ht="15.75" customHeight="1" s="42"/>
+    <row r="112" ht="15.75" customHeight="1" s="42"/>
+    <row r="113" ht="15.75" customHeight="1" s="42"/>
+    <row r="114" ht="15.75" customHeight="1" s="42"/>
+    <row r="115" ht="15.75" customHeight="1" s="42"/>
+    <row r="116" ht="15.75" customHeight="1" s="42"/>
+    <row r="117" ht="15.75" customHeight="1" s="42"/>
+    <row r="118" ht="15.75" customHeight="1" s="42"/>
+    <row r="119" ht="15.75" customHeight="1" s="42"/>
+    <row r="120" ht="15.75" customHeight="1" s="42"/>
+    <row r="121" ht="15.75" customHeight="1" s="42"/>
+    <row r="122" ht="15.75" customHeight="1" s="42"/>
+    <row r="123" ht="15.75" customHeight="1" s="42"/>
+    <row r="124" ht="15.75" customHeight="1" s="42"/>
+    <row r="125" ht="15.75" customHeight="1" s="42"/>
+    <row r="126" ht="15.75" customHeight="1" s="42"/>
+    <row r="127" ht="15.75" customHeight="1" s="42"/>
+    <row r="128" ht="15.75" customHeight="1" s="42"/>
+    <row r="129" ht="15.75" customHeight="1" s="42"/>
+    <row r="130" ht="15.75" customHeight="1" s="42"/>
+    <row r="131" ht="15.75" customHeight="1" s="42"/>
+    <row r="132" ht="15.75" customHeight="1" s="42"/>
+    <row r="133" ht="15.75" customHeight="1" s="42"/>
+    <row r="134" ht="15.75" customHeight="1" s="42"/>
+    <row r="135" ht="15.75" customHeight="1" s="42"/>
+    <row r="136" ht="15.75" customHeight="1" s="42"/>
+    <row r="137" ht="15.75" customHeight="1" s="42"/>
+    <row r="138" ht="15.75" customHeight="1" s="42"/>
+    <row r="139" ht="15.75" customHeight="1" s="42"/>
+    <row r="140" ht="15.75" customHeight="1" s="42"/>
+    <row r="141" ht="15.75" customHeight="1" s="42"/>
+    <row r="142" ht="15.75" customHeight="1" s="42"/>
+    <row r="143" ht="15.75" customHeight="1" s="42"/>
+    <row r="144" ht="15.75" customHeight="1" s="42"/>
+    <row r="145" ht="15.75" customHeight="1" s="42"/>
+    <row r="146" ht="15.75" customHeight="1" s="42"/>
+    <row r="147" ht="15.75" customHeight="1" s="42"/>
+    <row r="148" ht="15.75" customHeight="1" s="42"/>
+    <row r="149" ht="15.75" customHeight="1" s="42"/>
+    <row r="150" ht="15.75" customHeight="1" s="42"/>
+    <row r="151" ht="15.75" customHeight="1" s="42"/>
+    <row r="152" ht="15.75" customHeight="1" s="42"/>
+    <row r="153" ht="15.75" customHeight="1" s="42"/>
+    <row r="154" ht="15.75" customHeight="1" s="42"/>
+    <row r="155" ht="15.75" customHeight="1" s="42"/>
+    <row r="156" ht="15.75" customHeight="1" s="42"/>
+    <row r="157" ht="15.75" customHeight="1" s="42"/>
+    <row r="158" ht="15.75" customHeight="1" s="42"/>
+    <row r="159" ht="15.75" customHeight="1" s="42"/>
+    <row r="160" ht="15.75" customHeight="1" s="42"/>
+    <row r="161" ht="15.75" customHeight="1" s="42"/>
+    <row r="162" ht="15.75" customHeight="1" s="42"/>
+    <row r="163" ht="15.75" customHeight="1" s="42"/>
+    <row r="164" ht="15.75" customHeight="1" s="42"/>
+    <row r="165" ht="15.75" customHeight="1" s="42"/>
+    <row r="166" ht="15.75" customHeight="1" s="42"/>
+    <row r="167" ht="15.75" customHeight="1" s="42"/>
+    <row r="168" ht="15.75" customHeight="1" s="42"/>
+    <row r="169" ht="15.75" customHeight="1" s="42"/>
+    <row r="170" ht="15.75" customHeight="1" s="42"/>
+    <row r="171" ht="15.75" customHeight="1" s="42"/>
+    <row r="172" ht="15.75" customHeight="1" s="42"/>
+    <row r="173" ht="15.75" customHeight="1" s="42"/>
+    <row r="174" ht="15.75" customHeight="1" s="42"/>
+    <row r="175" ht="15.75" customHeight="1" s="42"/>
+    <row r="176" ht="15.75" customHeight="1" s="42"/>
+    <row r="177" ht="15.75" customHeight="1" s="42"/>
+    <row r="178" ht="15.75" customHeight="1" s="42"/>
+    <row r="179" ht="15.75" customHeight="1" s="42"/>
+    <row r="180" ht="15.75" customHeight="1" s="42"/>
+    <row r="181" ht="15.75" customHeight="1" s="42"/>
+    <row r="182" ht="15.75" customHeight="1" s="42"/>
+    <row r="183" ht="15.75" customHeight="1" s="42"/>
+    <row r="184" ht="15.75" customHeight="1" s="42"/>
+    <row r="185" ht="15.75" customHeight="1" s="42"/>
+    <row r="186" ht="15.75" customHeight="1" s="42"/>
+    <row r="187" ht="15.75" customHeight="1" s="42"/>
+    <row r="188" ht="15.75" customHeight="1" s="42"/>
+    <row r="189" ht="15.75" customHeight="1" s="42"/>
+    <row r="190" ht="15.75" customHeight="1" s="42"/>
+    <row r="191" ht="15.75" customHeight="1" s="42"/>
+    <row r="192" ht="15.75" customHeight="1" s="42"/>
+    <row r="193" ht="15.75" customHeight="1" s="42"/>
+    <row r="194" ht="15.75" customHeight="1" s="42"/>
+    <row r="195" ht="15.75" customHeight="1" s="42"/>
+    <row r="196" ht="15.75" customHeight="1" s="42"/>
+    <row r="197" ht="15.75" customHeight="1" s="42"/>
+    <row r="198" ht="15.75" customHeight="1" s="42"/>
+    <row r="199" ht="15.75" customHeight="1" s="42"/>
+    <row r="200" ht="15.75" customHeight="1" s="42"/>
+    <row r="201" ht="15.75" customHeight="1" s="42"/>
+    <row r="202" ht="15.75" customHeight="1" s="42"/>
+    <row r="203" ht="15.75" customHeight="1" s="42"/>
+    <row r="204" ht="15.75" customHeight="1" s="42"/>
+    <row r="205" ht="15.75" customHeight="1" s="42"/>
+    <row r="206" ht="15.75" customHeight="1" s="42"/>
+    <row r="207" ht="15.75" customHeight="1" s="42"/>
+    <row r="208" ht="15.75" customHeight="1" s="42"/>
+    <row r="209" ht="15.75" customHeight="1" s="42"/>
+    <row r="210" ht="15.75" customHeight="1" s="42"/>
+    <row r="211" ht="15.75" customHeight="1" s="42"/>
+    <row r="212" ht="15.75" customHeight="1" s="42"/>
+    <row r="213" ht="15.75" customHeight="1" s="42"/>
+    <row r="214" ht="15.75" customHeight="1" s="42"/>
+    <row r="215" ht="15.75" customHeight="1" s="42"/>
+    <row r="216" ht="15.75" customHeight="1" s="42"/>
+    <row r="217" ht="15.75" customHeight="1" s="42"/>
+    <row r="218" ht="15.75" customHeight="1" s="42"/>
+    <row r="219" ht="15.75" customHeight="1" s="42"/>
+    <row r="220" ht="15.75" customHeight="1" s="42"/>
+    <row r="221" ht="15.75" customHeight="1" s="42"/>
+    <row r="222" ht="15.75" customHeight="1" s="42"/>
+    <row r="223" ht="15.75" customHeight="1" s="42"/>
+    <row r="224" ht="15.75" customHeight="1" s="42"/>
+    <row r="225" ht="15.75" customHeight="1" s="42"/>
+    <row r="226" ht="15.75" customHeight="1" s="42"/>
+    <row r="227" ht="15.75" customHeight="1" s="42"/>
+    <row r="228" ht="15.75" customHeight="1" s="42"/>
+    <row r="229" ht="15.75" customHeight="1" s="42"/>
+    <row r="230" ht="15.75" customHeight="1" s="42"/>
+    <row r="231" ht="15.75" customHeight="1" s="42"/>
+    <row r="232" ht="15.75" customHeight="1" s="42"/>
+    <row r="233" ht="15.75" customHeight="1" s="42"/>
+    <row r="234" ht="15.75" customHeight="1" s="42"/>
+    <row r="235" ht="15.75" customHeight="1" s="42"/>
+    <row r="236" ht="15.75" customHeight="1" s="42"/>
+    <row r="237" ht="15.75" customHeight="1" s="42"/>
+    <row r="238" ht="15.75" customHeight="1" s="42"/>
+    <row r="239" ht="15.75" customHeight="1" s="42"/>
+    <row r="240" ht="15.75" customHeight="1" s="42"/>
+    <row r="241" ht="15.75" customHeight="1" s="42"/>
+    <row r="242" ht="15.75" customHeight="1" s="42"/>
+    <row r="243" ht="15.75" customHeight="1" s="42"/>
+    <row r="244" ht="15.75" customHeight="1" s="42"/>
+    <row r="245" ht="15.75" customHeight="1" s="42"/>
+    <row r="246" ht="15.75" customHeight="1" s="42"/>
+    <row r="247" ht="15.75" customHeight="1" s="42"/>
+    <row r="248" ht="15.75" customHeight="1" s="42"/>
+    <row r="249" ht="15.75" customHeight="1" s="42"/>
+    <row r="250" ht="15.75" customHeight="1" s="42"/>
+    <row r="251" ht="15.75" customHeight="1" s="42"/>
+    <row r="252" ht="15.75" customHeight="1" s="42"/>
+    <row r="253" ht="15.75" customHeight="1" s="42"/>
+    <row r="254" ht="15.75" customHeight="1" s="42"/>
+    <row r="255" ht="15.75" customHeight="1" s="42"/>
+    <row r="256" ht="15.75" customHeight="1" s="42"/>
+    <row r="257" ht="15.75" customHeight="1" s="42"/>
+    <row r="258" ht="15.75" customHeight="1" s="42"/>
+    <row r="259" ht="15.75" customHeight="1" s="42"/>
+    <row r="260" ht="15.75" customHeight="1" s="42"/>
+    <row r="261" ht="15.75" customHeight="1" s="42"/>
+    <row r="262" ht="15.75" customHeight="1" s="42"/>
+    <row r="263" ht="15.75" customHeight="1" s="42"/>
+    <row r="264" ht="15.75" customHeight="1" s="42"/>
+    <row r="265" ht="15.75" customHeight="1" s="42"/>
+    <row r="266" ht="15.75" customHeight="1" s="42"/>
+    <row r="267" ht="15.75" customHeight="1" s="42"/>
+    <row r="268" ht="15.75" customHeight="1" s="42"/>
+    <row r="269" ht="15.75" customHeight="1" s="42"/>
+    <row r="270" ht="15.75" customHeight="1" s="42"/>
+    <row r="271" ht="15.75" customHeight="1" s="42"/>
+    <row r="272" ht="15.75" customHeight="1" s="42"/>
+    <row r="273" ht="15.75" customHeight="1" s="42"/>
+    <row r="274" ht="15.75" customHeight="1" s="42"/>
+    <row r="275" ht="15.75" customHeight="1" s="42"/>
+    <row r="276" ht="15.75" customHeight="1" s="42"/>
+    <row r="277" ht="15.75" customHeight="1" s="42"/>
+    <row r="278" ht="15.75" customHeight="1" s="42"/>
+    <row r="279" ht="15.75" customHeight="1" s="42"/>
+    <row r="280" ht="15.75" customHeight="1" s="42"/>
+    <row r="281" ht="15.75" customHeight="1" s="42"/>
+    <row r="282" ht="15.75" customHeight="1" s="42"/>
+    <row r="283" ht="15.75" customHeight="1" s="42"/>
+    <row r="284" ht="15.75" customHeight="1" s="42"/>
+    <row r="285" ht="15.75" customHeight="1" s="42"/>
+    <row r="286" ht="15.75" customHeight="1" s="42"/>
+    <row r="287" ht="15.75" customHeight="1" s="42"/>
+    <row r="288" ht="15.75" customHeight="1" s="42"/>
+    <row r="289" ht="15.75" customHeight="1" s="42"/>
+    <row r="290" ht="15.75" customHeight="1" s="42"/>
+    <row r="291" ht="15.75" customHeight="1" s="42"/>
+    <row r="292" ht="15.75" customHeight="1" s="42"/>
+    <row r="293" ht="15.75" customHeight="1" s="42"/>
+    <row r="294" ht="15.75" customHeight="1" s="42"/>
+    <row r="295" ht="15.75" customHeight="1" s="42"/>
+    <row r="296" ht="15.75" customHeight="1" s="42"/>
+    <row r="297" ht="15.75" customHeight="1" s="42"/>
+    <row r="298" ht="15.75" customHeight="1" s="42"/>
+    <row r="299" ht="15.75" customHeight="1" s="42"/>
+    <row r="300" ht="15.75" customHeight="1" s="42"/>
+    <row r="301" ht="15.75" customHeight="1" s="42"/>
+    <row r="302" ht="15.75" customHeight="1" s="42"/>
+    <row r="303" ht="15.75" customHeight="1" s="42"/>
+    <row r="304" ht="15.75" customHeight="1" s="42"/>
+    <row r="305" ht="15.75" customHeight="1" s="42"/>
+    <row r="306" ht="15.75" customHeight="1" s="42"/>
+    <row r="307" ht="15.75" customHeight="1" s="42"/>
+    <row r="308" ht="15.75" customHeight="1" s="42"/>
+    <row r="309" ht="15.75" customHeight="1" s="42"/>
+    <row r="310" ht="15.75" customHeight="1" s="42"/>
+    <row r="311" ht="15.75" customHeight="1" s="42"/>
+    <row r="312" ht="15.75" customHeight="1" s="42"/>
+    <row r="313" ht="15.75" customHeight="1" s="42"/>
+    <row r="314" ht="15.75" customHeight="1" s="42"/>
+    <row r="315" ht="15.75" customHeight="1" s="42"/>
+    <row r="316" ht="15.75" customHeight="1" s="42"/>
+    <row r="317" ht="15.75" customHeight="1" s="42"/>
+    <row r="318" ht="15.75" customHeight="1" s="42"/>
+    <row r="319" ht="15.75" customHeight="1" s="42"/>
+    <row r="320" ht="15.75" customHeight="1" s="42"/>
+    <row r="321" ht="15.75" customHeight="1" s="42"/>
+    <row r="322" ht="15.75" customHeight="1" s="42"/>
+    <row r="323" ht="15.75" customHeight="1" s="42"/>
+    <row r="324" ht="15.75" customHeight="1" s="42"/>
+    <row r="325" ht="15.75" customHeight="1" s="42"/>
+    <row r="326" ht="15.75" customHeight="1" s="42"/>
+    <row r="327" ht="15.75" customHeight="1" s="42"/>
+    <row r="328" ht="15.75" customHeight="1" s="42"/>
+    <row r="329" ht="15.75" customHeight="1" s="42"/>
+    <row r="330" ht="15.75" customHeight="1" s="42"/>
+    <row r="331" ht="15.75" customHeight="1" s="42"/>
+    <row r="332" ht="15.75" customHeight="1" s="42"/>
+    <row r="333" ht="15.75" customHeight="1" s="42"/>
+    <row r="334" ht="15.75" customHeight="1" s="42"/>
+    <row r="335" ht="15.75" customHeight="1" s="42"/>
+    <row r="336" ht="15.75" customHeight="1" s="42"/>
+    <row r="337" ht="15.75" customHeight="1" s="42"/>
+    <row r="338" ht="15.75" customHeight="1" s="42"/>
+    <row r="339" ht="15.75" customHeight="1" s="42"/>
+    <row r="340" ht="15.75" customHeight="1" s="42"/>
+    <row r="341" ht="15.75" customHeight="1" s="42"/>
+    <row r="342" ht="15.75" customHeight="1" s="42"/>
+    <row r="343" ht="15.75" customHeight="1" s="42"/>
+    <row r="344" ht="15.75" customHeight="1" s="42"/>
+    <row r="345" ht="15.75" customHeight="1" s="42"/>
+    <row r="346" ht="15.75" customHeight="1" s="42"/>
+    <row r="347" ht="15.75" customHeight="1" s="42"/>
+    <row r="348" ht="15.75" customHeight="1" s="42"/>
+    <row r="349" ht="15.75" customHeight="1" s="42"/>
+    <row r="350" ht="15.75" customHeight="1" s="42"/>
+    <row r="351" ht="15.75" customHeight="1" s="42"/>
+    <row r="352" ht="15.75" customHeight="1" s="42"/>
+    <row r="353" ht="15.75" customHeight="1" s="42"/>
+    <row r="354" ht="15.75" customHeight="1" s="42"/>
+    <row r="355" ht="15.75" customHeight="1" s="42"/>
+    <row r="356" ht="15.75" customHeight="1" s="42"/>
+    <row r="357" ht="15.75" customHeight="1" s="42"/>
+    <row r="358" ht="15.75" customHeight="1" s="42"/>
+    <row r="359" ht="15.75" customHeight="1" s="42"/>
+    <row r="360" ht="15.75" customHeight="1" s="42"/>
+    <row r="361" ht="15.75" customHeight="1" s="42"/>
+    <row r="362" ht="15.75" customHeight="1" s="42"/>
+    <row r="363" ht="15.75" customHeight="1" s="42"/>
+    <row r="364" ht="15.75" customHeight="1" s="42"/>
+    <row r="365" ht="15.75" customHeight="1" s="42"/>
+    <row r="366" ht="15.75" customHeight="1" s="42"/>
+    <row r="367" ht="15.75" customHeight="1" s="42"/>
+    <row r="368" ht="15.75" customHeight="1" s="42"/>
+    <row r="369" ht="15.75" customHeight="1" s="42"/>
+    <row r="370" ht="15.75" customHeight="1" s="42"/>
+    <row r="371" ht="15.75" customHeight="1" s="42"/>
+    <row r="372" ht="15.75" customHeight="1" s="42"/>
+    <row r="373" ht="15.75" customHeight="1" s="42"/>
+    <row r="374" ht="15.75" customHeight="1" s="42"/>
+    <row r="375" ht="15.75" customHeight="1" s="42"/>
+    <row r="376" ht="15.75" customHeight="1" s="42"/>
+    <row r="377" ht="15.75" customHeight="1" s="42"/>
+    <row r="378" ht="15.75" customHeight="1" s="42"/>
+    <row r="379" ht="15.75" customHeight="1" s="42"/>
+    <row r="380" ht="15.75" customHeight="1" s="42"/>
+    <row r="381" ht="15.75" customHeight="1" s="42"/>
+    <row r="382" ht="15.75" customHeight="1" s="42"/>
+    <row r="383" ht="15.75" customHeight="1" s="42"/>
+    <row r="384" ht="15.75" customHeight="1" s="42"/>
+    <row r="385" ht="15.75" customHeight="1" s="42"/>
+    <row r="386" ht="15.75" customHeight="1" s="42"/>
+    <row r="387" ht="15.75" customHeight="1" s="42"/>
+    <row r="388" ht="15.75" customHeight="1" s="42"/>
+    <row r="389" ht="15.75" customHeight="1" s="42"/>
+    <row r="390" ht="15.75" customHeight="1" s="42"/>
+    <row r="391" ht="15.75" customHeight="1" s="42"/>
+    <row r="392" ht="15.75" customHeight="1" s="42"/>
+    <row r="393" ht="15.75" customHeight="1" s="42"/>
+    <row r="394" ht="15.75" customHeight="1" s="42"/>
+    <row r="395" ht="15.75" customHeight="1" s="42"/>
+    <row r="396" ht="15.75" customHeight="1" s="42"/>
+    <row r="397" ht="15.75" customHeight="1" s="42"/>
+    <row r="398" ht="15.75" customHeight="1" s="42"/>
+    <row r="399" ht="15.75" customHeight="1" s="42"/>
+    <row r="400" ht="15.75" customHeight="1" s="42"/>
+    <row r="401" ht="15.75" customHeight="1" s="42"/>
+    <row r="402" ht="15.75" customHeight="1" s="42"/>
+    <row r="403" ht="15.75" customHeight="1" s="42"/>
+    <row r="404" ht="15.75" customHeight="1" s="42"/>
+    <row r="405" ht="15.75" customHeight="1" s="42"/>
+    <row r="406" ht="15.75" customHeight="1" s="42"/>
+    <row r="407" ht="15.75" customHeight="1" s="42"/>
+    <row r="408" ht="15.75" customHeight="1" s="42"/>
+    <row r="409" ht="15.75" customHeight="1" s="42"/>
+    <row r="410" ht="15.75" customHeight="1" s="42"/>
+    <row r="411" ht="15.75" customHeight="1" s="42"/>
+    <row r="412" ht="15.75" customHeight="1" s="42"/>
+    <row r="413" ht="15.75" customHeight="1" s="42"/>
+    <row r="414" ht="15.75" customHeight="1" s="42"/>
+    <row r="415" ht="15.75" customHeight="1" s="42"/>
+    <row r="416" ht="15.75" customHeight="1" s="42"/>
+    <row r="417" ht="15.75" customHeight="1" s="42"/>
+    <row r="418" ht="15.75" customHeight="1" s="42"/>
+    <row r="419" ht="15.75" customHeight="1" s="42"/>
+    <row r="420" ht="15.75" customHeight="1" s="42"/>
+    <row r="421" ht="15.75" customHeight="1" s="42"/>
+    <row r="422" ht="15.75" customHeight="1" s="42"/>
+    <row r="423" ht="15.75" customHeight="1" s="42"/>
+    <row r="424" ht="15.75" customHeight="1" s="42"/>
+    <row r="425" ht="15.75" customHeight="1" s="42"/>
+    <row r="426" ht="15.75" customHeight="1" s="42"/>
+    <row r="427" ht="15.75" customHeight="1" s="42"/>
+    <row r="428" ht="15.75" customHeight="1" s="42"/>
+    <row r="429" ht="15.75" customHeight="1" s="42"/>
+    <row r="430" ht="15.75" customHeight="1" s="42"/>
+    <row r="431" ht="15.75" customHeight="1" s="42"/>
+    <row r="432" ht="15.75" customHeight="1" s="42"/>
+    <row r="433" ht="15.75" customHeight="1" s="42"/>
+    <row r="434" ht="15.75" customHeight="1" s="42"/>
+    <row r="435" ht="15.75" customHeight="1" s="42"/>
+    <row r="436" ht="15.75" customHeight="1" s="42"/>
+    <row r="437" ht="15.75" customHeight="1" s="42"/>
+    <row r="438" ht="15.75" customHeight="1" s="42"/>
+    <row r="439" ht="15.75" customHeight="1" s="42"/>
+    <row r="440" ht="15.75" customHeight="1" s="42"/>
+    <row r="441" ht="15.75" customHeight="1" s="42"/>
+    <row r="442" ht="15.75" customHeight="1" s="42"/>
+    <row r="443" ht="15.75" customHeight="1" s="42"/>
+    <row r="444" ht="15.75" customHeight="1" s="42"/>
+    <row r="445" ht="15.75" customHeight="1" s="42"/>
+    <row r="446" ht="15.75" customHeight="1" s="42"/>
+    <row r="447" ht="15.75" customHeight="1" s="42"/>
+    <row r="448" ht="15.75" customHeight="1" s="42"/>
+    <row r="449" ht="15.75" customHeight="1" s="42"/>
+    <row r="450" ht="15.75" customHeight="1" s="42"/>
+    <row r="451" ht="15.75" customHeight="1" s="42"/>
+    <row r="452" ht="15.75" customHeight="1" s="42"/>
+    <row r="453" ht="15.75" customHeight="1" s="42"/>
+    <row r="454" ht="15.75" customHeight="1" s="42"/>
+    <row r="455" ht="15.75" customHeight="1" s="42"/>
+    <row r="456" ht="15.75" customHeight="1" s="42"/>
+    <row r="457" ht="15.75" customHeight="1" s="42"/>
+    <row r="458" ht="15.75" customHeight="1" s="42"/>
+    <row r="459" ht="15.75" customHeight="1" s="42"/>
+    <row r="460" ht="15.75" customHeight="1" s="42"/>
+    <row r="461" ht="15.75" customHeight="1" s="42"/>
+    <row r="462" ht="15.75" customHeight="1" s="42"/>
+    <row r="463" ht="15.75" customHeight="1" s="42"/>
+    <row r="464" ht="15.75" customHeight="1" s="42"/>
+    <row r="465" ht="15.75" customHeight="1" s="42"/>
+    <row r="466" ht="15.75" customHeight="1" s="42"/>
+    <row r="467" ht="15.75" customHeight="1" s="42"/>
+    <row r="468" ht="15.75" customHeight="1" s="42"/>
+    <row r="469" ht="15.75" customHeight="1" s="42"/>
+    <row r="470" ht="15.75" customHeight="1" s="42"/>
+    <row r="471" ht="15.75" customHeight="1" s="42"/>
+    <row r="472" ht="15.75" customHeight="1" s="42"/>
+    <row r="473" ht="15.75" customHeight="1" s="42"/>
+    <row r="474" ht="15.75" customHeight="1" s="42"/>
+    <row r="475" ht="15.75" customHeight="1" s="42"/>
+    <row r="476" ht="15.75" customHeight="1" s="42"/>
+    <row r="477" ht="15.75" customHeight="1" s="42"/>
+    <row r="478" ht="15.75" customHeight="1" s="42"/>
+    <row r="479" ht="15.75" customHeight="1" s="42"/>
+    <row r="480" ht="15.75" customHeight="1" s="42"/>
+    <row r="481" ht="15.75" customHeight="1" s="42"/>
+    <row r="482" ht="15.75" customHeight="1" s="42"/>
+    <row r="483" ht="15.75" customHeight="1" s="42"/>
+    <row r="484" ht="15.75" customHeight="1" s="42"/>
+    <row r="485" ht="15.75" customHeight="1" s="42"/>
+    <row r="486" ht="15.75" customHeight="1" s="42"/>
+    <row r="487" ht="15.75" customHeight="1" s="42"/>
+    <row r="488" ht="15.75" customHeight="1" s="42"/>
+    <row r="489" ht="15.75" customHeight="1" s="42"/>
+    <row r="490" ht="15.75" customHeight="1" s="42"/>
+    <row r="491" ht="15.75" customHeight="1" s="42"/>
+    <row r="492" ht="15.75" customHeight="1" s="42"/>
+    <row r="493" ht="15.75" customHeight="1" s="42"/>
+    <row r="494" ht="15.75" customHeight="1" s="42"/>
+    <row r="495" ht="15.75" customHeight="1" s="42"/>
+    <row r="496" ht="15.75" customHeight="1" s="42"/>
+    <row r="497" ht="15.75" customHeight="1" s="42"/>
+    <row r="498" ht="15.75" customHeight="1" s="42"/>
+    <row r="499" ht="15.75" customHeight="1" s="42"/>
+    <row r="500" ht="15.75" customHeight="1" s="42"/>
+    <row r="501" ht="15.75" customHeight="1" s="42"/>
+    <row r="502" ht="15.75" customHeight="1" s="42"/>
+    <row r="503" ht="15.75" customHeight="1" s="42"/>
+    <row r="504" ht="15.75" customHeight="1" s="42"/>
+    <row r="505" ht="15.75" customHeight="1" s="42"/>
+    <row r="506" ht="15.75" customHeight="1" s="42"/>
+    <row r="507" ht="15.75" customHeight="1" s="42"/>
+    <row r="508" ht="15.75" customHeight="1" s="42"/>
+    <row r="509" ht="15.75" customHeight="1" s="42"/>
+    <row r="510" ht="15.75" customHeight="1" s="42"/>
+    <row r="511" ht="15.75" customHeight="1" s="42"/>
+    <row r="512" ht="15.75" customHeight="1" s="42"/>
+    <row r="513" ht="15.75" customHeight="1" s="42"/>
+    <row r="514" ht="15.75" customHeight="1" s="42"/>
+    <row r="515" ht="15.75" customHeight="1" s="42"/>
+    <row r="516" ht="15.75" customHeight="1" s="42"/>
+    <row r="517" ht="15.75" customHeight="1" s="42"/>
+    <row r="518" ht="15.75" customHeight="1" s="42"/>
+    <row r="519" ht="15.75" customHeight="1" s="42"/>
+    <row r="520" ht="15.75" customHeight="1" s="42"/>
+    <row r="521" ht="15.75" customHeight="1" s="42"/>
+    <row r="522" ht="15.75" customHeight="1" s="42"/>
+    <row r="523" ht="15.75" customHeight="1" s="42"/>
+    <row r="524" ht="15.75" customHeight="1" s="42"/>
+    <row r="525" ht="15.75" customHeight="1" s="42"/>
+    <row r="526" ht="15.75" customHeight="1" s="42"/>
+    <row r="527" ht="15.75" customHeight="1" s="42"/>
+    <row r="528" ht="15.75" customHeight="1" s="42"/>
+    <row r="529" ht="15.75" customHeight="1" s="42"/>
+    <row r="530" ht="15.75" customHeight="1" s="42"/>
+    <row r="531" ht="15.75" customHeight="1" s="42"/>
+    <row r="532" ht="15.75" customHeight="1" s="42"/>
+    <row r="533" ht="15.75" customHeight="1" s="42"/>
+    <row r="534" ht="15.75" customHeight="1" s="42"/>
+    <row r="535" ht="15.75" customHeight="1" s="42"/>
+    <row r="536" ht="15.75" customHeight="1" s="42"/>
+    <row r="537" ht="15.75" customHeight="1" s="42"/>
+    <row r="538" ht="15.75" customHeight="1" s="42"/>
+    <row r="539" ht="15.75" customHeight="1" s="42"/>
+    <row r="540" ht="15.75" customHeight="1" s="42"/>
+    <row r="541" ht="15.75" customHeight="1" s="42"/>
+    <row r="542" ht="15.75" customHeight="1" s="42"/>
+    <row r="543" ht="15.75" customHeight="1" s="42"/>
+    <row r="544" ht="15.75" customHeight="1" s="42"/>
+    <row r="545" ht="15.75" customHeight="1" s="42"/>
+    <row r="546" ht="15.75" customHeight="1" s="42"/>
+    <row r="547" ht="15.75" customHeight="1" s="42"/>
+    <row r="548" ht="15.75" customHeight="1" s="42"/>
+    <row r="549" ht="15.75" customHeight="1" s="42"/>
+    <row r="550" ht="15.75" customHeight="1" s="42"/>
+    <row r="551" ht="15.75" customHeight="1" s="42"/>
+    <row r="552" ht="15.75" customHeight="1" s="42"/>
+    <row r="553" ht="15.75" customHeight="1" s="42"/>
+    <row r="554" ht="15.75" customHeight="1" s="42"/>
+    <row r="555" ht="15.75" customHeight="1" s="42"/>
+    <row r="556" ht="15.75" customHeight="1" s="42"/>
+    <row r="557" ht="15.75" customHeight="1" s="42"/>
+    <row r="558" ht="15.75" customHeight="1" s="42"/>
+    <row r="559" ht="15.75" customHeight="1" s="42"/>
+    <row r="560" ht="15.75" customHeight="1" s="42"/>
+    <row r="561" ht="15.75" customHeight="1" s="42"/>
+    <row r="562" ht="15.75" customHeight="1" s="42"/>
+    <row r="563" ht="15.75" customHeight="1" s="42"/>
+    <row r="564" ht="15.75" customHeight="1" s="42"/>
+    <row r="565" ht="15.75" customHeight="1" s="42"/>
+    <row r="566" ht="15.75" customHeight="1" s="42"/>
+    <row r="567" ht="15.75" customHeight="1" s="42"/>
+    <row r="568" ht="15.75" customHeight="1" s="42"/>
+    <row r="569" ht="15.75" customHeight="1" s="42"/>
+    <row r="570" ht="15.75" customHeight="1" s="42"/>
+    <row r="571" ht="15.75" customHeight="1" s="42"/>
+    <row r="572" ht="15.75" customHeight="1" s="42"/>
+    <row r="573" ht="15.75" customHeight="1" s="42"/>
+    <row r="574" ht="15.75" customHeight="1" s="42"/>
+    <row r="575" ht="15.75" customHeight="1" s="42"/>
+    <row r="576" ht="15.75" customHeight="1" s="42"/>
+    <row r="577" ht="15.75" customHeight="1" s="42"/>
+    <row r="578" ht="15.75" customHeight="1" s="42"/>
+    <row r="579" ht="15.75" customHeight="1" s="42"/>
+    <row r="580" ht="15.75" customHeight="1" s="42"/>
+    <row r="581" ht="15.75" customHeight="1" s="42"/>
+    <row r="582" ht="15.75" customHeight="1" s="42"/>
+    <row r="583" ht="15.75" customHeight="1" s="42"/>
+    <row r="584" ht="15.75" customHeight="1" s="42"/>
+    <row r="585" ht="15.75" customHeight="1" s="42"/>
+    <row r="586" ht="15.75" customHeight="1" s="42"/>
+    <row r="587" ht="15.75" customHeight="1" s="42"/>
+    <row r="588" ht="15.75" customHeight="1" s="42"/>
+    <row r="589" ht="15.75" customHeight="1" s="42"/>
+    <row r="590" ht="15.75" customHeight="1" s="42"/>
+    <row r="591" ht="15.75" customHeight="1" s="42"/>
+    <row r="592" ht="15.75" customHeight="1" s="42"/>
+    <row r="593" ht="15.75" customHeight="1" s="42"/>
+    <row r="594" ht="15.75" customHeight="1" s="42"/>
+    <row r="595" ht="15.75" customHeight="1" s="42"/>
+    <row r="596" ht="15.75" customHeight="1" s="42"/>
+    <row r="597" ht="15.75" customHeight="1" s="42"/>
+    <row r="598" ht="15.75" customHeight="1" s="42"/>
+    <row r="599" ht="15.75" customHeight="1" s="42"/>
+    <row r="600" ht="15.75" customHeight="1" s="42"/>
+    <row r="601" ht="15.75" customHeight="1" s="42"/>
+    <row r="602" ht="15.75" customHeight="1" s="42"/>
+    <row r="603" ht="15.75" customHeight="1" s="42"/>
+    <row r="604" ht="15.75" customHeight="1" s="42"/>
+    <row r="605" ht="15.75" customHeight="1" s="42"/>
+    <row r="606" ht="15.75" customHeight="1" s="42"/>
+    <row r="607" ht="15.75" customHeight="1" s="42"/>
+    <row r="608" ht="15.75" customHeight="1" s="42"/>
+    <row r="609" ht="15.75" customHeight="1" s="42"/>
+    <row r="610" ht="15.75" customHeight="1" s="42"/>
+    <row r="611" ht="15.75" customHeight="1" s="42"/>
+    <row r="612" ht="15.75" customHeight="1" s="42"/>
+    <row r="613" ht="15.75" customHeight="1" s="42"/>
+    <row r="614" ht="15.75" customHeight="1" s="42"/>
+    <row r="615" ht="15.75" customHeight="1" s="42"/>
+    <row r="616" ht="15.75" customHeight="1" s="42"/>
+    <row r="617" ht="15.75" customHeight="1" s="42"/>
+    <row r="618" ht="15.75" customHeight="1" s="42"/>
+    <row r="619" ht="15.75" customHeight="1" s="42"/>
+    <row r="620" ht="15.75" customHeight="1" s="42"/>
+    <row r="621" ht="15.75" customHeight="1" s="42"/>
+    <row r="622" ht="15.75" customHeight="1" s="42"/>
+    <row r="623" ht="15.75" customHeight="1" s="42"/>
+    <row r="624" ht="15.75" customHeight="1" s="42"/>
+    <row r="625" ht="15.75" customHeight="1" s="42"/>
+    <row r="626" ht="15.75" customHeight="1" s="42"/>
+    <row r="627" ht="15.75" customHeight="1" s="42"/>
+    <row r="628" ht="15.75" customHeight="1" s="42"/>
+    <row r="629" ht="15.75" customHeight="1" s="42"/>
+    <row r="630" ht="15.75" customHeight="1" s="42"/>
+    <row r="631" ht="15.75" customHeight="1" s="42"/>
+    <row r="632" ht="15.75" customHeight="1" s="42"/>
+    <row r="633" ht="15.75" customHeight="1" s="42"/>
+    <row r="634" ht="15.75" customHeight="1" s="42"/>
+    <row r="635" ht="15.75" customHeight="1" s="42"/>
+    <row r="636" ht="15.75" customHeight="1" s="42"/>
+    <row r="637" ht="15.75" customHeight="1" s="42"/>
+    <row r="638" ht="15.75" customHeight="1" s="42"/>
+    <row r="639" ht="15.75" customHeight="1" s="42"/>
+    <row r="640" ht="15.75" customHeight="1" s="42"/>
+    <row r="641" ht="15.75" customHeight="1" s="42"/>
+    <row r="642" ht="15.75" customHeight="1" s="42"/>
+    <row r="643" ht="15.75" customHeight="1" s="42"/>
+    <row r="644" ht="15.75" customHeight="1" s="42"/>
+    <row r="645" ht="15.75" customHeight="1" s="42"/>
+    <row r="646" ht="15.75" customHeight="1" s="42"/>
+    <row r="647" ht="15.75" customHeight="1" s="42"/>
+    <row r="648" ht="15.75" customHeight="1" s="42"/>
+    <row r="649" ht="15.75" customHeight="1" s="42"/>
+    <row r="650" ht="15.75" customHeight="1" s="42"/>
+    <row r="651" ht="15.75" customHeight="1" s="42"/>
+    <row r="652" ht="15.75" customHeight="1" s="42"/>
+    <row r="653" ht="15.75" customHeight="1" s="42"/>
+    <row r="654" ht="15.75" customHeight="1" s="42"/>
+    <row r="655" ht="15.75" customHeight="1" s="42"/>
+    <row r="656" ht="15.75" customHeight="1" s="42"/>
+    <row r="657" ht="15.75" customHeight="1" s="42"/>
+    <row r="658" ht="15.75" customHeight="1" s="42"/>
+    <row r="659" ht="15.75" customHeight="1" s="42"/>
+    <row r="660" ht="15.75" customHeight="1" s="42"/>
+    <row r="661" ht="15.75" customHeight="1" s="42"/>
+    <row r="662" ht="15.75" customHeight="1" s="42"/>
+    <row r="663" ht="15.75" customHeight="1" s="42"/>
+    <row r="664" ht="15.75" customHeight="1" s="42"/>
+    <row r="665" ht="15.75" customHeight="1" s="42"/>
+    <row r="666" ht="15.75" customHeight="1" s="42"/>
+    <row r="667" ht="15.75" customHeight="1" s="42"/>
+    <row r="668" ht="15.75" customHeight="1" s="42"/>
+    <row r="669" ht="15.75" customHeight="1" s="42"/>
+    <row r="670" ht="15.75" customHeight="1" s="42"/>
+    <row r="671" ht="15.75" customHeight="1" s="42"/>
+    <row r="672" ht="15.75" customHeight="1" s="42"/>
+    <row r="673" ht="15.75" customHeight="1" s="42"/>
+    <row r="674" ht="15.75" customHeight="1" s="42"/>
+    <row r="675" ht="15.75" customHeight="1" s="42"/>
+    <row r="676" ht="15.75" customHeight="1" s="42"/>
+    <row r="677" ht="15.75" customHeight="1" s="42"/>
+    <row r="678" ht="15.75" customHeight="1" s="42"/>
+    <row r="679" ht="15.75" customHeight="1" s="42"/>
+    <row r="680" ht="15.75" customHeight="1" s="42"/>
+    <row r="681" ht="15.75" customHeight="1" s="42"/>
+    <row r="682" ht="15.75" customHeight="1" s="42"/>
+    <row r="683" ht="15.75" customHeight="1" s="42"/>
+    <row r="684" ht="15.75" customHeight="1" s="42"/>
+    <row r="685" ht="15.75" customHeight="1" s="42"/>
+    <row r="686" ht="15.75" customHeight="1" s="42"/>
+    <row r="687" ht="15.75" customHeight="1" s="42"/>
+    <row r="688" ht="15.75" customHeight="1" s="42"/>
+    <row r="689" ht="15.75" customHeight="1" s="42"/>
+    <row r="690" ht="15.75" customHeight="1" s="42"/>
+    <row r="691" ht="15.75" customHeight="1" s="42"/>
+    <row r="692" ht="15.75" customHeight="1" s="42"/>
+    <row r="693" ht="15.75" customHeight="1" s="42"/>
+    <row r="694" ht="15.75" customHeight="1" s="42"/>
+    <row r="695" ht="15.75" customHeight="1" s="42"/>
+    <row r="696" ht="15.75" customHeight="1" s="42"/>
+    <row r="697" ht="15.75" customHeight="1" s="42"/>
+    <row r="698" ht="15.75" customHeight="1" s="42"/>
+    <row r="699" ht="15.75" customHeight="1" s="42"/>
+    <row r="700" ht="15.75" customHeight="1" s="42"/>
+    <row r="701" ht="15.75" customHeight="1" s="42"/>
+    <row r="702" ht="15.75" customHeight="1" s="42"/>
+    <row r="703" ht="15.75" customHeight="1" s="42"/>
+    <row r="704" ht="15.75" customHeight="1" s="42"/>
+    <row r="705" ht="15.75" customHeight="1" s="42"/>
+    <row r="706" ht="15.75" customHeight="1" s="42"/>
+    <row r="707" ht="15.75" customHeight="1" s="42"/>
+    <row r="708" ht="15.75" customHeight="1" s="42"/>
+    <row r="709" ht="15.75" customHeight="1" s="42"/>
+    <row r="710" ht="15.75" customHeight="1" s="42"/>
+    <row r="711" ht="15.75" customHeight="1" s="42"/>
+    <row r="712" ht="15.75" customHeight="1" s="42"/>
+    <row r="713" ht="15.75" customHeight="1" s="42"/>
+    <row r="714" ht="15.75" customHeight="1" s="42"/>
+    <row r="715" ht="15.75" customHeight="1" s="42"/>
+    <row r="716" ht="15.75" customHeight="1" s="42"/>
+    <row r="717" ht="15.75" customHeight="1" s="42"/>
+    <row r="718" ht="15.75" customHeight="1" s="42"/>
+    <row r="719" ht="15.75" customHeight="1" s="42"/>
+    <row r="720" ht="15.75" customHeight="1" s="42"/>
+    <row r="721" ht="15.75" customHeight="1" s="42"/>
+    <row r="722" ht="15.75" customHeight="1" s="42"/>
+    <row r="723" ht="15.75" customHeight="1" s="42"/>
+    <row r="724" ht="15.75" customHeight="1" s="42"/>
+    <row r="725" ht="15.75" customHeight="1" s="42"/>
+    <row r="726" ht="15.75" customHeight="1" s="42"/>
+    <row r="727" ht="15.75" customHeight="1" s="42"/>
+    <row r="728" ht="15.75" customHeight="1" s="42"/>
+    <row r="729" ht="15.75" customHeight="1" s="42"/>
+    <row r="730" ht="15.75" customHeight="1" s="42"/>
+    <row r="731" ht="15.75" customHeight="1" s="42"/>
+    <row r="732" ht="15.75" customHeight="1" s="42"/>
+    <row r="733" ht="15.75" customHeight="1" s="42"/>
+    <row r="734" ht="15.75" customHeight="1" s="42"/>
+    <row r="735" ht="15.75" customHeight="1" s="42"/>
+    <row r="736" ht="15.75" customHeight="1" s="42"/>
+    <row r="737" ht="15.75" customHeight="1" s="42"/>
+    <row r="738" ht="15.75" customHeight="1" s="42"/>
+    <row r="739" ht="15.75" customHeight="1" s="42"/>
+    <row r="740" ht="15.75" customHeight="1" s="42"/>
+    <row r="741" ht="15.75" customHeight="1" s="42"/>
+    <row r="742" ht="15.75" customHeight="1" s="42"/>
+    <row r="743" ht="15.75" customHeight="1" s="42"/>
+    <row r="744" ht="15.75" customHeight="1" s="42"/>
+    <row r="745" ht="15.75" customHeight="1" s="42"/>
+    <row r="746" ht="15.75" customHeight="1" s="42"/>
+    <row r="747" ht="15.75" customHeight="1" s="42"/>
+    <row r="748" ht="15.75" customHeight="1" s="42"/>
+    <row r="749" ht="15.75" customHeight="1" s="42"/>
+    <row r="750" ht="15.75" customHeight="1" s="42"/>
+    <row r="751" ht="15.75" customHeight="1" s="42"/>
+    <row r="752" ht="15.75" customHeight="1" s="42"/>
+    <row r="753" ht="15.75" customHeight="1" s="42"/>
+    <row r="754" ht="15.75" customHeight="1" s="42"/>
+    <row r="755" ht="15.75" customHeight="1" s="42"/>
+    <row r="756" ht="15.75" customHeight="1" s="42"/>
+    <row r="757" ht="15.75" customHeight="1" s="42"/>
+    <row r="758" ht="15.75" customHeight="1" s="42"/>
+    <row r="759" ht="15.75" customHeight="1" s="42"/>
+    <row r="760" ht="15.75" customHeight="1" s="42"/>
+    <row r="761" ht="15.75" customHeight="1" s="42"/>
+    <row r="762" ht="15.75" customHeight="1" s="42"/>
+    <row r="763" ht="15.75" customHeight="1" s="42"/>
+    <row r="764" ht="15.75" customHeight="1" s="42"/>
+    <row r="765" ht="15.75" customHeight="1" s="42"/>
+    <row r="766" ht="15.75" customHeight="1" s="42"/>
+    <row r="767" ht="15.75" customHeight="1" s="42"/>
+    <row r="768" ht="15.75" customHeight="1" s="42"/>
+    <row r="769" ht="15.75" customHeight="1" s="42"/>
+    <row r="770" ht="15.75" customHeight="1" s="42"/>
+    <row r="771" ht="15.75" customHeight="1" s="42"/>
+    <row r="772" ht="15.75" customHeight="1" s="42"/>
+    <row r="773" ht="15.75" customHeight="1" s="42"/>
+    <row r="774" ht="15.75" customHeight="1" s="42"/>
+    <row r="775" ht="15.75" customHeight="1" s="42"/>
+    <row r="776" ht="15.75" customHeight="1" s="42"/>
+    <row r="777" ht="15.75" customHeight="1" s="42"/>
+    <row r="778" ht="15.75" customHeight="1" s="42"/>
+    <row r="779" ht="15.75" customHeight="1" s="42"/>
+    <row r="780" ht="15.75" customHeight="1" s="42"/>
+    <row r="781" ht="15.75" customHeight="1" s="42"/>
+    <row r="782" ht="15.75" customHeight="1" s="42"/>
+    <row r="783" ht="15.75" customHeight="1" s="42"/>
+    <row r="784" ht="15.75" customHeight="1" s="42"/>
+    <row r="785" ht="15.75" customHeight="1" s="42"/>
+    <row r="786" ht="15.75" customHeight="1" s="42"/>
+    <row r="787" ht="15.75" customHeight="1" s="42"/>
+    <row r="788" ht="15.75" customHeight="1" s="42"/>
+    <row r="789" ht="15.75" customHeight="1" s="42"/>
+    <row r="790" ht="15.75" customHeight="1" s="42"/>
+    <row r="791" ht="15.75" customHeight="1" s="42"/>
+    <row r="792" ht="15.75" customHeight="1" s="42"/>
+    <row r="793" ht="15.75" customHeight="1" s="42"/>
+    <row r="794" ht="15.75" customHeight="1" s="42"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I30:J33"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="F35:J35"/>
+  <mergeCells count="30">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="M31:P34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="H35:P35"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.4" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="85" fitToHeight="0" fitToWidth="0"/>
+  <pageSetup orientation="landscape" scale="75" fitToHeight="0" fitToWidth="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>